--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -556,20 +556,14 @@
         <v>6.726666666666666</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>6.7</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,20 +591,14 @@
         <v>6.699999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.64</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,20 +626,14 @@
         <v>6.646666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>6.61</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -679,20 +661,14 @@
         <v>6.663333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>6.72</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,20 +696,14 @@
         <v>6.693333333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.72</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -761,20 +731,14 @@
         <v>6.759999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -802,20 +766,14 @@
         <v>6.793333333333332</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.83</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -843,20 +801,14 @@
         <v>6.839999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>6.85</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -884,20 +836,14 @@
         <v>6.819999999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>6.77</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -925,20 +871,14 @@
         <v>6.789999999999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>6.75</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -966,20 +906,14 @@
         <v>6.806666666666665</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>6.88</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1013,12 +947,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1089,14 +1023,12 @@
         <v>6.866666666666664</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>6.89</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1130,14 +1062,12 @@
         <v>6.903333333333332</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>6.96</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1171,14 +1101,12 @@
         <v>6.903333333333332</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>6.91</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1251,14 +1179,12 @@
         <v>6.823333333333331</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>6.77</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1292,14 +1218,12 @@
         <v>6.783333333333331</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>6.77</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1333,14 +1257,12 @@
         <v>6.826666666666664</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1374,14 +1296,12 @@
         <v>6.883333333333332</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1415,14 +1335,12 @@
         <v>6.939999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1534,14 +1452,12 @@
         <v>6.81333333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>6.83</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -1575,14 +1491,12 @@
         <v>6.823333333333331</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
@@ -1616,14 +1530,12 @@
         <v>6.829999999999997</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>6.83</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
@@ -1657,14 +1569,12 @@
         <v>6.836666666666663</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
@@ -1698,14 +1608,12 @@
         <v>6.863333333333331</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>6.9</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
@@ -1739,14 +1647,12 @@
         <v>6.899999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>6.94</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
@@ -1780,14 +1686,12 @@
         <v>6.919999999999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>6.9</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1899,14 +1803,12 @@
         <v>6.819999999999998</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>6.83</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -1940,14 +1842,12 @@
         <v>6.806666666666665</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -1981,14 +1881,12 @@
         <v>6.829999999999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2022,14 +1920,12 @@
         <v>6.813333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2063,14 +1959,12 @@
         <v>6.8</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -2104,14 +1998,12 @@
         <v>6.78</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2145,14 +2037,12 @@
         <v>6.78</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2186,14 +2076,12 @@
         <v>6.783333333333332</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
@@ -2227,14 +2115,12 @@
         <v>6.786666666666665</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2268,14 +2154,12 @@
         <v>6.789999999999998</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2309,14 +2193,12 @@
         <v>6.789999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2350,14 +2232,12 @@
         <v>6.789999999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2391,14 +2271,12 @@
         <v>6.799999999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2432,14 +2310,12 @@
         <v>6.823333333333331</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>6.86</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2473,14 +2349,12 @@
         <v>6.833333333333332</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2514,14 +2388,12 @@
         <v>6.819999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6.8</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2555,14 +2427,12 @@
         <v>6.816666666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2596,14 +2466,12 @@
         <v>6.823333333333331</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
@@ -2637,14 +2505,12 @@
         <v>6.879999999999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>6.9</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2678,14 +2544,12 @@
         <v>6.679999999999997</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>6.88</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2719,14 +2583,12 @@
         <v>6.716666666666664</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
@@ -2760,14 +2622,12 @@
         <v>6.709999999999997</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.93</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
@@ -2801,14 +2661,12 @@
         <v>6.93333333333333</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>6.92</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2842,14 +2700,12 @@
         <v>7.006666666666664</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>6.93</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2883,14 +2739,12 @@
         <v>6.779999999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2924,23 +2778,19 @@
         <v>6.853333333333332</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2965,20 +2815,14 @@
         <v>6.859999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3013,12 +2857,10 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.7</v>
+        <v>6.87</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7</v>
+        <v>6.87</v>
       </c>
       <c r="D2" t="n">
         <v>6.87</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7</v>
+        <v>6.87</v>
       </c>
       <c r="F2" t="n">
-        <v>24014.1404</v>
+        <v>4978.748</v>
       </c>
       <c r="G2" t="n">
-        <v>6.819999999999999</v>
+        <v>6.954499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,16 +474,16 @@
         <v>6.7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7</v>
+        <v>6.87</v>
       </c>
       <c r="E3" t="n">
         <v>6.7</v>
       </c>
       <c r="F3" t="n">
-        <v>6311.3892</v>
+        <v>24014.1404</v>
       </c>
       <c r="G3" t="n">
-        <v>6.756666666666665</v>
+        <v>6.961666666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="C4" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="E4" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="F4" t="n">
-        <v>939.7643</v>
+        <v>6311.3892</v>
       </c>
       <c r="G4" t="n">
-        <v>6.729999999999998</v>
+        <v>6.964999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,31 +538,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="C5" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74</v>
+        <v>6.79</v>
       </c>
       <c r="E5" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="F5" t="n">
-        <v>2369.6644</v>
+        <v>939.7643</v>
       </c>
       <c r="G5" t="n">
-        <v>6.726666666666666</v>
+        <v>6.969833333333332</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -573,32 +577,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.64</v>
+        <v>6.7</v>
       </c>
       <c r="C6" t="n">
-        <v>6.62</v>
+        <v>6.69</v>
       </c>
       <c r="D6" t="n">
-        <v>6.64</v>
+        <v>6.74</v>
       </c>
       <c r="E6" t="n">
-        <v>6.62</v>
+        <v>6.69</v>
       </c>
       <c r="F6" t="n">
-        <v>76503.93369999999</v>
+        <v>2369.6644</v>
       </c>
       <c r="G6" t="n">
-        <v>6.699999999999999</v>
+        <v>6.972999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +620,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.61</v>
+        <v>6.64</v>
       </c>
       <c r="C7" t="n">
-        <v>6.63</v>
+        <v>6.62</v>
       </c>
       <c r="D7" t="n">
-        <v>6.63</v>
+        <v>6.64</v>
       </c>
       <c r="E7" t="n">
-        <v>6.61</v>
+        <v>6.62</v>
       </c>
       <c r="F7" t="n">
-        <v>7999.4133</v>
+        <v>76503.93369999999</v>
       </c>
       <c r="G7" t="n">
-        <v>6.646666666666666</v>
+        <v>6.974666666666666</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,32 +663,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="C8" t="n">
-        <v>6.74</v>
+        <v>6.63</v>
       </c>
       <c r="D8" t="n">
-        <v>6.75</v>
+        <v>6.63</v>
       </c>
       <c r="E8" t="n">
-        <v>6.72</v>
+        <v>6.61</v>
       </c>
       <c r="F8" t="n">
-        <v>94061.30560000001</v>
+        <v>7999.4133</v>
       </c>
       <c r="G8" t="n">
-        <v>6.663333333333333</v>
+        <v>6.976166666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -681,19 +709,19 @@
         <v>6.72</v>
       </c>
       <c r="C9" t="n">
-        <v>6.71</v>
+        <v>6.74</v>
       </c>
       <c r="D9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E9" t="n">
         <v>6.72</v>
       </c>
-      <c r="E9" t="n">
-        <v>6.71</v>
-      </c>
       <c r="F9" t="n">
-        <v>182280.4072</v>
+        <v>94061.30560000001</v>
       </c>
       <c r="G9" t="n">
-        <v>6.693333333333332</v>
+        <v>6.978499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,8 +730,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +747,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.79</v>
+        <v>6.72</v>
       </c>
       <c r="C10" t="n">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
       <c r="D10" t="n">
-        <v>6.83</v>
+        <v>6.72</v>
       </c>
       <c r="E10" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
       <c r="F10" t="n">
-        <v>372148.4689</v>
+        <v>182280.4072</v>
       </c>
       <c r="G10" t="n">
-        <v>6.759999999999999</v>
+        <v>6.979666666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +771,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +788,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C11" t="n">
         <v>6.83</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.84</v>
-      </c>
       <c r="D11" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="E11" t="n">
-        <v>6.83</v>
+        <v>6.79</v>
       </c>
       <c r="F11" t="n">
-        <v>340907.4335</v>
+        <v>372148.4689</v>
       </c>
       <c r="G11" t="n">
-        <v>6.793333333333332</v>
+        <v>6.981499999999998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +812,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +829,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.85</v>
+        <v>6.83</v>
       </c>
       <c r="C12" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="D12" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="E12" t="n">
-        <v>6.85</v>
+        <v>6.83</v>
       </c>
       <c r="F12" t="n">
-        <v>5132.9503</v>
+        <v>340907.4335</v>
       </c>
       <c r="G12" t="n">
-        <v>6.839999999999999</v>
+        <v>6.983833333333331</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +853,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +870,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.77</v>
+        <v>6.85</v>
       </c>
       <c r="C13" t="n">
-        <v>6.77</v>
+        <v>6.85</v>
       </c>
       <c r="D13" t="n">
-        <v>6.77</v>
+        <v>6.85</v>
       </c>
       <c r="E13" t="n">
-        <v>6.77</v>
+        <v>6.85</v>
       </c>
       <c r="F13" t="n">
-        <v>11200</v>
+        <v>5132.9503</v>
       </c>
       <c r="G13" t="n">
-        <v>6.819999999999998</v>
+        <v>6.986333333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,8 +894,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +911,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="C14" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="D14" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="E14" t="n">
-        <v>6.75</v>
+        <v>6.77</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>11200</v>
       </c>
       <c r="G14" t="n">
-        <v>6.789999999999998</v>
+        <v>6.986999999999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +935,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +952,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.88</v>
+        <v>6.75</v>
       </c>
       <c r="C15" t="n">
-        <v>6.9</v>
+        <v>6.75</v>
       </c>
       <c r="D15" t="n">
-        <v>6.9</v>
+        <v>6.75</v>
       </c>
       <c r="E15" t="n">
-        <v>6.88</v>
+        <v>6.75</v>
       </c>
       <c r="F15" t="n">
-        <v>389941.2578</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>6.806666666666665</v>
+        <v>6.98733333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +976,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,33 +996,33 @@
         <v>6.88</v>
       </c>
       <c r="C16" t="n">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="D16" t="n">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="E16" t="n">
         <v>6.88</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>389941.2578</v>
       </c>
       <c r="G16" t="n">
-        <v>6.846666666666665</v>
+        <v>6.99033333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -964,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.89</v>
+        <v>6.88</v>
       </c>
       <c r="C17" t="n">
         <v>6.89</v>
@@ -973,24 +1043,24 @@
         <v>6.89</v>
       </c>
       <c r="E17" t="n">
-        <v>6.89</v>
+        <v>6.88</v>
       </c>
       <c r="F17" t="n">
-        <v>4743.9272</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>6.893333333333332</v>
+        <v>6.992999999999996</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1008,19 +1078,19 @@
         <v>6.89</v>
       </c>
       <c r="C18" t="n">
-        <v>6.82</v>
+        <v>6.89</v>
       </c>
       <c r="D18" t="n">
         <v>6.89</v>
       </c>
       <c r="E18" t="n">
-        <v>6.82</v>
+        <v>6.89</v>
       </c>
       <c r="F18" t="n">
-        <v>3262</v>
+        <v>4743.9272</v>
       </c>
       <c r="G18" t="n">
-        <v>6.866666666666664</v>
+        <v>6.993666666666662</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1029,7 +1099,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1044,22 +1116,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>6.82</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6.89</v>
       </c>
       <c r="E19" t="n">
-        <v>6.96</v>
+        <v>6.82</v>
       </c>
       <c r="F19" t="n">
-        <v>29923.3642</v>
+        <v>3262</v>
       </c>
       <c r="G19" t="n">
-        <v>6.903333333333332</v>
+        <v>6.992833333333328</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1068,7 +1140,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,22 +1157,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="C20" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>6.91</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>6.89</v>
+        <v>6.96</v>
       </c>
       <c r="F20" t="n">
-        <v>117309.9485</v>
+        <v>29923.3642</v>
       </c>
       <c r="G20" t="n">
-        <v>6.903333333333332</v>
+        <v>6.997333333333328</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1107,7 +1181,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1122,22 +1198,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.8</v>
+        <v>6.91</v>
       </c>
       <c r="C21" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
       <c r="D21" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E21" t="n">
-        <v>6.8</v>
+        <v>6.89</v>
       </c>
       <c r="F21" t="n">
-        <v>48030.8743</v>
+        <v>117309.9485</v>
       </c>
       <c r="G21" t="n">
-        <v>6.899999999999998</v>
+        <v>6.999166666666662</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,7 +1222,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1161,22 +1239,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
       <c r="C22" t="n">
-        <v>6.77</v>
+        <v>6.81</v>
       </c>
       <c r="D22" t="n">
-        <v>6.77</v>
+        <v>6.81</v>
       </c>
       <c r="E22" t="n">
-        <v>6.77</v>
+        <v>6.8</v>
       </c>
       <c r="F22" t="n">
-        <v>500</v>
+        <v>48030.8743</v>
       </c>
       <c r="G22" t="n">
-        <v>6.823333333333331</v>
+        <v>6.999666666666662</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1185,7 +1263,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1212,10 +1292,10 @@
         <v>6.77</v>
       </c>
       <c r="F23" t="n">
-        <v>13287.0014</v>
+        <v>500</v>
       </c>
       <c r="G23" t="n">
-        <v>6.783333333333331</v>
+        <v>6.999666666666662</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1224,7 +1304,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1239,22 +1321,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
       <c r="C24" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
       <c r="D24" t="n">
-        <v>6.95</v>
+        <v>6.77</v>
       </c>
       <c r="E24" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
       <c r="F24" t="n">
-        <v>415075.6482</v>
+        <v>13287.0014</v>
       </c>
       <c r="G24" t="n">
-        <v>6.826666666666664</v>
+        <v>6.998333333333329</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1263,7 +1345,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,16 +1368,16 @@
         <v>6.94</v>
       </c>
       <c r="D25" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="E25" t="n">
         <v>6.94</v>
       </c>
       <c r="F25" t="n">
-        <v>1148</v>
+        <v>415075.6482</v>
       </c>
       <c r="G25" t="n">
-        <v>6.883333333333332</v>
+        <v>6.998999999999995</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,7 +1386,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1329,10 +1415,10 @@
         <v>6.94</v>
       </c>
       <c r="F26" t="n">
-        <v>215.4531</v>
+        <v>1148</v>
       </c>
       <c r="G26" t="n">
-        <v>6.939999999999999</v>
+        <v>6.998833333333328</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1341,7 +1427,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1356,22 +1444,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="C27" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="D27" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="E27" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="F27" t="n">
-        <v>10650.887</v>
+        <v>215.4531</v>
       </c>
       <c r="G27" t="n">
-        <v>6.896666666666665</v>
+        <v>7.002166666666662</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1380,7 +1468,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1407,10 +1497,10 @@
         <v>6.81</v>
       </c>
       <c r="F28" t="n">
-        <v>19498.3512</v>
+        <v>10650.887</v>
       </c>
       <c r="G28" t="n">
-        <v>6.853333333333331</v>
+        <v>7.000166666666662</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1419,7 +1509,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1434,22 +1526,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="C29" t="n">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="D29" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="E29" t="n">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="F29" t="n">
-        <v>59267.1504</v>
+        <v>19498.3512</v>
       </c>
       <c r="G29" t="n">
-        <v>6.81333333333333</v>
+        <v>7.001333333333329</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1458,7 +1550,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1473,22 +1567,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="C30" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="D30" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="E30" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="F30" t="n">
-        <v>666.2784</v>
+        <v>59267.1504</v>
       </c>
       <c r="G30" t="n">
-        <v>6.823333333333331</v>
+        <v>6.999999999999996</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1497,7 +1591,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1512,22 +1608,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="C31" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="D31" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="E31" t="n">
-        <v>6.83</v>
+        <v>6.84</v>
       </c>
       <c r="F31" t="n">
-        <v>11317.1654</v>
+        <v>666.2784</v>
       </c>
       <c r="G31" t="n">
-        <v>6.829999999999997</v>
+        <v>7.000833333333328</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,7 +1632,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1551,22 +1649,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="C32" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="D32" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="E32" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="F32" t="n">
-        <v>100000</v>
+        <v>11317.1654</v>
       </c>
       <c r="G32" t="n">
-        <v>6.836666666666663</v>
+        <v>6.998833333333327</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1575,7 +1673,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1590,22 +1690,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.9</v>
+        <v>6.84</v>
       </c>
       <c r="C33" t="n">
-        <v>6.92</v>
+        <v>6.84</v>
       </c>
       <c r="D33" t="n">
-        <v>6.92</v>
+        <v>6.84</v>
       </c>
       <c r="E33" t="n">
-        <v>6.9</v>
+        <v>6.84</v>
       </c>
       <c r="F33" t="n">
-        <v>180507.8033</v>
+        <v>100000</v>
       </c>
       <c r="G33" t="n">
-        <v>6.863333333333331</v>
+        <v>6.994666666666661</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1614,7 +1714,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1629,22 +1731,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
       <c r="C34" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="D34" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="E34" t="n">
-        <v>6.94</v>
+        <v>6.9</v>
       </c>
       <c r="F34" t="n">
-        <v>163000</v>
+        <v>180507.8033</v>
       </c>
       <c r="G34" t="n">
-        <v>6.899999999999999</v>
+        <v>6.991833333333329</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1653,7 +1755,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1668,22 +1772,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="C35" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D35" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="E35" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>163000</v>
       </c>
       <c r="G35" t="n">
-        <v>6.919999999999998</v>
+        <v>6.985833333333328</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1692,7 +1796,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1707,22 +1813,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="C36" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="D36" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="E36" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1459.124</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>6.899999999999999</v>
+        <v>6.979166666666661</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1731,7 +1837,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1746,22 +1854,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.81</v>
+        <v>6.86</v>
       </c>
       <c r="C37" t="n">
-        <v>6.77</v>
+        <v>6.86</v>
       </c>
       <c r="D37" t="n">
-        <v>6.81</v>
+        <v>6.86</v>
       </c>
       <c r="E37" t="n">
-        <v>6.77</v>
+        <v>6.86</v>
       </c>
       <c r="F37" t="n">
-        <v>13478.7566</v>
+        <v>1459.124</v>
       </c>
       <c r="G37" t="n">
-        <v>6.843333333333331</v>
+        <v>6.968499999999994</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1770,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1785,22 +1895,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="C38" t="n">
-        <v>6.83</v>
+        <v>6.77</v>
       </c>
       <c r="D38" t="n">
-        <v>6.83</v>
+        <v>6.81</v>
       </c>
       <c r="E38" t="n">
-        <v>6.83</v>
+        <v>6.77</v>
       </c>
       <c r="F38" t="n">
-        <v>84</v>
+        <v>13478.7566</v>
       </c>
       <c r="G38" t="n">
-        <v>6.819999999999998</v>
+        <v>6.959499999999994</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1809,7 +1919,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1824,22 +1936,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="C39" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="D39" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="E39" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="F39" t="n">
-        <v>10835.117</v>
+        <v>84</v>
       </c>
       <c r="G39" t="n">
-        <v>6.806666666666665</v>
+        <v>6.950666666666661</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1848,7 +1960,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1863,22 +1977,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="C40" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="D40" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="E40" t="n">
-        <v>6.84</v>
+        <v>6.82</v>
       </c>
       <c r="F40" t="n">
-        <v>4302.9197</v>
+        <v>10835.117</v>
       </c>
       <c r="G40" t="n">
-        <v>6.829999999999998</v>
+        <v>6.93866666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1887,7 +2001,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1902,22 +2018,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.78</v>
+        <v>6.84</v>
       </c>
       <c r="C41" t="n">
-        <v>6.78</v>
+        <v>6.84</v>
       </c>
       <c r="D41" t="n">
-        <v>6.78</v>
+        <v>6.84</v>
       </c>
       <c r="E41" t="n">
-        <v>6.78</v>
+        <v>6.84</v>
       </c>
       <c r="F41" t="n">
-        <v>16139.348</v>
+        <v>4302.9197</v>
       </c>
       <c r="G41" t="n">
-        <v>6.813333333333333</v>
+        <v>6.929166666666659</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1926,7 +2042,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1953,10 +2071,10 @@
         <v>6.78</v>
       </c>
       <c r="F42" t="n">
-        <v>3000</v>
+        <v>16139.348</v>
       </c>
       <c r="G42" t="n">
-        <v>6.8</v>
+        <v>6.920499999999992</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1965,7 +2083,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1992,10 +2112,10 @@
         <v>6.78</v>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G43" t="n">
-        <v>6.78</v>
+        <v>6.913333333333325</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2004,7 +2124,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2031,10 +2153,10 @@
         <v>6.78</v>
       </c>
       <c r="F44" t="n">
-        <v>19843.3378</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="n">
-        <v>6.78</v>
+        <v>6.906166666666659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2043,7 +2165,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,22 +2182,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="C45" t="n">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="D45" t="n">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="E45" t="n">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="F45" t="n">
-        <v>2373.1958</v>
+        <v>19843.3378</v>
       </c>
       <c r="G45" t="n">
-        <v>6.783333333333332</v>
+        <v>6.898999999999991</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2082,7 +2206,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,10 +2235,10 @@
         <v>6.79</v>
       </c>
       <c r="F46" t="n">
-        <v>213.5493</v>
+        <v>2373.1958</v>
       </c>
       <c r="G46" t="n">
-        <v>6.786666666666665</v>
+        <v>6.889833333333326</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2121,7 +2247,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2148,10 +2276,10 @@
         <v>6.79</v>
       </c>
       <c r="F47" t="n">
-        <v>153.4609</v>
+        <v>213.5493</v>
       </c>
       <c r="G47" t="n">
-        <v>6.789999999999998</v>
+        <v>6.886333333333326</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2160,7 +2288,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2187,10 +2317,10 @@
         <v>6.79</v>
       </c>
       <c r="F48" t="n">
-        <v>50.81</v>
+        <v>153.4609</v>
       </c>
       <c r="G48" t="n">
-        <v>6.789999999999998</v>
+        <v>6.882333333333326</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2199,7 +2329,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2226,10 +2358,10 @@
         <v>6.79</v>
       </c>
       <c r="F49" t="n">
-        <v>11231.7695</v>
+        <v>50.81</v>
       </c>
       <c r="G49" t="n">
-        <v>6.789999999999998</v>
+        <v>6.873999999999993</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2238,7 +2370,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,22 +2387,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="C50" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="D50" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="E50" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="F50" t="n">
-        <v>12229.489</v>
+        <v>11231.7695</v>
       </c>
       <c r="G50" t="n">
-        <v>6.799999999999998</v>
+        <v>6.870166666666661</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2277,7 +2411,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,22 +2428,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="C51" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="D51" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="E51" t="n">
-        <v>6.86</v>
+        <v>6.82</v>
       </c>
       <c r="F51" t="n">
-        <v>6846.5763</v>
+        <v>12229.489</v>
       </c>
       <c r="G51" t="n">
-        <v>6.823333333333331</v>
+        <v>6.863666666666661</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2316,7 +2452,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,22 +2469,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
       <c r="C52" t="n">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
       <c r="D52" t="n">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
       <c r="E52" t="n">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
       <c r="F52" t="n">
-        <v>2609.6396</v>
+        <v>6846.5763</v>
       </c>
       <c r="G52" t="n">
-        <v>6.833333333333332</v>
+        <v>6.860333333333328</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2355,7 +2493,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,22 +2510,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="C53" t="n">
-        <v>6.78</v>
+        <v>6.82</v>
       </c>
       <c r="D53" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="E53" t="n">
-        <v>6.78</v>
+        <v>6.82</v>
       </c>
       <c r="F53" t="n">
-        <v>89758.77770000001</v>
+        <v>2609.6396</v>
       </c>
       <c r="G53" t="n">
-        <v>6.819999999999999</v>
+        <v>6.854333333333328</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2394,7 +2534,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,22 +2551,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
       <c r="C54" t="n">
-        <v>6.85</v>
+        <v>6.78</v>
       </c>
       <c r="D54" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="E54" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>89758.77770000001</v>
       </c>
       <c r="G54" t="n">
-        <v>6.816666666666666</v>
+        <v>6.847833333333327</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2433,7 +2575,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,22 +2592,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="C55" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="E55" t="n">
         <v>6.84</v>
       </c>
-      <c r="D55" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="E55" t="n">
-        <v>6.82</v>
-      </c>
       <c r="F55" t="n">
-        <v>15246.1256</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>6.823333333333331</v>
+        <v>6.843333333333327</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2472,7 +2616,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,22 +2633,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="C56" t="n">
-        <v>6.95</v>
+        <v>6.84</v>
       </c>
       <c r="D56" t="n">
-        <v>6.95</v>
+        <v>6.84</v>
       </c>
       <c r="E56" t="n">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>15246.1256</v>
       </c>
       <c r="G56" t="n">
-        <v>6.879999999999998</v>
+        <v>6.838499999999994</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2511,7 +2657,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,22 +2674,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="C57" t="n">
-        <v>6.25</v>
+        <v>6.95</v>
       </c>
       <c r="D57" t="n">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="E57" t="n">
-        <v>6.25</v>
+        <v>6.9</v>
       </c>
       <c r="F57" t="n">
-        <v>61775.7309</v>
+        <v>300</v>
       </c>
       <c r="G57" t="n">
-        <v>6.679999999999997</v>
+        <v>6.835333333333327</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2550,7 +2698,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,22 +2715,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.95</v>
+        <v>6.88</v>
       </c>
       <c r="C58" t="n">
-        <v>6.95</v>
+        <v>6.25</v>
       </c>
       <c r="D58" t="n">
-        <v>6.95</v>
+        <v>6.88</v>
       </c>
       <c r="E58" t="n">
-        <v>6.95</v>
+        <v>6.25</v>
       </c>
       <c r="F58" t="n">
-        <v>35971.223</v>
+        <v>61775.7309</v>
       </c>
       <c r="G58" t="n">
-        <v>6.716666666666664</v>
+        <v>6.818833333333327</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2589,7 +2739,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,22 +2756,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="C59" t="n">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="D59" t="n">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="E59" t="n">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="F59" t="n">
-        <v>45290.4402</v>
+        <v>35971.223</v>
       </c>
       <c r="G59" t="n">
-        <v>6.709999999999997</v>
+        <v>6.815999999999993</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2628,7 +2780,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,22 +2797,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="C60" t="n">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="D60" t="n">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="E60" t="n">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="F60" t="n">
-        <v>39539.0238</v>
+        <v>45290.4402</v>
       </c>
       <c r="G60" t="n">
-        <v>6.93333333333333</v>
+        <v>6.814833333333326</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2667,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2682,22 +2838,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="C61" t="n">
-        <v>7.17</v>
+        <v>6.92</v>
       </c>
       <c r="D61" t="n">
-        <v>7.17</v>
+        <v>6.92</v>
       </c>
       <c r="E61" t="n">
-        <v>6.93</v>
+        <v>6.92</v>
       </c>
       <c r="F61" t="n">
-        <v>7872.255715481171</v>
+        <v>39539.0238</v>
       </c>
       <c r="G61" t="n">
-        <v>7.006666666666664</v>
+        <v>6.815333333333327</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2706,7 +2862,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,22 +2879,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.16</v>
+        <v>6.93</v>
       </c>
       <c r="C62" t="n">
-        <v>6.25</v>
+        <v>7.17</v>
       </c>
       <c r="D62" t="n">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="E62" t="n">
-        <v>6.25</v>
+        <v>6.93</v>
       </c>
       <c r="F62" t="n">
-        <v>111929.362</v>
+        <v>7872.255715481171</v>
       </c>
       <c r="G62" t="n">
-        <v>6.779999999999998</v>
+        <v>6.820333333333327</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2745,7 +2903,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,37 +2920,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="C63" t="n">
-        <v>7.14</v>
+        <v>6.25</v>
       </c>
       <c r="D63" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="E63" t="n">
-        <v>7.14</v>
+        <v>6.25</v>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>111929.362</v>
       </c>
       <c r="G63" t="n">
-        <v>6.853333333333332</v>
+        <v>6.812833333333328</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>6.7</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2800,19 +2964,19 @@
         <v>7.14</v>
       </c>
       <c r="C64" t="n">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="D64" t="n">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="E64" t="n">
         <v>7.14</v>
       </c>
       <c r="F64" t="n">
-        <v>89538.46341247432</v>
+        <v>200</v>
       </c>
       <c r="G64" t="n">
-        <v>6.859999999999999</v>
+        <v>6.820166666666661</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2821,8 +2985,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2832,32 +3002,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.87</v>
+        <v>7.14</v>
       </c>
       <c r="C65" t="n">
-        <v>6.87</v>
+        <v>7.19</v>
       </c>
       <c r="D65" t="n">
-        <v>6.87</v>
+        <v>7.19</v>
       </c>
       <c r="E65" t="n">
-        <v>6.87</v>
+        <v>7.14</v>
       </c>
       <c r="F65" t="n">
-        <v>70178.5365</v>
+        <v>89538.46341247432</v>
       </c>
       <c r="G65" t="n">
-        <v>7.066666666666666</v>
+        <v>6.826833333333327</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2867,32 +3043,38 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.12</v>
+        <v>6.87</v>
       </c>
       <c r="C66" t="n">
-        <v>7.12</v>
+        <v>6.87</v>
       </c>
       <c r="D66" t="n">
-        <v>7.12</v>
+        <v>6.87</v>
       </c>
       <c r="E66" t="n">
-        <v>7.12</v>
+        <v>6.87</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>70178.5365</v>
       </c>
       <c r="G66" t="n">
-        <v>7.06</v>
+        <v>6.829833333333327</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +3084,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.93</v>
+        <v>7.12</v>
       </c>
       <c r="C67" t="n">
-        <v>6.92</v>
+        <v>7.12</v>
       </c>
       <c r="D67" t="n">
-        <v>6.93</v>
+        <v>7.12</v>
       </c>
       <c r="E67" t="n">
-        <v>6.92</v>
+        <v>7.12</v>
       </c>
       <c r="F67" t="n">
-        <v>7729.8402</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>6.97</v>
+        <v>6.838166666666661</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2926,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2937,22 +3125,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.94</v>
+        <v>6.93</v>
       </c>
       <c r="C68" t="n">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="D68" t="n">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="E68" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="F68" t="n">
-        <v>134849.6197</v>
+        <v>7729.8402</v>
       </c>
       <c r="G68" t="n">
-        <v>6.996666666666666</v>
+        <v>6.842999999999994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2961,8 +3149,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +3166,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.05</v>
+        <v>6.94</v>
       </c>
       <c r="C69" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="D69" t="n">
-        <v>7.05</v>
+        <v>6.95</v>
       </c>
       <c r="E69" t="n">
         <v>6.94</v>
       </c>
       <c r="F69" t="n">
-        <v>2717.1816</v>
+        <v>134849.6197</v>
       </c>
       <c r="G69" t="n">
-        <v>6.936666666666667</v>
+        <v>6.846499999999994</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2996,8 +3190,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3007,22 +3207,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.94</v>
+        <v>7.05</v>
       </c>
       <c r="C70" t="n">
         <v>6.94</v>
       </c>
       <c r="D70" t="n">
-        <v>6.94</v>
+        <v>7.05</v>
       </c>
       <c r="E70" t="n">
         <v>6.94</v>
       </c>
       <c r="F70" t="n">
-        <v>9975</v>
+        <v>2717.1816</v>
       </c>
       <c r="G70" t="n">
-        <v>6.943333333333332</v>
+        <v>6.850333333333327</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3031,8 +3231,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3054,10 +3260,10 @@
         <v>6.94</v>
       </c>
       <c r="F71" t="n">
-        <v>7852.575</v>
+        <v>9975</v>
       </c>
       <c r="G71" t="n">
-        <v>6.94</v>
+        <v>6.852166666666661</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3066,8 +3272,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3077,22 +3289,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="C72" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D72" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="E72" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F72" t="n">
-        <v>27589.3471</v>
+        <v>7852.575</v>
       </c>
       <c r="G72" t="n">
-        <v>6.926666666666666</v>
+        <v>6.853833333333328</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3101,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3112,22 +3330,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="C73" t="n">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="D73" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="E73" t="n">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="F73" t="n">
-        <v>70178.53660000001</v>
+        <v>27589.3471</v>
       </c>
       <c r="G73" t="n">
-        <v>6.909999999999999</v>
+        <v>6.85466666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3136,8 +3354,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3147,22 +3371,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.92</v>
+        <v>6.91</v>
       </c>
       <c r="C74" t="n">
-        <v>6.92</v>
+        <v>6.89</v>
       </c>
       <c r="D74" t="n">
-        <v>6.92</v>
+        <v>6.91</v>
       </c>
       <c r="E74" t="n">
-        <v>6.92</v>
+        <v>6.89</v>
       </c>
       <c r="F74" t="n">
-        <v>9776.625899999999</v>
+        <v>70178.53660000001</v>
       </c>
       <c r="G74" t="n">
-        <v>6.903333333333332</v>
+        <v>6.85666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3171,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3182,22 +3412,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="C75" t="n">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="D75" t="n">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="E75" t="n">
-        <v>6.95</v>
+        <v>6.92</v>
       </c>
       <c r="F75" t="n">
-        <v>19394.48</v>
+        <v>9776.625899999999</v>
       </c>
       <c r="G75" t="n">
-        <v>6.919999999999999</v>
+        <v>6.859499999999994</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3206,8 +3436,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3217,22 +3453,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.97</v>
+        <v>6.95</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="E76" t="n">
-        <v>6.97</v>
+        <v>6.95</v>
       </c>
       <c r="F76" t="n">
-        <v>23328.1493</v>
+        <v>19394.48</v>
       </c>
       <c r="G76" t="n">
-        <v>6.956666666666666</v>
+        <v>6.860333333333328</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3241,8 +3477,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3252,7 +3494,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="C77" t="n">
         <v>7</v>
@@ -3261,13 +3503,13 @@
         <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="F77" t="n">
-        <v>13473.0539</v>
+        <v>23328.1493</v>
       </c>
       <c r="G77" t="n">
-        <v>6.983333333333332</v>
+        <v>6.862166666666662</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3276,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3299,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>26456.0679</v>
+        <v>13473.0539</v>
       </c>
       <c r="G78" t="n">
-        <v>6.999999999999999</v>
+        <v>6.863999999999995</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3311,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3322,22 +3576,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>7.04</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>89314.6173</v>
+        <v>26456.0679</v>
       </c>
       <c r="G79" t="n">
-        <v>7.013333333333332</v>
+        <v>6.866999999999995</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3346,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3357,22 +3617,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
       <c r="C80" t="n">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
       <c r="D80" t="n">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
       <c r="E80" t="n">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
       <c r="F80" t="n">
-        <v>50000</v>
+        <v>89314.6173</v>
       </c>
       <c r="G80" t="n">
-        <v>7.029999999999998</v>
+        <v>6.867666666666662</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3381,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3658,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="C81" t="n">
-        <v>7.15</v>
+        <v>7.05</v>
       </c>
       <c r="D81" t="n">
-        <v>7.15</v>
+        <v>7.05</v>
       </c>
       <c r="E81" t="n">
-        <v>7.1</v>
+        <v>7.05</v>
       </c>
       <c r="F81" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G81" t="n">
-        <v>7.079999999999998</v>
+        <v>6.870333333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3416,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3427,22 +3699,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.16</v>
+        <v>7.1</v>
       </c>
       <c r="C82" t="n">
-        <v>7.18</v>
+        <v>7.15</v>
       </c>
       <c r="D82" t="n">
-        <v>7.18</v>
+        <v>7.15</v>
       </c>
       <c r="E82" t="n">
-        <v>7.16</v>
+        <v>7.1</v>
       </c>
       <c r="F82" t="n">
-        <v>390461.5598</v>
+        <v>100000</v>
       </c>
       <c r="G82" t="n">
-        <v>7.126666666666665</v>
+        <v>6.875999999999995</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3451,8 +3723,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3462,7 +3740,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.18</v>
+        <v>7.16</v>
       </c>
       <c r="C83" t="n">
         <v>7.18</v>
@@ -3471,13 +3749,13 @@
         <v>7.18</v>
       </c>
       <c r="E83" t="n">
-        <v>7.18</v>
+        <v>7.16</v>
       </c>
       <c r="F83" t="n">
-        <v>128424.7234</v>
+        <v>390461.5598</v>
       </c>
       <c r="G83" t="n">
-        <v>7.169999999999998</v>
+        <v>6.882833333333329</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3486,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3497,22 +3781,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="C84" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="D84" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="E84" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="F84" t="n">
-        <v>4500</v>
+        <v>128424.7234</v>
       </c>
       <c r="G84" t="n">
-        <v>7.183333333333333</v>
+        <v>6.889666666666662</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3521,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3822,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="C85" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="D85" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="E85" t="n">
-        <v>7.17</v>
+        <v>7.19</v>
       </c>
       <c r="F85" t="n">
-        <v>336207.7352</v>
+        <v>4500</v>
       </c>
       <c r="G85" t="n">
-        <v>7.18</v>
+        <v>6.89383333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3556,8 +3846,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3567,22 +3863,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.19</v>
+        <v>7.17</v>
       </c>
       <c r="C86" t="n">
-        <v>7.3</v>
+        <v>7.17</v>
       </c>
       <c r="D86" t="n">
-        <v>7.3</v>
+        <v>7.17</v>
       </c>
       <c r="E86" t="n">
-        <v>7.19</v>
+        <v>7.17</v>
       </c>
       <c r="F86" t="n">
-        <v>561862.4577</v>
+        <v>336207.7352</v>
       </c>
       <c r="G86" t="n">
-        <v>7.22</v>
+        <v>6.897666666666663</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3591,8 +3887,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3602,22 +3904,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C87" t="n">
         <v>7.3</v>
       </c>
-      <c r="C87" t="n">
-        <v>7.36</v>
-      </c>
       <c r="D87" t="n">
-        <v>7.36</v>
+        <v>7.3</v>
       </c>
       <c r="E87" t="n">
-        <v>7.3</v>
+        <v>7.19</v>
       </c>
       <c r="F87" t="n">
-        <v>580144.8676999999</v>
+        <v>561862.4577</v>
       </c>
       <c r="G87" t="n">
-        <v>7.276666666666666</v>
+        <v>6.903666666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3626,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3637,22 +3945,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C88" t="n">
         <v>7.36</v>
       </c>
-      <c r="C88" t="n">
-        <v>7.4</v>
-      </c>
       <c r="D88" t="n">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="E88" t="n">
-        <v>7.36</v>
+        <v>7.3</v>
       </c>
       <c r="F88" t="n">
-        <v>9000</v>
+        <v>580144.8676999999</v>
       </c>
       <c r="G88" t="n">
-        <v>7.353333333333332</v>
+        <v>6.91283333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3661,8 +3969,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3986,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.34</v>
+        <v>7.36</v>
       </c>
       <c r="C89" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="D89" t="n">
-        <v>7.39</v>
+        <v>7.4</v>
       </c>
       <c r="E89" t="n">
-        <v>7.34</v>
+        <v>7.36</v>
       </c>
       <c r="F89" t="n">
-        <v>313673.8851</v>
+        <v>9000</v>
       </c>
       <c r="G89" t="n">
-        <v>7.383333333333332</v>
+        <v>6.922666666666663</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3696,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3707,22 +4027,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.22</v>
+        <v>7.34</v>
       </c>
       <c r="C90" t="n">
-        <v>7.16</v>
+        <v>7.39</v>
       </c>
       <c r="D90" t="n">
-        <v>7.22</v>
+        <v>7.39</v>
       </c>
       <c r="E90" t="n">
-        <v>7.16</v>
+        <v>7.34</v>
       </c>
       <c r="F90" t="n">
-        <v>40402.7894</v>
+        <v>313673.8851</v>
       </c>
       <c r="G90" t="n">
-        <v>7.316666666666666</v>
+        <v>6.932166666666663</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3731,8 +4051,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3742,34 +4068,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.07</v>
+        <v>7.22</v>
       </c>
       <c r="C91" t="n">
-        <v>7.27</v>
+        <v>7.16</v>
       </c>
       <c r="D91" t="n">
-        <v>7.27</v>
+        <v>7.22</v>
       </c>
       <c r="E91" t="n">
-        <v>7.06</v>
+        <v>7.16</v>
       </c>
       <c r="F91" t="n">
-        <v>112676.4515</v>
+        <v>40402.7894</v>
       </c>
       <c r="G91" t="n">
-        <v>7.273333333333331</v>
+        <v>6.937499999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>1.06365671641791</v>
       </c>
     </row>
     <row r="92">
@@ -3777,22 +4109,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.08</v>
+        <v>7.07</v>
       </c>
       <c r="C92" t="n">
-        <v>7.06</v>
+        <v>7.27</v>
       </c>
       <c r="D92" t="n">
-        <v>7.08</v>
+        <v>7.27</v>
       </c>
       <c r="E92" t="n">
         <v>7.06</v>
       </c>
       <c r="F92" t="n">
-        <v>107588.8863</v>
+        <v>112676.4515</v>
       </c>
       <c r="G92" t="n">
-        <v>7.16333333333333</v>
+        <v>6.944833333333331</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3812,22 +4144,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C93" t="n">
         <v>7.06</v>
       </c>
-      <c r="C93" t="n">
-        <v>7.35</v>
-      </c>
       <c r="D93" t="n">
-        <v>7.35</v>
+        <v>7.08</v>
       </c>
       <c r="E93" t="n">
         <v>7.06</v>
       </c>
       <c r="F93" t="n">
-        <v>42032.1156</v>
+        <v>107588.8863</v>
       </c>
       <c r="G93" t="n">
-        <v>7.226666666666663</v>
+        <v>6.948499999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3847,22 +4179,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>7.35</v>
       </c>
       <c r="D94" t="n">
-        <v>7.08</v>
+        <v>7.35</v>
       </c>
       <c r="E94" t="n">
-        <v>6.99</v>
+        <v>7.06</v>
       </c>
       <c r="F94" t="n">
-        <v>255786.2276</v>
+        <v>42032.1156</v>
       </c>
       <c r="G94" t="n">
-        <v>7.136666666666663</v>
+        <v>6.955666666666664</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3882,22 +4214,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>7.08</v>
       </c>
       <c r="C95" t="n">
         <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>7</v>
+        <v>7.08</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="F95" t="n">
-        <v>691859.1176999999</v>
+        <v>255786.2276</v>
       </c>
       <c r="G95" t="n">
-        <v>7.116666666666664</v>
+        <v>6.956666666666664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3917,22 +4249,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>7.11</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>691859.1176999999</v>
       </c>
       <c r="G96" t="n">
-        <v>7.036666666666664</v>
+        <v>6.958333333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3952,22 +4284,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.9</v>
+        <v>7.11</v>
       </c>
       <c r="C97" t="n">
-        <v>6.9</v>
+        <v>7.11</v>
       </c>
       <c r="D97" t="n">
-        <v>6.9</v>
+        <v>7.11</v>
       </c>
       <c r="E97" t="n">
-        <v>6.9</v>
+        <v>7.11</v>
       </c>
       <c r="F97" t="n">
-        <v>16500</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>7.00333333333333</v>
+        <v>6.962499999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3999,10 +4331,10 @@
         <v>6.9</v>
       </c>
       <c r="F98" t="n">
-        <v>8460</v>
+        <v>16500</v>
       </c>
       <c r="G98" t="n">
-        <v>6.969999999999996</v>
+        <v>6.964666666666664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4034,10 +4366,10 @@
         <v>6.9</v>
       </c>
       <c r="F99" t="n">
-        <v>15100.2898</v>
+        <v>8460</v>
       </c>
       <c r="G99" t="n">
-        <v>6.899999999999996</v>
+        <v>6.965833333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4057,22 +4389,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="C100" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="D100" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="E100" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="F100" t="n">
-        <v>206045.8388</v>
+        <v>15100.2898</v>
       </c>
       <c r="G100" t="n">
-        <v>6.903333333333329</v>
+        <v>6.967166666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4104,10 +4436,10 @@
         <v>6.91</v>
       </c>
       <c r="F101" t="n">
-        <v>962778.0503</v>
+        <v>206045.8388</v>
       </c>
       <c r="G101" t="n">
-        <v>6.906666666666662</v>
+        <v>6.968333333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4127,22 +4459,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="C102" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="D102" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="E102" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="F102" t="n">
-        <v>1990</v>
+        <v>962778.0503</v>
       </c>
       <c r="G102" t="n">
-        <v>6.976666666666662</v>
+        <v>6.970499999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4162,22 +4494,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
       <c r="C103" t="n">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
       <c r="D103" t="n">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
       <c r="E103" t="n">
-        <v>7.15</v>
+        <v>7.11</v>
       </c>
       <c r="F103" t="n">
-        <v>10000</v>
+        <v>1990</v>
       </c>
       <c r="G103" t="n">
-        <v>7.056666666666661</v>
+        <v>6.976</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4197,22 +4529,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="C104" t="n">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="D104" t="n">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="E104" t="n">
-        <v>7.12</v>
+        <v>7.15</v>
       </c>
       <c r="F104" t="n">
-        <v>20533.9712</v>
+        <v>10000</v>
       </c>
       <c r="G104" t="n">
-        <v>7.126666666666662</v>
+        <v>6.982166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4244,10 +4576,10 @@
         <v>7.12</v>
       </c>
       <c r="F105" t="n">
-        <v>7339.4838</v>
+        <v>20533.9712</v>
       </c>
       <c r="G105" t="n">
-        <v>7.129999999999995</v>
+        <v>6.987833333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4267,22 +4599,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="C106" t="n">
-        <v>6.91</v>
+        <v>7.12</v>
       </c>
       <c r="D106" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="E106" t="n">
-        <v>6.91</v>
+        <v>7.12</v>
       </c>
       <c r="F106" t="n">
-        <v>102913.0294</v>
+        <v>7339.4838</v>
       </c>
       <c r="G106" t="n">
-        <v>7.049999999999994</v>
+        <v>6.993333333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4302,22 +4634,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
       <c r="C107" t="n">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
       <c r="D107" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
       <c r="E107" t="n">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
       <c r="F107" t="n">
-        <v>6998.556</v>
+        <v>102913.0294</v>
       </c>
       <c r="G107" t="n">
-        <v>6.973333333333328</v>
+        <v>6.995333333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4337,22 +4669,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
       <c r="C108" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
       <c r="D108" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
       <c r="E108" t="n">
-        <v>6.81</v>
+        <v>6.89</v>
       </c>
       <c r="F108" t="n">
-        <v>20602.0623</v>
+        <v>6998.556</v>
       </c>
       <c r="G108" t="n">
-        <v>6.869999999999994</v>
+        <v>6.997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4384,10 +4716,10 @@
         <v>6.81</v>
       </c>
       <c r="F109" t="n">
-        <v>7201.709</v>
+        <v>20602.0623</v>
       </c>
       <c r="G109" t="n">
-        <v>6.83666666666666</v>
+        <v>6.997333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4407,22 +4739,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="C110" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="D110" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="E110" t="n">
-        <v>6.8</v>
+        <v>6.81</v>
       </c>
       <c r="F110" t="n">
-        <v>15062.5391</v>
+        <v>7201.709</v>
       </c>
       <c r="G110" t="n">
-        <v>6.80666666666666</v>
+        <v>6.997666666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4442,22 +4774,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
       <c r="C111" t="n">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
       <c r="D111" t="n">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
       <c r="E111" t="n">
-        <v>6.91</v>
+        <v>6.8</v>
       </c>
       <c r="F111" t="n">
-        <v>10000</v>
+        <v>15062.5391</v>
       </c>
       <c r="G111" t="n">
-        <v>6.839999999999994</v>
+        <v>6.997333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4477,22 +4809,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="C112" t="n">
-        <v>6.73</v>
+        <v>6.91</v>
       </c>
       <c r="D112" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E112" t="n">
-        <v>6.73</v>
+        <v>6.91</v>
       </c>
       <c r="F112" t="n">
-        <v>39030.8432</v>
+        <v>10000</v>
       </c>
       <c r="G112" t="n">
-        <v>6.813333333333328</v>
+        <v>6.998166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4507,6 +4839,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F113" t="n">
+        <v>39030.8432</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.996666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
       <c r="C2" t="n">
-        <v>6.87</v>
+        <v>7.09</v>
       </c>
       <c r="D2" t="n">
-        <v>6.87</v>
+        <v>7.09</v>
       </c>
       <c r="E2" t="n">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
       <c r="F2" t="n">
-        <v>4978.748</v>
+        <v>230612.4153</v>
       </c>
       <c r="G2" t="n">
-        <v>7.098</v>
+        <v>7081600.008976107</v>
       </c>
       <c r="H2" t="n">
-        <v>6.954499999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.7</v>
+        <v>7.01</v>
       </c>
       <c r="C3" t="n">
-        <v>6.7</v>
+        <v>7.09</v>
       </c>
       <c r="D3" t="n">
-        <v>6.87</v>
+        <v>7.09</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7</v>
+        <v>7.01</v>
       </c>
       <c r="F3" t="n">
-        <v>24014.1404</v>
+        <v>82973.0606</v>
       </c>
       <c r="G3" t="n">
-        <v>7.076</v>
+        <v>7081600.008976107</v>
       </c>
       <c r="H3" t="n">
-        <v>6.961666666666665</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.7</v>
+        <v>7.09</v>
       </c>
       <c r="C4" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D4" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7</v>
+        <v>7.09</v>
       </c>
       <c r="F4" t="n">
-        <v>6311.3892</v>
+        <v>478791.0874575554</v>
       </c>
       <c r="G4" t="n">
-        <v>7.036666666666666</v>
+        <v>7560391.096433663</v>
       </c>
       <c r="H4" t="n">
-        <v>6.964999999999999</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="C5" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="E5" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="F5" t="n">
-        <v>939.7643</v>
+        <v>33467.86892109589</v>
       </c>
       <c r="G5" t="n">
-        <v>7.021333333333334</v>
+        <v>7560391.096433663</v>
       </c>
       <c r="H5" t="n">
-        <v>6.969833333333332</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.7</v>
+        <v>7.29</v>
       </c>
       <c r="C6" t="n">
-        <v>6.69</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.74</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.69</v>
+        <v>7.22</v>
       </c>
       <c r="F6" t="n">
-        <v>2369.6644</v>
+        <v>1219417.183775205</v>
       </c>
       <c r="G6" t="n">
-        <v>6.986666666666667</v>
+        <v>8779808.280208867</v>
       </c>
       <c r="H6" t="n">
-        <v>6.972999999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.64</v>
+        <v>7.43</v>
       </c>
       <c r="C7" t="n">
-        <v>6.62</v>
+        <v>7.31</v>
       </c>
       <c r="D7" t="n">
-        <v>6.64</v>
+        <v>7.43</v>
       </c>
       <c r="E7" t="n">
-        <v>6.62</v>
+        <v>7.31</v>
       </c>
       <c r="F7" t="n">
-        <v>76503.93369999999</v>
+        <v>19943.3378</v>
       </c>
       <c r="G7" t="n">
-        <v>6.957333333333334</v>
+        <v>8759864.942408867</v>
       </c>
       <c r="H7" t="n">
-        <v>6.974666666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.61</v>
+        <v>7.32</v>
       </c>
       <c r="C8" t="n">
-        <v>6.63</v>
+        <v>7.36</v>
       </c>
       <c r="D8" t="n">
-        <v>6.63</v>
+        <v>7.36</v>
       </c>
       <c r="E8" t="n">
-        <v>6.61</v>
+        <v>7.28</v>
       </c>
       <c r="F8" t="n">
-        <v>7999.4133</v>
+        <v>1567115.2729</v>
       </c>
       <c r="G8" t="n">
-        <v>6.920666666666667</v>
+        <v>10326980.21530887</v>
       </c>
       <c r="H8" t="n">
-        <v>6.976166666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.72</v>
+        <v>7.43</v>
       </c>
       <c r="C9" t="n">
-        <v>6.74</v>
+        <v>7.54</v>
       </c>
       <c r="D9" t="n">
-        <v>6.75</v>
+        <v>7.59</v>
       </c>
       <c r="E9" t="n">
-        <v>6.72</v>
+        <v>7.37</v>
       </c>
       <c r="F9" t="n">
-        <v>94061.30560000001</v>
+        <v>1204607.1238</v>
       </c>
       <c r="G9" t="n">
-        <v>6.891999999999999</v>
+        <v>11531587.33910887</v>
       </c>
       <c r="H9" t="n">
-        <v>6.978499999999999</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.72</v>
+        <v>7.42</v>
       </c>
       <c r="C10" t="n">
-        <v>6.71</v>
+        <v>7.41</v>
       </c>
       <c r="D10" t="n">
-        <v>6.72</v>
+        <v>7.42</v>
       </c>
       <c r="E10" t="n">
-        <v>6.71</v>
+        <v>7.41</v>
       </c>
       <c r="F10" t="n">
-        <v>182280.4072</v>
+        <v>135581.0808</v>
       </c>
       <c r="G10" t="n">
-        <v>6.864666666666666</v>
+        <v>11396006.25830887</v>
       </c>
       <c r="H10" t="n">
-        <v>6.979666666666665</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.79</v>
+        <v>7.34</v>
       </c>
       <c r="C11" t="n">
-        <v>6.83</v>
+        <v>7.3</v>
       </c>
       <c r="D11" t="n">
-        <v>6.83</v>
+        <v>7.34</v>
       </c>
       <c r="E11" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="F11" t="n">
-        <v>372148.4689</v>
+        <v>738063.7376</v>
       </c>
       <c r="G11" t="n">
-        <v>6.844666666666666</v>
+        <v>10657942.52070887</v>
       </c>
       <c r="H11" t="n">
-        <v>6.981499999999998</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.83</v>
+        <v>7.22</v>
       </c>
       <c r="C12" t="n">
-        <v>6.84</v>
+        <v>7.21</v>
       </c>
       <c r="D12" t="n">
-        <v>6.84</v>
+        <v>7.22</v>
       </c>
       <c r="E12" t="n">
-        <v>6.83</v>
+        <v>7.21</v>
       </c>
       <c r="F12" t="n">
-        <v>340907.4335</v>
+        <v>67786.5252</v>
       </c>
       <c r="G12" t="n">
-        <v>6.824666666666666</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H12" t="n">
-        <v>6.983833333333331</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="C13" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="D13" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="E13" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="F13" t="n">
-        <v>5132.9503</v>
+        <v>68388.4081</v>
       </c>
       <c r="G13" t="n">
-        <v>6.798666666666666</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H13" t="n">
-        <v>6.986333333333332</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.77</v>
+        <v>7.21</v>
       </c>
       <c r="C14" t="n">
-        <v>6.77</v>
+        <v>7.21</v>
       </c>
       <c r="D14" t="n">
-        <v>6.77</v>
+        <v>7.21</v>
       </c>
       <c r="E14" t="n">
-        <v>6.77</v>
+        <v>7.21</v>
       </c>
       <c r="F14" t="n">
-        <v>11200</v>
+        <v>35633.7833</v>
       </c>
       <c r="G14" t="n">
-        <v>6.775333333333332</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H14" t="n">
-        <v>6.986999999999997</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.75</v>
+        <v>7.34</v>
       </c>
       <c r="C15" t="n">
-        <v>6.75</v>
+        <v>7.34</v>
       </c>
       <c r="D15" t="n">
-        <v>6.75</v>
+        <v>7.34</v>
       </c>
       <c r="E15" t="n">
-        <v>6.75</v>
+        <v>7.34</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>6.758666666666666</v>
+        <v>10590165.99550887</v>
       </c>
       <c r="H15" t="n">
-        <v>6.98733333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.88</v>
+        <v>7.16</v>
       </c>
       <c r="C16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>6.9</v>
+        <v>7.16</v>
       </c>
       <c r="E16" t="n">
-        <v>6.88</v>
+        <v>6.52</v>
       </c>
       <c r="F16" t="n">
-        <v>389941.2578</v>
+        <v>41511.5571</v>
       </c>
       <c r="G16" t="n">
-        <v>6.759333333333332</v>
+        <v>10548654.43840887</v>
       </c>
       <c r="H16" t="n">
-        <v>6.99033333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.88</v>
+        <v>7.03</v>
       </c>
       <c r="C17" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="D17" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="E17" t="n">
-        <v>6.88</v>
+        <v>7.03</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>28278.6259</v>
       </c>
       <c r="G17" t="n">
-        <v>6.760666666666665</v>
+        <v>10576933.06430887</v>
       </c>
       <c r="H17" t="n">
-        <v>6.992999999999996</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="C18" t="n">
-        <v>6.89</v>
+        <v>7.29</v>
       </c>
       <c r="D18" t="n">
-        <v>6.89</v>
+        <v>7.29</v>
       </c>
       <c r="E18" t="n">
-        <v>6.89</v>
+        <v>7.02</v>
       </c>
       <c r="F18" t="n">
-        <v>4743.9272</v>
+        <v>343694.217</v>
       </c>
       <c r="G18" t="n">
-        <v>6.773333333333332</v>
+        <v>10920627.28130887</v>
       </c>
       <c r="H18" t="n">
-        <v>6.993666666666662</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="C19" t="n">
-        <v>6.82</v>
+        <v>7.02</v>
       </c>
       <c r="D19" t="n">
-        <v>6.89</v>
+        <v>7.03</v>
       </c>
       <c r="E19" t="n">
-        <v>6.82</v>
+        <v>7.02</v>
       </c>
       <c r="F19" t="n">
-        <v>3262</v>
+        <v>343710.11</v>
       </c>
       <c r="G19" t="n">
-        <v>6.781333333333333</v>
+        <v>10576917.17130887</v>
       </c>
       <c r="H19" t="n">
-        <v>6.992833333333328</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.96</v>
+        <v>7.29</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>7.21</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>7.29</v>
       </c>
       <c r="E20" t="n">
-        <v>6.96</v>
+        <v>7.21</v>
       </c>
       <c r="F20" t="n">
-        <v>29923.3642</v>
+        <v>104110</v>
       </c>
       <c r="G20" t="n">
-        <v>6.795333333333332</v>
+        <v>10681027.17130887</v>
       </c>
       <c r="H20" t="n">
-        <v>6.997333333333328</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.91</v>
+        <v>7.19</v>
       </c>
       <c r="C21" t="n">
-        <v>6.89</v>
+        <v>7.06</v>
       </c>
       <c r="D21" t="n">
-        <v>6.91</v>
+        <v>7.19</v>
       </c>
       <c r="E21" t="n">
-        <v>6.89</v>
+        <v>7.06</v>
       </c>
       <c r="F21" t="n">
-        <v>117309.9485</v>
+        <v>20678.473</v>
       </c>
       <c r="G21" t="n">
-        <v>6.808666666666666</v>
+        <v>10660348.69830887</v>
       </c>
       <c r="H21" t="n">
-        <v>6.999166666666662</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.8</v>
+        <v>7.27</v>
       </c>
       <c r="C22" t="n">
-        <v>6.81</v>
+        <v>7.18</v>
       </c>
       <c r="D22" t="n">
-        <v>6.81</v>
+        <v>7.4</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8</v>
+        <v>7.18</v>
       </c>
       <c r="F22" t="n">
-        <v>48030.8743</v>
+        <v>53681.6706</v>
       </c>
       <c r="G22" t="n">
-        <v>6.821333333333332</v>
+        <v>10714030.36890887</v>
       </c>
       <c r="H22" t="n">
-        <v>6.999666666666662</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.77</v>
+        <v>7.17</v>
       </c>
       <c r="C23" t="n">
-        <v>6.77</v>
+        <v>7.17</v>
       </c>
       <c r="D23" t="n">
-        <v>6.77</v>
+        <v>7.17</v>
       </c>
       <c r="E23" t="n">
-        <v>6.77</v>
+        <v>7.17</v>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>21787.1687</v>
       </c>
       <c r="G23" t="n">
-        <v>6.830666666666665</v>
+        <v>10692243.20020887</v>
       </c>
       <c r="H23" t="n">
-        <v>6.999666666666662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.77</v>
+        <v>7.14</v>
       </c>
       <c r="C24" t="n">
-        <v>6.77</v>
+        <v>7.12</v>
       </c>
       <c r="D24" t="n">
-        <v>6.77</v>
+        <v>7.14</v>
       </c>
       <c r="E24" t="n">
-        <v>6.77</v>
+        <v>7.12</v>
       </c>
       <c r="F24" t="n">
-        <v>13287.0014</v>
+        <v>226276.2322</v>
       </c>
       <c r="G24" t="n">
-        <v>6.832666666666666</v>
+        <v>10465966.96800887</v>
       </c>
       <c r="H24" t="n">
-        <v>6.998333333333329</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.94</v>
+        <v>7.13</v>
       </c>
       <c r="C25" t="n">
-        <v>6.94</v>
+        <v>7.13</v>
       </c>
       <c r="D25" t="n">
-        <v>6.95</v>
+        <v>7.13</v>
       </c>
       <c r="E25" t="n">
-        <v>6.94</v>
+        <v>7.13</v>
       </c>
       <c r="F25" t="n">
-        <v>415075.6482</v>
+        <v>3600</v>
       </c>
       <c r="G25" t="n">
-        <v>6.847999999999999</v>
+        <v>10469566.96800887</v>
       </c>
       <c r="H25" t="n">
-        <v>6.998999999999995</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="C26" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="D26" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="E26" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="F26" t="n">
-        <v>1148</v>
+        <v>3577.6876</v>
       </c>
       <c r="G26" t="n">
-        <v>6.855333333333332</v>
+        <v>10473144.65560887</v>
       </c>
       <c r="H26" t="n">
-        <v>6.998833333333328</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="C27" t="n">
-        <v>6.94</v>
+        <v>7.24</v>
       </c>
       <c r="D27" t="n">
-        <v>6.94</v>
+        <v>7.24</v>
       </c>
       <c r="E27" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="F27" t="n">
-        <v>215.4531</v>
+        <v>18278.5373</v>
       </c>
       <c r="G27" t="n">
-        <v>6.861999999999998</v>
+        <v>10491423.19290887</v>
       </c>
       <c r="H27" t="n">
-        <v>7.002166666666662</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.81</v>
+        <v>7.13</v>
       </c>
       <c r="C28" t="n">
-        <v>6.81</v>
+        <v>7.12</v>
       </c>
       <c r="D28" t="n">
-        <v>6.81</v>
+        <v>7.13</v>
       </c>
       <c r="E28" t="n">
-        <v>6.81</v>
+        <v>7.12</v>
       </c>
       <c r="F28" t="n">
-        <v>10650.887</v>
+        <v>67296.5744</v>
       </c>
       <c r="G28" t="n">
-        <v>6.859333333333333</v>
+        <v>10424126.61850887</v>
       </c>
       <c r="H28" t="n">
-        <v>7.000166666666662</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="C29" t="n">
-        <v>6.81</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>6.81</v>
+        <v>7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>6.81</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>19498.3512</v>
+        <v>158015.7071</v>
       </c>
       <c r="G29" t="n">
-        <v>6.861999999999999</v>
+        <v>10266110.91140887</v>
       </c>
       <c r="H29" t="n">
-        <v>7.001333333333329</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.83</v>
+        <v>6.92</v>
       </c>
       <c r="C30" t="n">
-        <v>6.82</v>
+        <v>6.89</v>
       </c>
       <c r="D30" t="n">
-        <v>6.83</v>
+        <v>6.92</v>
       </c>
       <c r="E30" t="n">
-        <v>6.82</v>
+        <v>6.89</v>
       </c>
       <c r="F30" t="n">
-        <v>59267.1504</v>
+        <v>401.2744</v>
       </c>
       <c r="G30" t="n">
-        <v>6.866666666666666</v>
+        <v>10265709.63700887</v>
       </c>
       <c r="H30" t="n">
-        <v>6.999999999999996</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="C31" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="D31" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="E31" t="n">
-        <v>6.84</v>
+        <v>6.87</v>
       </c>
       <c r="F31" t="n">
-        <v>666.2784</v>
+        <v>4978.748</v>
       </c>
       <c r="G31" t="n">
-        <v>6.862666666666667</v>
+        <v>10260730.88900887</v>
       </c>
       <c r="H31" t="n">
-        <v>7.000833333333328</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.83</v>
+        <v>6.7</v>
       </c>
       <c r="C32" t="n">
-        <v>6.83</v>
+        <v>6.7</v>
       </c>
       <c r="D32" t="n">
-        <v>6.83</v>
+        <v>6.87</v>
       </c>
       <c r="E32" t="n">
-        <v>6.83</v>
+        <v>6.7</v>
       </c>
       <c r="F32" t="n">
-        <v>11317.1654</v>
+        <v>24014.1404</v>
       </c>
       <c r="G32" t="n">
-        <v>6.858666666666666</v>
+        <v>10236716.74860887</v>
       </c>
       <c r="H32" t="n">
-        <v>6.998833333333327</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="C33" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="D33" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="E33" t="n">
-        <v>6.84</v>
+        <v>6.7</v>
       </c>
       <c r="F33" t="n">
-        <v>100000</v>
+        <v>6311.3892</v>
       </c>
       <c r="G33" t="n">
-        <v>6.855333333333333</v>
+        <v>10236716.74860887</v>
       </c>
       <c r="H33" t="n">
-        <v>6.994666666666661</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.9</v>
+        <v>6.79</v>
       </c>
       <c r="C34" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="D34" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="E34" t="n">
-        <v>6.9</v>
+        <v>6.79</v>
       </c>
       <c r="F34" t="n">
-        <v>180507.8033</v>
+        <v>939.7643</v>
       </c>
       <c r="G34" t="n">
-        <v>6.862</v>
+        <v>10237656.51290887</v>
       </c>
       <c r="H34" t="n">
-        <v>6.991833333333329</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.94</v>
+        <v>6.7</v>
       </c>
       <c r="C35" t="n">
-        <v>6.94</v>
+        <v>6.69</v>
       </c>
       <c r="D35" t="n">
-        <v>6.94</v>
+        <v>6.74</v>
       </c>
       <c r="E35" t="n">
-        <v>6.94</v>
+        <v>6.69</v>
       </c>
       <c r="F35" t="n">
-        <v>163000</v>
+        <v>2369.6644</v>
       </c>
       <c r="G35" t="n">
-        <v>6.858000000000001</v>
+        <v>10235286.84850887</v>
       </c>
       <c r="H35" t="n">
-        <v>6.985833333333328</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.9</v>
+        <v>6.64</v>
       </c>
       <c r="C36" t="n">
-        <v>6.9</v>
+        <v>6.62</v>
       </c>
       <c r="D36" t="n">
-        <v>6.9</v>
+        <v>6.64</v>
       </c>
       <c r="E36" t="n">
-        <v>6.9</v>
+        <v>6.62</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>76503.93369999999</v>
       </c>
       <c r="G36" t="n">
-        <v>6.858666666666667</v>
+        <v>10158782.91480887</v>
       </c>
       <c r="H36" t="n">
-        <v>6.979166666666661</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.69</v>
       </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1664,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.86</v>
+        <v>6.61</v>
       </c>
       <c r="C37" t="n">
-        <v>6.86</v>
+        <v>6.63</v>
       </c>
       <c r="D37" t="n">
-        <v>6.86</v>
+        <v>6.63</v>
       </c>
       <c r="E37" t="n">
-        <v>6.86</v>
+        <v>6.61</v>
       </c>
       <c r="F37" t="n">
-        <v>1459.124</v>
+        <v>7999.4133</v>
       </c>
       <c r="G37" t="n">
-        <v>6.862</v>
+        <v>10166782.32810887</v>
       </c>
       <c r="H37" t="n">
-        <v>6.968499999999994</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.62</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1705,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.81</v>
+        <v>6.72</v>
       </c>
       <c r="C38" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="D38" t="n">
-        <v>6.81</v>
+        <v>6.75</v>
       </c>
       <c r="E38" t="n">
-        <v>6.77</v>
+        <v>6.72</v>
       </c>
       <c r="F38" t="n">
-        <v>13478.7566</v>
+        <v>94061.30560000001</v>
       </c>
       <c r="G38" t="n">
-        <v>6.862</v>
+        <v>10260843.63370887</v>
       </c>
       <c r="H38" t="n">
-        <v>6.959499999999994</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1744,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.83</v>
+        <v>6.72</v>
       </c>
       <c r="C39" t="n">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
       <c r="D39" t="n">
-        <v>6.83</v>
+        <v>6.72</v>
       </c>
       <c r="E39" t="n">
-        <v>6.83</v>
+        <v>6.71</v>
       </c>
       <c r="F39" t="n">
-        <v>84</v>
+        <v>182280.4072</v>
       </c>
       <c r="G39" t="n">
-        <v>6.866000000000001</v>
+        <v>10078563.22650887</v>
       </c>
       <c r="H39" t="n">
-        <v>6.950666666666661</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1783,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="C40" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="D40" t="n">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="E40" t="n">
-        <v>6.82</v>
+        <v>6.79</v>
       </c>
       <c r="F40" t="n">
-        <v>10835.117</v>
+        <v>372148.4689</v>
       </c>
       <c r="G40" t="n">
-        <v>6.858000000000001</v>
+        <v>10450711.69540887</v>
       </c>
       <c r="H40" t="n">
-        <v>6.93866666666666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="C41" t="n">
         <v>6.84</v>
@@ -1929,27 +1831,28 @@
         <v>6.84</v>
       </c>
       <c r="E41" t="n">
-        <v>6.84</v>
+        <v>6.83</v>
       </c>
       <c r="F41" t="n">
-        <v>4302.9197</v>
+        <v>340907.4335</v>
       </c>
       <c r="G41" t="n">
-        <v>6.851333333333334</v>
+        <v>10791619.12890887</v>
       </c>
       <c r="H41" t="n">
-        <v>6.929166666666659</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1861,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.78</v>
+        <v>6.85</v>
       </c>
       <c r="C42" t="n">
-        <v>6.78</v>
+        <v>6.85</v>
       </c>
       <c r="D42" t="n">
-        <v>6.78</v>
+        <v>6.85</v>
       </c>
       <c r="E42" t="n">
-        <v>6.78</v>
+        <v>6.85</v>
       </c>
       <c r="F42" t="n">
-        <v>16139.348</v>
+        <v>5132.9503</v>
       </c>
       <c r="G42" t="n">
-        <v>6.840666666666667</v>
+        <v>10796752.07920887</v>
       </c>
       <c r="H42" t="n">
-        <v>6.920499999999992</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1900,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="C43" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="D43" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="E43" t="n">
-        <v>6.78</v>
+        <v>6.77</v>
       </c>
       <c r="F43" t="n">
-        <v>3000</v>
+        <v>11200</v>
       </c>
       <c r="G43" t="n">
-        <v>6.838666666666668</v>
+        <v>10785552.07920887</v>
       </c>
       <c r="H43" t="n">
-        <v>6.913333333333325</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1939,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="C44" t="n">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="D44" t="n">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="E44" t="n">
-        <v>6.78</v>
+        <v>6.75</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G44" t="n">
-        <v>6.836666666666668</v>
+        <v>10785502.07920887</v>
       </c>
       <c r="H44" t="n">
-        <v>6.906166666666659</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,40 +1978,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.78</v>
+        <v>6.88</v>
       </c>
       <c r="C45" t="n">
-        <v>6.78</v>
+        <v>6.9</v>
       </c>
       <c r="D45" t="n">
-        <v>6.78</v>
+        <v>6.9</v>
       </c>
       <c r="E45" t="n">
-        <v>6.78</v>
+        <v>6.88</v>
       </c>
       <c r="F45" t="n">
-        <v>19843.3378</v>
+        <v>389941.2578</v>
       </c>
       <c r="G45" t="n">
-        <v>6.834000000000001</v>
+        <v>11175443.33700887</v>
       </c>
       <c r="H45" t="n">
-        <v>6.898999999999991</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2114,44 +2019,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.79</v>
+        <v>6.88</v>
       </c>
       <c r="C46" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="D46" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="E46" t="n">
-        <v>6.79</v>
+        <v>6.88</v>
       </c>
       <c r="F46" t="n">
-        <v>2373.1958</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>6.830666666666668</v>
+        <v>11175343.33700887</v>
       </c>
       <c r="H46" t="n">
-        <v>6.889833333333326</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2160,44 +2058,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="C47" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="D47" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="E47" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="F47" t="n">
-        <v>213.5493</v>
+        <v>4743.9272</v>
       </c>
       <c r="G47" t="n">
-        <v>6.828000000000002</v>
+        <v>11175343.33700887</v>
       </c>
       <c r="H47" t="n">
-        <v>6.886333333333326</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2206,40 +2097,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="C48" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="D48" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="E48" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="F48" t="n">
-        <v>153.4609</v>
+        <v>3262</v>
       </c>
       <c r="G48" t="n">
-        <v>6.824666666666669</v>
+        <v>11172081.33700887</v>
       </c>
       <c r="H48" t="n">
-        <v>6.882333333333326</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,44 +2138,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.79</v>
+        <v>6.96</v>
       </c>
       <c r="C49" t="n">
-        <v>6.79</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>6.79</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>6.79</v>
+        <v>6.96</v>
       </c>
       <c r="F49" t="n">
-        <v>50.81</v>
+        <v>29923.3642</v>
       </c>
       <c r="G49" t="n">
-        <v>6.816000000000003</v>
+        <v>11202004.70120887</v>
       </c>
       <c r="H49" t="n">
-        <v>6.873999999999993</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2294,44 +2177,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.79</v>
+        <v>6.91</v>
       </c>
       <c r="C50" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="D50" t="n">
-        <v>6.79</v>
+        <v>6.91</v>
       </c>
       <c r="E50" t="n">
-        <v>6.79</v>
+        <v>6.89</v>
       </c>
       <c r="F50" t="n">
-        <v>11231.7695</v>
+        <v>117309.9485</v>
       </c>
       <c r="G50" t="n">
-        <v>6.806000000000003</v>
+        <v>11084694.75270887</v>
       </c>
       <c r="H50" t="n">
-        <v>6.870166666666661</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,40 +2216,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
       <c r="C51" t="n">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="D51" t="n">
-        <v>6.82</v>
+        <v>6.81</v>
       </c>
       <c r="E51" t="n">
-        <v>6.82</v>
+        <v>6.8</v>
       </c>
       <c r="F51" t="n">
-        <v>12229.489</v>
+        <v>48030.8743</v>
       </c>
       <c r="G51" t="n">
-        <v>6.80066666666667</v>
+        <v>11036663.87840887</v>
       </c>
       <c r="H51" t="n">
-        <v>6.863666666666661</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,44 +2255,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.86</v>
+        <v>6.77</v>
       </c>
       <c r="C52" t="n">
-        <v>6.86</v>
+        <v>6.77</v>
       </c>
       <c r="D52" t="n">
-        <v>6.86</v>
+        <v>6.77</v>
       </c>
       <c r="E52" t="n">
-        <v>6.86</v>
+        <v>6.77</v>
       </c>
       <c r="F52" t="n">
-        <v>6846.5763</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>6.80066666666667</v>
+        <v>11036163.87840887</v>
       </c>
       <c r="H52" t="n">
-        <v>6.860333333333328</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,44 +2294,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="C53" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="D53" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="E53" t="n">
-        <v>6.82</v>
+        <v>6.77</v>
       </c>
       <c r="F53" t="n">
-        <v>2609.6396</v>
+        <v>13287.0014</v>
       </c>
       <c r="G53" t="n">
-        <v>6.804000000000003</v>
+        <v>11036163.87840887</v>
       </c>
       <c r="H53" t="n">
-        <v>6.854333333333328</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L53" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,44 +2333,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.8</v>
+        <v>6.94</v>
       </c>
       <c r="C54" t="n">
-        <v>6.78</v>
+        <v>6.94</v>
       </c>
       <c r="D54" t="n">
-        <v>6.8</v>
+        <v>6.95</v>
       </c>
       <c r="E54" t="n">
-        <v>6.78</v>
+        <v>6.94</v>
       </c>
       <c r="F54" t="n">
-        <v>89758.77770000001</v>
+        <v>415075.6482</v>
       </c>
       <c r="G54" t="n">
-        <v>6.80066666666667</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H54" t="n">
-        <v>6.847833333333327</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,44 +2372,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
       <c r="C55" t="n">
-        <v>6.85</v>
+        <v>6.94</v>
       </c>
       <c r="D55" t="n">
-        <v>6.85</v>
+        <v>6.94</v>
       </c>
       <c r="E55" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>1148</v>
       </c>
       <c r="G55" t="n">
-        <v>6.80266666666667</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H55" t="n">
-        <v>6.843333333333327</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,44 +2411,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.82</v>
+        <v>6.94</v>
       </c>
       <c r="C56" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
       <c r="D56" t="n">
-        <v>6.84</v>
+        <v>6.94</v>
       </c>
       <c r="E56" t="n">
-        <v>6.82</v>
+        <v>6.94</v>
       </c>
       <c r="F56" t="n">
-        <v>15246.1256</v>
+        <v>215.4531</v>
       </c>
       <c r="G56" t="n">
-        <v>6.80266666666667</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H56" t="n">
-        <v>6.838499999999994</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,44 +2450,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="C57" t="n">
-        <v>6.95</v>
+        <v>6.81</v>
       </c>
       <c r="D57" t="n">
-        <v>6.95</v>
+        <v>6.81</v>
       </c>
       <c r="E57" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>10650.887</v>
       </c>
       <c r="G57" t="n">
-        <v>6.814000000000004</v>
+        <v>11440588.63960887</v>
       </c>
       <c r="H57" t="n">
-        <v>6.835333333333327</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,42 +2489,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.88</v>
+        <v>6.81</v>
       </c>
       <c r="C58" t="n">
-        <v>6.25</v>
+        <v>6.81</v>
       </c>
       <c r="D58" t="n">
-        <v>6.88</v>
+        <v>6.81</v>
       </c>
       <c r="E58" t="n">
-        <v>6.25</v>
+        <v>6.81</v>
       </c>
       <c r="F58" t="n">
-        <v>61775.7309</v>
+        <v>19498.3512</v>
       </c>
       <c r="G58" t="n">
-        <v>6.77866666666667</v>
+        <v>11440588.63960887</v>
       </c>
       <c r="H58" t="n">
-        <v>6.818833333333327</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,44 +2528,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.95</v>
+        <v>6.83</v>
       </c>
       <c r="C59" t="n">
-        <v>6.95</v>
+        <v>6.82</v>
       </c>
       <c r="D59" t="n">
-        <v>6.95</v>
+        <v>6.83</v>
       </c>
       <c r="E59" t="n">
-        <v>6.95</v>
+        <v>6.82</v>
       </c>
       <c r="F59" t="n">
-        <v>35971.223</v>
+        <v>59267.1504</v>
       </c>
       <c r="G59" t="n">
-        <v>6.790000000000004</v>
+        <v>11499855.79000887</v>
       </c>
       <c r="H59" t="n">
-        <v>6.815999999999993</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,42 +2567,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="C60" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="D60" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="E60" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="F60" t="n">
-        <v>45290.4402</v>
+        <v>666.2784</v>
       </c>
       <c r="G60" t="n">
-        <v>6.800000000000003</v>
+        <v>11500522.06840887</v>
       </c>
       <c r="H60" t="n">
-        <v>6.814833333333326</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,42 +2606,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="C61" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="D61" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="E61" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="F61" t="n">
-        <v>39539.0238</v>
+        <v>11317.1654</v>
       </c>
       <c r="G61" t="n">
-        <v>6.80866666666667</v>
+        <v>11489204.90300887</v>
       </c>
       <c r="H61" t="n">
-        <v>6.815333333333327</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,42 +2645,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="C62" t="n">
-        <v>7.17</v>
+        <v>6.84</v>
       </c>
       <c r="D62" t="n">
-        <v>7.17</v>
+        <v>6.84</v>
       </c>
       <c r="E62" t="n">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="F62" t="n">
-        <v>7872.255715481171</v>
+        <v>100000</v>
       </c>
       <c r="G62" t="n">
-        <v>6.834000000000003</v>
+        <v>11589204.90300887</v>
       </c>
       <c r="H62" t="n">
-        <v>6.820333333333327</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,42 +2684,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.16</v>
+        <v>6.9</v>
       </c>
       <c r="C63" t="n">
-        <v>6.25</v>
+        <v>6.92</v>
       </c>
       <c r="D63" t="n">
-        <v>7.16</v>
+        <v>6.92</v>
       </c>
       <c r="E63" t="n">
-        <v>6.25</v>
+        <v>6.9</v>
       </c>
       <c r="F63" t="n">
-        <v>111929.362</v>
+        <v>180507.8033</v>
       </c>
       <c r="G63" t="n">
-        <v>6.798000000000003</v>
+        <v>11769712.70630887</v>
       </c>
       <c r="H63" t="n">
-        <v>6.812833333333328</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,42 +2723,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.14</v>
+        <v>6.94</v>
       </c>
       <c r="C64" t="n">
-        <v>7.14</v>
+        <v>6.94</v>
       </c>
       <c r="D64" t="n">
-        <v>7.14</v>
+        <v>6.94</v>
       </c>
       <c r="E64" t="n">
-        <v>7.14</v>
+        <v>6.94</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>163000</v>
       </c>
       <c r="G64" t="n">
-        <v>6.821333333333336</v>
+        <v>11932712.70630887</v>
       </c>
       <c r="H64" t="n">
-        <v>6.820166666666661</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,42 +2762,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.14</v>
+        <v>6.9</v>
       </c>
       <c r="C65" t="n">
-        <v>7.19</v>
+        <v>6.9</v>
       </c>
       <c r="D65" t="n">
-        <v>7.19</v>
+        <v>6.9</v>
       </c>
       <c r="E65" t="n">
-        <v>7.14</v>
+        <v>6.9</v>
       </c>
       <c r="F65" t="n">
-        <v>89538.46341247432</v>
+        <v>50</v>
       </c>
       <c r="G65" t="n">
-        <v>6.848000000000002</v>
+        <v>11932662.70630887</v>
       </c>
       <c r="H65" t="n">
-        <v>6.826833333333327</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3012,42 +2801,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="C66" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="D66" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="E66" t="n">
-        <v>6.87</v>
+        <v>6.86</v>
       </c>
       <c r="F66" t="n">
-        <v>70178.5365</v>
+        <v>1459.124</v>
       </c>
       <c r="G66" t="n">
-        <v>6.851333333333335</v>
+        <v>11931203.58230887</v>
       </c>
       <c r="H66" t="n">
-        <v>6.829833333333327</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,42 +2840,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="C67" t="n">
-        <v>7.12</v>
+        <v>6.77</v>
       </c>
       <c r="D67" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="E67" t="n">
-        <v>7.12</v>
+        <v>6.77</v>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>13478.7566</v>
       </c>
       <c r="G67" t="n">
-        <v>6.86866666666667</v>
+        <v>11917724.82570887</v>
       </c>
       <c r="H67" t="n">
-        <v>6.838166666666661</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,42 +2879,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.93</v>
+        <v>6.83</v>
       </c>
       <c r="C68" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="D68" t="n">
-        <v>6.93</v>
+        <v>6.83</v>
       </c>
       <c r="E68" t="n">
-        <v>6.92</v>
+        <v>6.83</v>
       </c>
       <c r="F68" t="n">
-        <v>7729.8402</v>
+        <v>84</v>
       </c>
       <c r="G68" t="n">
-        <v>6.875333333333336</v>
+        <v>11917808.82570887</v>
       </c>
       <c r="H68" t="n">
-        <v>6.842999999999994</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,42 +2918,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.94</v>
+        <v>6.82</v>
       </c>
       <c r="C69" t="n">
-        <v>6.95</v>
+        <v>6.82</v>
       </c>
       <c r="D69" t="n">
-        <v>6.95</v>
+        <v>6.82</v>
       </c>
       <c r="E69" t="n">
-        <v>6.94</v>
+        <v>6.82</v>
       </c>
       <c r="F69" t="n">
-        <v>134849.6197</v>
+        <v>10835.117</v>
       </c>
       <c r="G69" t="n">
-        <v>6.88666666666667</v>
+        <v>11906973.70870887</v>
       </c>
       <c r="H69" t="n">
-        <v>6.846499999999994</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,42 +2957,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.05</v>
+        <v>6.84</v>
       </c>
       <c r="C70" t="n">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
       <c r="D70" t="n">
-        <v>7.05</v>
+        <v>6.84</v>
       </c>
       <c r="E70" t="n">
-        <v>6.94</v>
+        <v>6.84</v>
       </c>
       <c r="F70" t="n">
-        <v>2717.1816</v>
+        <v>4302.9197</v>
       </c>
       <c r="G70" t="n">
-        <v>6.89266666666667</v>
+        <v>11911276.62840887</v>
       </c>
       <c r="H70" t="n">
-        <v>6.850333333333327</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,42 +2996,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="C71" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="D71" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="E71" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="F71" t="n">
-        <v>9975</v>
+        <v>16139.348</v>
       </c>
       <c r="G71" t="n">
-        <v>6.899333333333336</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H71" t="n">
-        <v>6.852166666666661</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>6.84</v>
       </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3276,42 +3037,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="C72" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="D72" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="E72" t="n">
-        <v>6.94</v>
+        <v>6.78</v>
       </c>
       <c r="F72" t="n">
-        <v>7852.575</v>
+        <v>3000</v>
       </c>
       <c r="G72" t="n">
-        <v>6.89866666666667</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H72" t="n">
-        <v>6.853833333333328</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,42 +3076,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="C73" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="D73" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="E73" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="F73" t="n">
-        <v>27589.3471</v>
+        <v>2000</v>
       </c>
       <c r="G73" t="n">
-        <v>6.942000000000004</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H73" t="n">
-        <v>6.85466666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,42 +3115,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.91</v>
+        <v>6.78</v>
       </c>
       <c r="C74" t="n">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
       <c r="D74" t="n">
-        <v>6.91</v>
+        <v>6.78</v>
       </c>
       <c r="E74" t="n">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
       <c r="F74" t="n">
-        <v>70178.53660000001</v>
+        <v>19843.3378</v>
       </c>
       <c r="G74" t="n">
-        <v>6.938000000000003</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H74" t="n">
-        <v>6.85666666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,42 +3154,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="C75" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="D75" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="E75" t="n">
-        <v>6.92</v>
+        <v>6.79</v>
       </c>
       <c r="F75" t="n">
-        <v>9776.625899999999</v>
+        <v>2373.1958</v>
       </c>
       <c r="G75" t="n">
-        <v>6.937333333333338</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H75" t="n">
-        <v>6.859499999999994</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,42 +3193,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="C76" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="D76" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="E76" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="F76" t="n">
-        <v>19394.48</v>
+        <v>213.5493</v>
       </c>
       <c r="G76" t="n">
-        <v>6.939333333333337</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H76" t="n">
-        <v>6.860333333333328</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,42 +3232,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.97</v>
+        <v>6.79</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="E77" t="n">
-        <v>6.97</v>
+        <v>6.79</v>
       </c>
       <c r="F77" t="n">
-        <v>23328.1493</v>
+        <v>153.4609</v>
       </c>
       <c r="G77" t="n">
-        <v>6.928000000000003</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H77" t="n">
-        <v>6.862166666666662</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,42 +3271,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="F78" t="n">
-        <v>13473.0539</v>
+        <v>50.81</v>
       </c>
       <c r="G78" t="n">
-        <v>6.978000000000004</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H78" t="n">
-        <v>6.863999999999995</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>6.79</v>
       </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,42 +3312,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6.79</v>
       </c>
       <c r="F79" t="n">
-        <v>26456.0679</v>
+        <v>11231.7695</v>
       </c>
       <c r="G79" t="n">
-        <v>6.96866666666667</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H79" t="n">
-        <v>6.866999999999995</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>6.79</v>
       </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,42 +3353,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.04</v>
+        <v>6.82</v>
       </c>
       <c r="C80" t="n">
-        <v>7.04</v>
+        <v>6.82</v>
       </c>
       <c r="D80" t="n">
-        <v>7.04</v>
+        <v>6.82</v>
       </c>
       <c r="E80" t="n">
-        <v>7.04</v>
+        <v>6.82</v>
       </c>
       <c r="F80" t="n">
-        <v>89314.6173</v>
+        <v>12229.489</v>
       </c>
       <c r="G80" t="n">
-        <v>6.958666666666671</v>
+        <v>11909739.96520887</v>
       </c>
       <c r="H80" t="n">
-        <v>6.867666666666662</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,42 +3392,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.05</v>
+        <v>6.86</v>
       </c>
       <c r="C81" t="n">
-        <v>7.05</v>
+        <v>6.86</v>
       </c>
       <c r="D81" t="n">
-        <v>7.05</v>
+        <v>6.86</v>
       </c>
       <c r="E81" t="n">
-        <v>7.05</v>
+        <v>6.86</v>
       </c>
       <c r="F81" t="n">
-        <v>50000</v>
+        <v>6846.5763</v>
       </c>
       <c r="G81" t="n">
-        <v>6.970666666666671</v>
+        <v>11916586.54150887</v>
       </c>
       <c r="H81" t="n">
-        <v>6.870333333333329</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3716,42 +3431,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.1</v>
+        <v>6.82</v>
       </c>
       <c r="C82" t="n">
-        <v>7.15</v>
+        <v>6.82</v>
       </c>
       <c r="D82" t="n">
-        <v>7.15</v>
+        <v>6.82</v>
       </c>
       <c r="E82" t="n">
-        <v>7.1</v>
+        <v>6.82</v>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>2609.6396</v>
       </c>
       <c r="G82" t="n">
-        <v>6.972666666666671</v>
+        <v>11913976.90190887</v>
       </c>
       <c r="H82" t="n">
-        <v>6.875999999999995</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,42 +3470,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.16</v>
+        <v>6.8</v>
       </c>
       <c r="C83" t="n">
-        <v>7.18</v>
+        <v>6.78</v>
       </c>
       <c r="D83" t="n">
-        <v>7.18</v>
+        <v>6.8</v>
       </c>
       <c r="E83" t="n">
-        <v>7.16</v>
+        <v>6.78</v>
       </c>
       <c r="F83" t="n">
-        <v>390461.5598</v>
+        <v>89758.77770000001</v>
       </c>
       <c r="G83" t="n">
-        <v>6.990000000000005</v>
+        <v>11824218.12420887</v>
       </c>
       <c r="H83" t="n">
-        <v>6.882833333333329</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,42 +3511,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.18</v>
+        <v>6.84</v>
       </c>
       <c r="C84" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="D84" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="E84" t="n">
-        <v>7.18</v>
+        <v>6.84</v>
       </c>
       <c r="F84" t="n">
-        <v>128424.7234</v>
+        <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>7.005333333333337</v>
+        <v>11834218.12420887</v>
       </c>
       <c r="H84" t="n">
-        <v>6.889666666666662</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,42 +3552,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.19</v>
+        <v>6.82</v>
       </c>
       <c r="C85" t="n">
-        <v>7.19</v>
+        <v>6.84</v>
       </c>
       <c r="D85" t="n">
-        <v>7.19</v>
+        <v>6.84</v>
       </c>
       <c r="E85" t="n">
-        <v>7.19</v>
+        <v>6.82</v>
       </c>
       <c r="F85" t="n">
-        <v>4500</v>
+        <v>15246.1256</v>
       </c>
       <c r="G85" t="n">
-        <v>7.022000000000004</v>
+        <v>11818971.99860887</v>
       </c>
       <c r="H85" t="n">
-        <v>6.89383333333333</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3892,43 +3593,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="C86" t="n">
-        <v>7.17</v>
+        <v>6.95</v>
       </c>
       <c r="D86" t="n">
-        <v>7.17</v>
+        <v>6.95</v>
       </c>
       <c r="E86" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="F86" t="n">
-        <v>336207.7352</v>
+        <v>300</v>
       </c>
       <c r="G86" t="n">
-        <v>7.037333333333337</v>
+        <v>11819271.99860887</v>
       </c>
       <c r="H86" t="n">
-        <v>6.897666666666663</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>6.84</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>1.050964653902798</v>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3936,36 +3634,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.19</v>
+        <v>6.88</v>
       </c>
       <c r="C87" t="n">
-        <v>7.3</v>
+        <v>6.25</v>
       </c>
       <c r="D87" t="n">
-        <v>7.3</v>
+        <v>6.88</v>
       </c>
       <c r="E87" t="n">
-        <v>7.19</v>
+        <v>6.25</v>
       </c>
       <c r="F87" t="n">
-        <v>561862.4577</v>
+        <v>61775.7309</v>
       </c>
       <c r="G87" t="n">
-        <v>7.061333333333337</v>
+        <v>11757496.26770887</v>
       </c>
       <c r="H87" t="n">
-        <v>6.903666666666664</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3974,36 +3673,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="C88" t="n">
-        <v>7.36</v>
+        <v>6.95</v>
       </c>
       <c r="D88" t="n">
-        <v>7.36</v>
+        <v>6.95</v>
       </c>
       <c r="E88" t="n">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="F88" t="n">
-        <v>580144.8676999999</v>
+        <v>35971.223</v>
       </c>
       <c r="G88" t="n">
-        <v>7.092000000000003</v>
+        <v>11793467.49070887</v>
       </c>
       <c r="H88" t="n">
-        <v>6.91283333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,36 +3712,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.36</v>
+        <v>6.93</v>
       </c>
       <c r="C89" t="n">
-        <v>7.4</v>
+        <v>6.93</v>
       </c>
       <c r="D89" t="n">
-        <v>7.4</v>
+        <v>6.93</v>
       </c>
       <c r="E89" t="n">
-        <v>7.36</v>
+        <v>6.93</v>
       </c>
       <c r="F89" t="n">
-        <v>9000</v>
+        <v>45290.4402</v>
       </c>
       <c r="G89" t="n">
-        <v>7.126000000000004</v>
+        <v>11748177.05050887</v>
       </c>
       <c r="H89" t="n">
-        <v>6.922666666666663</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,36 +3751,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.34</v>
+        <v>6.92</v>
       </c>
       <c r="C90" t="n">
-        <v>7.39</v>
+        <v>6.92</v>
       </c>
       <c r="D90" t="n">
-        <v>7.39</v>
+        <v>6.92</v>
       </c>
       <c r="E90" t="n">
-        <v>7.34</v>
+        <v>6.92</v>
       </c>
       <c r="F90" t="n">
-        <v>313673.8851</v>
+        <v>39539.0238</v>
       </c>
       <c r="G90" t="n">
-        <v>7.157333333333337</v>
+        <v>11708638.02670887</v>
       </c>
       <c r="H90" t="n">
-        <v>6.932166666666663</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,36 +3790,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.22</v>
+        <v>6.93</v>
       </c>
       <c r="C91" t="n">
-        <v>7.16</v>
+        <v>7.17</v>
       </c>
       <c r="D91" t="n">
-        <v>7.22</v>
+        <v>7.17</v>
       </c>
       <c r="E91" t="n">
-        <v>7.16</v>
+        <v>6.93</v>
       </c>
       <c r="F91" t="n">
-        <v>40402.7894</v>
+        <v>7872.255715481171</v>
       </c>
       <c r="G91" t="n">
-        <v>7.171333333333337</v>
+        <v>11716510.28242435</v>
       </c>
       <c r="H91" t="n">
-        <v>6.937499999999997</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,36 +3829,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.07</v>
+        <v>7.16</v>
       </c>
       <c r="C92" t="n">
-        <v>7.27</v>
+        <v>6.25</v>
       </c>
       <c r="D92" t="n">
-        <v>7.27</v>
+        <v>7.16</v>
       </c>
       <c r="E92" t="n">
-        <v>7.06</v>
+        <v>6.25</v>
       </c>
       <c r="F92" t="n">
-        <v>112676.4515</v>
+        <v>111929.362</v>
       </c>
       <c r="G92" t="n">
-        <v>7.189333333333336</v>
+        <v>11604580.92042435</v>
       </c>
       <c r="H92" t="n">
-        <v>6.944833333333331</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4164,36 +3868,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="C93" t="n">
-        <v>7.06</v>
+        <v>7.14</v>
       </c>
       <c r="D93" t="n">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="E93" t="n">
-        <v>7.06</v>
+        <v>7.14</v>
       </c>
       <c r="F93" t="n">
-        <v>107588.8863</v>
+        <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>7.193333333333337</v>
+        <v>11604780.92042435</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948499999999997</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,36 +3907,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.06</v>
+        <v>7.14</v>
       </c>
       <c r="C94" t="n">
-        <v>7.35</v>
+        <v>7.19</v>
       </c>
       <c r="D94" t="n">
-        <v>7.35</v>
+        <v>7.19</v>
       </c>
       <c r="E94" t="n">
-        <v>7.06</v>
+        <v>7.14</v>
       </c>
       <c r="F94" t="n">
-        <v>42032.1156</v>
+        <v>89538.46341247432</v>
       </c>
       <c r="G94" t="n">
-        <v>7.216666666666669</v>
+        <v>11694319.38383683</v>
       </c>
       <c r="H94" t="n">
-        <v>6.955666666666664</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,36 +3946,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.08</v>
+        <v>6.87</v>
       </c>
       <c r="C95" t="n">
-        <v>7</v>
+        <v>6.87</v>
       </c>
       <c r="D95" t="n">
-        <v>7.08</v>
+        <v>6.87</v>
       </c>
       <c r="E95" t="n">
-        <v>6.99</v>
+        <v>6.87</v>
       </c>
       <c r="F95" t="n">
-        <v>255786.2276</v>
+        <v>70178.5365</v>
       </c>
       <c r="G95" t="n">
-        <v>7.214000000000002</v>
+        <v>11624140.84733683</v>
       </c>
       <c r="H95" t="n">
-        <v>6.956666666666664</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,36 +3985,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>7.12</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>7.12</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>7.12</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>7.12</v>
       </c>
       <c r="F96" t="n">
-        <v>691859.1176999999</v>
+        <v>100</v>
       </c>
       <c r="G96" t="n">
-        <v>7.210666666666669</v>
+        <v>11624240.84733683</v>
       </c>
       <c r="H96" t="n">
-        <v>6.958333333333331</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,36 +4024,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.11</v>
+        <v>6.93</v>
       </c>
       <c r="C97" t="n">
-        <v>7.11</v>
+        <v>6.92</v>
       </c>
       <c r="D97" t="n">
-        <v>7.11</v>
+        <v>6.93</v>
       </c>
       <c r="E97" t="n">
-        <v>7.11</v>
+        <v>6.92</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>7729.8402</v>
       </c>
       <c r="G97" t="n">
-        <v>7.208000000000002</v>
+        <v>11616511.00713683</v>
       </c>
       <c r="H97" t="n">
-        <v>6.962499999999998</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,36 +4063,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="C98" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="D98" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="E98" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F98" t="n">
-        <v>16500</v>
+        <v>134849.6197</v>
       </c>
       <c r="G98" t="n">
-        <v>7.189333333333336</v>
+        <v>11751360.62683683</v>
       </c>
       <c r="H98" t="n">
-        <v>6.964666666666664</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,36 +4102,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="C99" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D99" t="n">
-        <v>6.9</v>
+        <v>7.05</v>
       </c>
       <c r="E99" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F99" t="n">
-        <v>8460</v>
+        <v>2717.1816</v>
       </c>
       <c r="G99" t="n">
-        <v>7.170666666666668</v>
+        <v>11748643.44523683</v>
       </c>
       <c r="H99" t="n">
-        <v>6.965833333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4430,36 +4141,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="C100" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D100" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="E100" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F100" t="n">
-        <v>15100.2898</v>
+        <v>9975</v>
       </c>
       <c r="G100" t="n">
-        <v>7.151333333333336</v>
+        <v>11748643.44523683</v>
       </c>
       <c r="H100" t="n">
-        <v>6.967166666666665</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4468,36 +4180,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
       <c r="C101" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
       <c r="D101" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
       <c r="E101" t="n">
-        <v>6.91</v>
+        <v>6.94</v>
       </c>
       <c r="F101" t="n">
-        <v>206045.8388</v>
+        <v>7852.575</v>
       </c>
       <c r="G101" t="n">
-        <v>7.134000000000002</v>
+        <v>11748643.44523683</v>
       </c>
       <c r="H101" t="n">
-        <v>6.968333333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,36 +4219,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="C102" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="D102" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="E102" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="F102" t="n">
-        <v>962778.0503</v>
+        <v>27589.3471</v>
       </c>
       <c r="G102" t="n">
-        <v>7.108000000000002</v>
+        <v>11721054.09813683</v>
       </c>
       <c r="H102" t="n">
-        <v>6.970499999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,36 +4258,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="C103" t="n">
-        <v>7.11</v>
+        <v>6.89</v>
       </c>
       <c r="D103" t="n">
-        <v>7.11</v>
+        <v>6.91</v>
       </c>
       <c r="E103" t="n">
-        <v>7.11</v>
+        <v>6.89</v>
       </c>
       <c r="F103" t="n">
-        <v>1990</v>
+        <v>70178.53660000001</v>
       </c>
       <c r="G103" t="n">
-        <v>7.091333333333336</v>
+        <v>11650875.56153683</v>
       </c>
       <c r="H103" t="n">
-        <v>6.976</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4582,36 +4297,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="C104" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="D104" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="E104" t="n">
-        <v>7.15</v>
+        <v>6.92</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>9776.625899999999</v>
       </c>
       <c r="G104" t="n">
-        <v>7.074666666666669</v>
+        <v>11660652.18743683</v>
       </c>
       <c r="H104" t="n">
-        <v>6.982166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,36 +4336,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="C105" t="n">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="D105" t="n">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="E105" t="n">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="F105" t="n">
-        <v>20533.9712</v>
+        <v>19394.48</v>
       </c>
       <c r="G105" t="n">
-        <v>7.056666666666669</v>
+        <v>11680046.66743683</v>
       </c>
       <c r="H105" t="n">
-        <v>6.987833333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4658,36 +4375,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.12</v>
+        <v>6.97</v>
       </c>
       <c r="C106" t="n">
-        <v>7.12</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>7.12</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>7.12</v>
+        <v>6.97</v>
       </c>
       <c r="F106" t="n">
-        <v>7339.4838</v>
+        <v>23328.1493</v>
       </c>
       <c r="G106" t="n">
-        <v>7.054000000000003</v>
+        <v>11703374.81673683</v>
       </c>
       <c r="H106" t="n">
-        <v>6.993333333333334</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4696,36 +4414,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>6.91</v>
+        <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>6.91</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>102913.0294</v>
+        <v>13473.0539</v>
       </c>
       <c r="G107" t="n">
-        <v>7.030000000000003</v>
+        <v>11703374.81673683</v>
       </c>
       <c r="H107" t="n">
-        <v>6.995333333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,36 +4453,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="C108" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>6.89</v>
+        <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>6998.556</v>
+        <v>26456.0679</v>
       </c>
       <c r="G108" t="n">
-        <v>7.01866666666667</v>
+        <v>11703374.81673683</v>
       </c>
       <c r="H108" t="n">
-        <v>6.997</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4772,36 +4492,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="C109" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="D109" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="E109" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="F109" t="n">
-        <v>20602.0623</v>
+        <v>89314.6173</v>
       </c>
       <c r="G109" t="n">
-        <v>6.98266666666667</v>
+        <v>11792689.43403683</v>
       </c>
       <c r="H109" t="n">
-        <v>6.997333333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,36 +4531,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="C110" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="D110" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="E110" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="F110" t="n">
-        <v>7201.709</v>
+        <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>6.970000000000003</v>
+        <v>11842689.43403683</v>
       </c>
       <c r="H110" t="n">
-        <v>6.997666666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,36 +4570,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="C111" t="n">
-        <v>6.8</v>
+        <v>7.15</v>
       </c>
       <c r="D111" t="n">
-        <v>6.8</v>
+        <v>7.15</v>
       </c>
       <c r="E111" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F111" t="n">
-        <v>15062.5391</v>
+        <v>100000</v>
       </c>
       <c r="G111" t="n">
-        <v>6.95666666666667</v>
+        <v>11942689.43403683</v>
       </c>
       <c r="H111" t="n">
-        <v>6.997333333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,36 +4609,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.91</v>
+        <v>7.16</v>
       </c>
       <c r="C112" t="n">
-        <v>6.91</v>
+        <v>7.18</v>
       </c>
       <c r="D112" t="n">
-        <v>6.91</v>
+        <v>7.18</v>
       </c>
       <c r="E112" t="n">
-        <v>6.91</v>
+        <v>7.16</v>
       </c>
       <c r="F112" t="n">
-        <v>10000</v>
+        <v>390461.5598</v>
       </c>
       <c r="G112" t="n">
-        <v>6.943333333333337</v>
+        <v>12333150.99383683</v>
       </c>
       <c r="H112" t="n">
-        <v>6.998166666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,36 +4648,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.81</v>
+        <v>7.18</v>
       </c>
       <c r="C113" t="n">
-        <v>6.73</v>
+        <v>7.18</v>
       </c>
       <c r="D113" t="n">
-        <v>6.81</v>
+        <v>7.18</v>
       </c>
       <c r="E113" t="n">
-        <v>6.73</v>
+        <v>7.18</v>
       </c>
       <c r="F113" t="n">
-        <v>39030.8432</v>
+        <v>128424.7234</v>
       </c>
       <c r="G113" t="n">
-        <v>6.932000000000003</v>
+        <v>12333150.99383683</v>
       </c>
       <c r="H113" t="n">
-        <v>6.996666666666667</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,36 +4687,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="C114" t="n">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="D114" t="n">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="E114" t="n">
-        <v>6.73</v>
+        <v>7.19</v>
       </c>
       <c r="F114" t="n">
-        <v>9980.9144</v>
+        <v>4500</v>
       </c>
       <c r="G114" t="n">
-        <v>6.92066666666667</v>
+        <v>12337650.99383683</v>
       </c>
       <c r="H114" t="n">
-        <v>6.995833333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,36 +4726,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.9</v>
+        <v>7.17</v>
       </c>
       <c r="C115" t="n">
-        <v>6.9</v>
+        <v>7.17</v>
       </c>
       <c r="D115" t="n">
-        <v>6.9</v>
+        <v>7.17</v>
       </c>
       <c r="E115" t="n">
-        <v>6.9</v>
+        <v>7.17</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>336207.7352</v>
       </c>
       <c r="G115" t="n">
-        <v>6.92066666666667</v>
+        <v>12001443.25863683</v>
       </c>
       <c r="H115" t="n">
-        <v>6.996666666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,36 +4765,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.97</v>
+        <v>7.19</v>
       </c>
       <c r="C116" t="n">
-        <v>6.97</v>
+        <v>7.3</v>
       </c>
       <c r="D116" t="n">
-        <v>6.97</v>
+        <v>7.3</v>
       </c>
       <c r="E116" t="n">
-        <v>6.97</v>
+        <v>7.19</v>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>561862.4577</v>
       </c>
       <c r="G116" t="n">
-        <v>6.92466666666667</v>
+        <v>12563305.71633683</v>
       </c>
       <c r="H116" t="n">
-        <v>6.998833333333335</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5076,36 +4804,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.76</v>
+        <v>7.3</v>
       </c>
       <c r="C117" t="n">
-        <v>6.73</v>
+        <v>7.36</v>
       </c>
       <c r="D117" t="n">
-        <v>6.76</v>
+        <v>7.36</v>
       </c>
       <c r="E117" t="n">
-        <v>6.73</v>
+        <v>7.3</v>
       </c>
       <c r="F117" t="n">
-        <v>595307.6922</v>
+        <v>580144.8676999999</v>
       </c>
       <c r="G117" t="n">
-        <v>6.91266666666667</v>
+        <v>13143450.58403683</v>
       </c>
       <c r="H117" t="n">
-        <v>6.995166666666668</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,74 +4843,70 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.73</v>
+        <v>7.36</v>
       </c>
       <c r="C118" t="n">
-        <v>6.73</v>
+        <v>7.4</v>
       </c>
       <c r="D118" t="n">
-        <v>6.73</v>
+        <v>7.4</v>
       </c>
       <c r="E118" t="n">
-        <v>6.73</v>
+        <v>7.36</v>
       </c>
       <c r="F118" t="n">
-        <v>125469.1568</v>
+        <v>9000</v>
       </c>
       <c r="G118" t="n">
-        <v>6.887333333333337</v>
+        <v>13152450.58403683</v>
       </c>
       <c r="H118" t="n">
-        <v>7.003166666666669</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.73</v>
+        <v>7.34</v>
       </c>
       <c r="C119" t="n">
-        <v>6.73</v>
+        <v>7.39</v>
       </c>
       <c r="D119" t="n">
-        <v>6.73</v>
+        <v>7.39</v>
       </c>
       <c r="E119" t="n">
-        <v>6.73</v>
+        <v>7.34</v>
       </c>
       <c r="F119" t="n">
-        <v>36633.5521</v>
+        <v>313673.8851</v>
       </c>
       <c r="G119" t="n">
-        <v>6.859333333333337</v>
+        <v>12838776.69893683</v>
       </c>
       <c r="H119" t="n">
-        <v>6.999500000000002</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5190,36 +4915,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.66</v>
+        <v>7.22</v>
       </c>
       <c r="C120" t="n">
-        <v>6.66</v>
+        <v>7.16</v>
       </c>
       <c r="D120" t="n">
-        <v>6.66</v>
+        <v>7.22</v>
       </c>
       <c r="E120" t="n">
-        <v>6.66</v>
+        <v>7.16</v>
       </c>
       <c r="F120" t="n">
-        <v>6220</v>
+        <v>40402.7894</v>
       </c>
       <c r="G120" t="n">
-        <v>6.82866666666667</v>
+        <v>12798373.90953683</v>
       </c>
       <c r="H120" t="n">
-        <v>6.995000000000003</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,36 +4950,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.65</v>
+        <v>7.07</v>
       </c>
       <c r="C121" t="n">
-        <v>6.62</v>
+        <v>7.27</v>
       </c>
       <c r="D121" t="n">
-        <v>6.65</v>
+        <v>7.27</v>
       </c>
       <c r="E121" t="n">
-        <v>6.62</v>
+        <v>7.06</v>
       </c>
       <c r="F121" t="n">
-        <v>12653.6857</v>
+        <v>112676.4515</v>
       </c>
       <c r="G121" t="n">
-        <v>6.795333333333336</v>
+        <v>12911050.36103683</v>
       </c>
       <c r="H121" t="n">
-        <v>6.990000000000003</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5266,36 +4985,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.64</v>
+        <v>7.08</v>
       </c>
       <c r="C122" t="n">
-        <v>6.64</v>
+        <v>7.06</v>
       </c>
       <c r="D122" t="n">
-        <v>6.64</v>
+        <v>7.08</v>
       </c>
       <c r="E122" t="n">
-        <v>6.64</v>
+        <v>7.06</v>
       </c>
       <c r="F122" t="n">
-        <v>640</v>
+        <v>107588.8863</v>
       </c>
       <c r="G122" t="n">
-        <v>6.777333333333337</v>
+        <v>12803461.47473683</v>
       </c>
       <c r="H122" t="n">
-        <v>6.981166666666669</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,36 +5020,1048 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.7</v>
+        <v>7.06</v>
       </c>
       <c r="C123" t="n">
-        <v>6.7</v>
+        <v>7.35</v>
       </c>
       <c r="D123" t="n">
-        <v>6.7</v>
+        <v>7.35</v>
       </c>
       <c r="E123" t="n">
-        <v>6.7</v>
+        <v>7.06</v>
       </c>
       <c r="F123" t="n">
-        <v>20782.8358</v>
+        <v>42032.1156</v>
       </c>
       <c r="G123" t="n">
-        <v>6.76466666666667</v>
+        <v>12845493.59033683</v>
       </c>
       <c r="H123" t="n">
-        <v>6.988666666666669</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F124" t="n">
+        <v>255786.2276</v>
+      </c>
+      <c r="G124" t="n">
+        <v>12589707.36273683</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>691859.1176999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>12589707.36273683</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10</v>
+      </c>
+      <c r="G126" t="n">
+        <v>12589717.36273683</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8460</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15100.2898</v>
+      </c>
+      <c r="G129" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F130" t="n">
+        <v>206045.8388</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12779263.20153683</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F131" t="n">
+        <v>962778.0503</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12779263.20153683</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G132" t="n">
+        <v>12781253.20153683</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C133" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>12791253.20153683</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20533.9712</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12770719.23033683</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7339.4838</v>
+      </c>
+      <c r="G135" t="n">
+        <v>12770719.23033683</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F136" t="n">
+        <v>102913.0294</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12667806.20093683</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6998.556</v>
+      </c>
+      <c r="G137" t="n">
+        <v>12660807.64493683</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F138" t="n">
+        <v>20602.0623</v>
+      </c>
+      <c r="G138" t="n">
+        <v>12640205.58263683</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7201.709</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12640205.58263683</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15062.5391</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12625143.04353683</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>12635143.04353683</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39030.8432</v>
+      </c>
+      <c r="G142" t="n">
+        <v>12596112.20033683</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9980.9144</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12596112.20033683</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="n">
+        <v>12596212.20033683</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10</v>
+      </c>
+      <c r="G145" t="n">
+        <v>12596222.20033683</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F146" t="n">
+        <v>595307.6922</v>
+      </c>
+      <c r="G146" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F147" t="n">
+        <v>125469.1568</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F148" t="n">
+        <v>36633.5521</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6220</v>
+      </c>
+      <c r="G149" t="n">
+        <v>11994694.50813683</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12653.6857</v>
+      </c>
+      <c r="G150" t="n">
+        <v>11982040.82243683</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F151" t="n">
+        <v>640</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11982680.82243683</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20782.8358</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12003463.65823683</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.97</v>
+        <v>6.75</v>
       </c>
       <c r="C2" t="n">
-        <v>7.09</v>
+        <v>6.75</v>
       </c>
       <c r="D2" t="n">
-        <v>7.09</v>
+        <v>6.75</v>
       </c>
       <c r="E2" t="n">
-        <v>6.97</v>
+        <v>6.75</v>
       </c>
       <c r="F2" t="n">
-        <v>230612.4153</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>7081600.008976107</v>
+        <v>6.789999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.01</v>
+        <v>6.88</v>
       </c>
       <c r="C3" t="n">
-        <v>7.09</v>
+        <v>6.9</v>
       </c>
       <c r="D3" t="n">
-        <v>7.09</v>
+        <v>6.9</v>
       </c>
       <c r="E3" t="n">
-        <v>7.01</v>
+        <v>6.88</v>
       </c>
       <c r="F3" t="n">
-        <v>82973.0606</v>
+        <v>389941.2578</v>
       </c>
       <c r="G3" t="n">
-        <v>7081600.008976107</v>
+        <v>6.806666666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.09</v>
+        <v>6.88</v>
       </c>
       <c r="C4" t="n">
-        <v>7.3</v>
+        <v>6.89</v>
       </c>
       <c r="D4" t="n">
-        <v>7.3</v>
+        <v>6.89</v>
       </c>
       <c r="E4" t="n">
-        <v>7.09</v>
+        <v>6.88</v>
       </c>
       <c r="F4" t="n">
-        <v>478791.0874575554</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>7560391.096433663</v>
+        <v>6.846666666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.27</v>
+        <v>6.89</v>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>6.89</v>
       </c>
       <c r="D5" t="n">
-        <v>7.3</v>
+        <v>6.89</v>
       </c>
       <c r="E5" t="n">
-        <v>7.27</v>
+        <v>6.89</v>
       </c>
       <c r="F5" t="n">
-        <v>33467.86892109589</v>
+        <v>4743.9272</v>
       </c>
       <c r="G5" t="n">
-        <v>7560391.096433663</v>
+        <v>6.893333333333332</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.29</v>
+        <v>6.89</v>
       </c>
       <c r="C6" t="n">
-        <v>7.5</v>
+        <v>6.82</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>6.89</v>
       </c>
       <c r="E6" t="n">
-        <v>7.22</v>
+        <v>6.82</v>
       </c>
       <c r="F6" t="n">
-        <v>1219417.183775205</v>
+        <v>3262</v>
       </c>
       <c r="G6" t="n">
-        <v>8779808.280208867</v>
+        <v>6.866666666666664</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.43</v>
+        <v>6.96</v>
       </c>
       <c r="C7" t="n">
-        <v>7.31</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>7.43</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>7.31</v>
+        <v>6.96</v>
       </c>
       <c r="F7" t="n">
-        <v>19943.3378</v>
+        <v>29923.3642</v>
       </c>
       <c r="G7" t="n">
-        <v>8759864.942408867</v>
+        <v>6.903333333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.32</v>
+        <v>6.91</v>
       </c>
       <c r="C8" t="n">
-        <v>7.36</v>
+        <v>6.89</v>
       </c>
       <c r="D8" t="n">
-        <v>7.36</v>
+        <v>6.91</v>
       </c>
       <c r="E8" t="n">
-        <v>7.28</v>
+        <v>6.89</v>
       </c>
       <c r="F8" t="n">
-        <v>1567115.2729</v>
+        <v>117309.9485</v>
       </c>
       <c r="G8" t="n">
-        <v>10326980.21530887</v>
+        <v>6.903333333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.43</v>
+        <v>6.8</v>
       </c>
       <c r="C9" t="n">
-        <v>7.54</v>
+        <v>6.81</v>
       </c>
       <c r="D9" t="n">
-        <v>7.59</v>
+        <v>6.81</v>
       </c>
       <c r="E9" t="n">
-        <v>7.37</v>
+        <v>6.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1204607.1238</v>
+        <v>48030.8743</v>
       </c>
       <c r="G9" t="n">
-        <v>11531587.33910887</v>
+        <v>6.899999999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.42</v>
+        <v>6.77</v>
       </c>
       <c r="C10" t="n">
-        <v>7.41</v>
+        <v>6.77</v>
       </c>
       <c r="D10" t="n">
-        <v>7.42</v>
+        <v>6.77</v>
       </c>
       <c r="E10" t="n">
-        <v>7.41</v>
+        <v>6.77</v>
       </c>
       <c r="F10" t="n">
-        <v>135581.0808</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>11396006.25830887</v>
+        <v>6.823333333333331</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.34</v>
+        <v>6.77</v>
       </c>
       <c r="C11" t="n">
-        <v>7.3</v>
+        <v>6.77</v>
       </c>
       <c r="D11" t="n">
-        <v>7.34</v>
+        <v>6.77</v>
       </c>
       <c r="E11" t="n">
-        <v>7.3</v>
+        <v>6.77</v>
       </c>
       <c r="F11" t="n">
-        <v>738063.7376</v>
+        <v>13287.0014</v>
       </c>
       <c r="G11" t="n">
-        <v>10657942.52070887</v>
+        <v>6.783333333333331</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.22</v>
+        <v>6.94</v>
       </c>
       <c r="C12" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="D12" t="n">
-        <v>7.22</v>
+        <v>6.95</v>
       </c>
       <c r="E12" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="F12" t="n">
-        <v>67786.5252</v>
+        <v>415075.6482</v>
       </c>
       <c r="G12" t="n">
-        <v>10590155.99550887</v>
+        <v>6.826666666666664</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="C13" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="D13" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="E13" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="F13" t="n">
-        <v>68388.4081</v>
+        <v>1148</v>
       </c>
       <c r="G13" t="n">
-        <v>10590155.99550887</v>
+        <v>6.883333333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="C14" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="D14" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="E14" t="n">
-        <v>7.21</v>
+        <v>6.94</v>
       </c>
       <c r="F14" t="n">
-        <v>35633.7833</v>
+        <v>215.4531</v>
       </c>
       <c r="G14" t="n">
-        <v>10590155.99550887</v>
+        <v>6.939999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.34</v>
+        <v>6.81</v>
       </c>
       <c r="C15" t="n">
-        <v>7.34</v>
+        <v>6.81</v>
       </c>
       <c r="D15" t="n">
-        <v>7.34</v>
+        <v>6.81</v>
       </c>
       <c r="E15" t="n">
-        <v>7.34</v>
+        <v>6.81</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>10650.887</v>
       </c>
       <c r="G15" t="n">
-        <v>10590165.99550887</v>
+        <v>6.896666666666665</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.16</v>
+        <v>6.81</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>6.81</v>
       </c>
       <c r="D16" t="n">
-        <v>7.16</v>
+        <v>6.81</v>
       </c>
       <c r="E16" t="n">
-        <v>6.52</v>
+        <v>6.81</v>
       </c>
       <c r="F16" t="n">
-        <v>41511.5571</v>
+        <v>19498.3512</v>
       </c>
       <c r="G16" t="n">
-        <v>10548654.43840887</v>
+        <v>6.853333333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
       <c r="C17" t="n">
-        <v>7.03</v>
+        <v>6.82</v>
       </c>
       <c r="D17" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
       <c r="E17" t="n">
-        <v>7.03</v>
+        <v>6.82</v>
       </c>
       <c r="F17" t="n">
-        <v>28278.6259</v>
+        <v>59267.1504</v>
       </c>
       <c r="G17" t="n">
-        <v>10576933.06430887</v>
+        <v>6.81333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.03</v>
+        <v>6.84</v>
       </c>
       <c r="C18" t="n">
-        <v>7.29</v>
+        <v>6.84</v>
       </c>
       <c r="D18" t="n">
-        <v>7.29</v>
+        <v>6.84</v>
       </c>
       <c r="E18" t="n">
-        <v>7.02</v>
+        <v>6.84</v>
       </c>
       <c r="F18" t="n">
-        <v>343694.217</v>
+        <v>666.2784</v>
       </c>
       <c r="G18" t="n">
-        <v>10920627.28130887</v>
+        <v>6.823333333333331</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
       <c r="C19" t="n">
-        <v>7.02</v>
+        <v>6.83</v>
       </c>
       <c r="D19" t="n">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
       <c r="E19" t="n">
-        <v>7.02</v>
+        <v>6.83</v>
       </c>
       <c r="F19" t="n">
-        <v>343710.11</v>
+        <v>11317.1654</v>
       </c>
       <c r="G19" t="n">
-        <v>10576917.17130887</v>
+        <v>6.829999999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.29</v>
+        <v>6.84</v>
       </c>
       <c r="C20" t="n">
-        <v>7.21</v>
+        <v>6.84</v>
       </c>
       <c r="D20" t="n">
-        <v>7.29</v>
+        <v>6.84</v>
       </c>
       <c r="E20" t="n">
-        <v>7.21</v>
+        <v>6.84</v>
       </c>
       <c r="F20" t="n">
-        <v>104110</v>
+        <v>100000</v>
       </c>
       <c r="G20" t="n">
-        <v>10681027.17130887</v>
+        <v>6.836666666666663</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.19</v>
+        <v>6.9</v>
       </c>
       <c r="C21" t="n">
-        <v>7.06</v>
+        <v>6.92</v>
       </c>
       <c r="D21" t="n">
-        <v>7.19</v>
+        <v>6.92</v>
       </c>
       <c r="E21" t="n">
-        <v>7.06</v>
+        <v>6.9</v>
       </c>
       <c r="F21" t="n">
-        <v>20678.473</v>
+        <v>180507.8033</v>
       </c>
       <c r="G21" t="n">
-        <v>10660348.69830887</v>
+        <v>6.863333333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.27</v>
+        <v>6.94</v>
       </c>
       <c r="C22" t="n">
-        <v>7.18</v>
+        <v>6.94</v>
       </c>
       <c r="D22" t="n">
-        <v>7.4</v>
+        <v>6.94</v>
       </c>
       <c r="E22" t="n">
-        <v>7.18</v>
+        <v>6.94</v>
       </c>
       <c r="F22" t="n">
-        <v>53681.6706</v>
+        <v>163000</v>
       </c>
       <c r="G22" t="n">
-        <v>10714030.36890887</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="C23" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="D23" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="E23" t="n">
-        <v>7.17</v>
+        <v>6.9</v>
       </c>
       <c r="F23" t="n">
-        <v>21787.1687</v>
+        <v>50</v>
       </c>
       <c r="G23" t="n">
-        <v>10692243.20020887</v>
+        <v>6.919999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.14</v>
+        <v>6.86</v>
       </c>
       <c r="C24" t="n">
-        <v>7.12</v>
+        <v>6.86</v>
       </c>
       <c r="D24" t="n">
-        <v>7.14</v>
+        <v>6.86</v>
       </c>
       <c r="E24" t="n">
-        <v>7.12</v>
+        <v>6.86</v>
       </c>
       <c r="F24" t="n">
-        <v>226276.2322</v>
+        <v>1459.124</v>
       </c>
       <c r="G24" t="n">
-        <v>10465966.96800887</v>
+        <v>6.899999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.13</v>
+        <v>6.81</v>
       </c>
       <c r="C25" t="n">
-        <v>7.13</v>
+        <v>6.77</v>
       </c>
       <c r="D25" t="n">
-        <v>7.13</v>
+        <v>6.81</v>
       </c>
       <c r="E25" t="n">
-        <v>7.13</v>
+        <v>6.77</v>
       </c>
       <c r="F25" t="n">
-        <v>3600</v>
+        <v>13478.7566</v>
       </c>
       <c r="G25" t="n">
-        <v>10469566.96800887</v>
+        <v>6.843333333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.14</v>
+        <v>6.83</v>
       </c>
       <c r="C26" t="n">
-        <v>7.14</v>
+        <v>6.83</v>
       </c>
       <c r="D26" t="n">
-        <v>7.14</v>
+        <v>6.83</v>
       </c>
       <c r="E26" t="n">
-        <v>7.14</v>
+        <v>6.83</v>
       </c>
       <c r="F26" t="n">
-        <v>3577.6876</v>
+        <v>84</v>
       </c>
       <c r="G26" t="n">
-        <v>10473144.65560887</v>
+        <v>6.819999999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.14</v>
+        <v>6.82</v>
       </c>
       <c r="C27" t="n">
-        <v>7.24</v>
+        <v>6.82</v>
       </c>
       <c r="D27" t="n">
-        <v>7.24</v>
+        <v>6.82</v>
       </c>
       <c r="E27" t="n">
-        <v>7.14</v>
+        <v>6.82</v>
       </c>
       <c r="F27" t="n">
-        <v>18278.5373</v>
+        <v>10835.117</v>
       </c>
       <c r="G27" t="n">
-        <v>10491423.19290887</v>
+        <v>6.806666666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.13</v>
+        <v>6.84</v>
       </c>
       <c r="C28" t="n">
-        <v>7.12</v>
+        <v>6.84</v>
       </c>
       <c r="D28" t="n">
-        <v>7.13</v>
+        <v>6.84</v>
       </c>
       <c r="E28" t="n">
-        <v>7.12</v>
+        <v>6.84</v>
       </c>
       <c r="F28" t="n">
-        <v>67296.5744</v>
+        <v>4302.9197</v>
       </c>
       <c r="G28" t="n">
-        <v>10424126.61850887</v>
+        <v>6.829999999999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.09</v>
+        <v>6.78</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>6.78</v>
       </c>
       <c r="D29" t="n">
-        <v>7.09</v>
+        <v>6.78</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6.78</v>
       </c>
       <c r="F29" t="n">
-        <v>158015.7071</v>
+        <v>16139.348</v>
       </c>
       <c r="G29" t="n">
-        <v>10266110.91140887</v>
+        <v>6.813333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.92</v>
+        <v>6.78</v>
       </c>
       <c r="C30" t="n">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
       <c r="D30" t="n">
-        <v>6.92</v>
+        <v>6.78</v>
       </c>
       <c r="E30" t="n">
-        <v>6.89</v>
+        <v>6.78</v>
       </c>
       <c r="F30" t="n">
-        <v>401.2744</v>
+        <v>3000</v>
       </c>
       <c r="G30" t="n">
-        <v>10265709.63700887</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,98 +1475,113 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.87</v>
+        <v>6.78</v>
       </c>
       <c r="C31" t="n">
-        <v>6.87</v>
+        <v>6.78</v>
       </c>
       <c r="D31" t="n">
-        <v>6.87</v>
+        <v>6.78</v>
       </c>
       <c r="E31" t="n">
-        <v>6.87</v>
+        <v>6.78</v>
       </c>
       <c r="F31" t="n">
-        <v>4978.748</v>
+        <v>2000</v>
       </c>
       <c r="G31" t="n">
-        <v>10260730.88900887</v>
+        <v>6.78</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.78</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="C32" t="n">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="D32" t="n">
-        <v>6.87</v>
+        <v>6.78</v>
       </c>
       <c r="E32" t="n">
-        <v>6.7</v>
+        <v>6.78</v>
       </c>
       <c r="F32" t="n">
-        <v>24014.1404</v>
+        <v>19843.3378</v>
       </c>
       <c r="G32" t="n">
-        <v>10236716.74860887</v>
+        <v>6.78</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="C33" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="D33" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="E33" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="F33" t="n">
-        <v>6311.3892</v>
+        <v>2373.1958</v>
       </c>
       <c r="G33" t="n">
-        <v>10236716.74860887</v>
+        <v>6.783333333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,11 +1590,18 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1565,10 +1620,10 @@
         <v>6.79</v>
       </c>
       <c r="F34" t="n">
-        <v>939.7643</v>
+        <v>213.5493</v>
       </c>
       <c r="G34" t="n">
-        <v>10237656.51290887</v>
+        <v>6.786666666666665</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1637,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.7</v>
+        <v>6.79</v>
       </c>
       <c r="C35" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="D35" t="n">
-        <v>6.74</v>
+        <v>6.79</v>
       </c>
       <c r="E35" t="n">
-        <v>6.69</v>
+        <v>6.79</v>
       </c>
       <c r="F35" t="n">
-        <v>2369.6644</v>
+        <v>153.4609</v>
       </c>
       <c r="G35" t="n">
-        <v>10235286.84850887</v>
+        <v>6.789999999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1673,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.64</v>
+        <v>6.79</v>
       </c>
       <c r="C36" t="n">
-        <v>6.62</v>
+        <v>6.79</v>
       </c>
       <c r="D36" t="n">
-        <v>6.64</v>
+        <v>6.79</v>
       </c>
       <c r="E36" t="n">
-        <v>6.62</v>
+        <v>6.79</v>
       </c>
       <c r="F36" t="n">
-        <v>76503.93369999999</v>
+        <v>50.81</v>
       </c>
       <c r="G36" t="n">
-        <v>10158782.91480887</v>
+        <v>6.789999999999998</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1647,80 +1704,80 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>6.79</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.61</v>
+        <v>6.79</v>
       </c>
       <c r="C37" t="n">
-        <v>6.63</v>
+        <v>6.79</v>
       </c>
       <c r="D37" t="n">
-        <v>6.63</v>
+        <v>6.79</v>
       </c>
       <c r="E37" t="n">
-        <v>6.61</v>
+        <v>6.79</v>
       </c>
       <c r="F37" t="n">
-        <v>7999.4133</v>
+        <v>11231.7695</v>
       </c>
       <c r="G37" t="n">
-        <v>10166782.32810887</v>
+        <v>6.789999999999998</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6.79</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.72</v>
+        <v>6.82</v>
       </c>
       <c r="C38" t="n">
-        <v>6.74</v>
+        <v>6.82</v>
       </c>
       <c r="D38" t="n">
-        <v>6.75</v>
+        <v>6.82</v>
       </c>
       <c r="E38" t="n">
-        <v>6.72</v>
+        <v>6.82</v>
       </c>
       <c r="F38" t="n">
-        <v>94061.30560000001</v>
+        <v>12229.489</v>
       </c>
       <c r="G38" t="n">
-        <v>10260843.63370887</v>
+        <v>6.799999999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1729,37 +1786,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6.79</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.72</v>
+        <v>6.86</v>
       </c>
       <c r="C39" t="n">
-        <v>6.71</v>
+        <v>6.86</v>
       </c>
       <c r="D39" t="n">
-        <v>6.72</v>
+        <v>6.86</v>
       </c>
       <c r="E39" t="n">
-        <v>6.71</v>
+        <v>6.86</v>
       </c>
       <c r="F39" t="n">
-        <v>182280.4072</v>
+        <v>6846.5763</v>
       </c>
       <c r="G39" t="n">
-        <v>10078563.22650887</v>
+        <v>6.823333333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1769,99 +1829,102 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="C40" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="D40" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="E40" t="n">
-        <v>6.79</v>
+        <v>6.82</v>
       </c>
       <c r="F40" t="n">
-        <v>372148.4689</v>
+        <v>2609.6396</v>
       </c>
       <c r="G40" t="n">
-        <v>10450711.69540887</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.83</v>
+        <v>6.8</v>
       </c>
       <c r="C41" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="D41" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
       <c r="E41" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="F41" t="n">
-        <v>340907.4335</v>
+        <v>89758.77770000001</v>
       </c>
       <c r="G41" t="n">
-        <v>10791619.12890887</v>
+        <v>6.819999999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="C42" t="n">
         <v>6.85</v>
@@ -1870,22 +1933,26 @@
         <v>6.85</v>
       </c>
       <c r="E42" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="F42" t="n">
-        <v>5132.9503</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="n">
-        <v>10796752.07920887</v>
+        <v>6.816666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,37 +1961,42 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="C43" t="n">
-        <v>6.77</v>
+        <v>6.84</v>
       </c>
       <c r="D43" t="n">
-        <v>6.77</v>
+        <v>6.84</v>
       </c>
       <c r="E43" t="n">
-        <v>6.77</v>
+        <v>6.82</v>
       </c>
       <c r="F43" t="n">
-        <v>11200</v>
+        <v>15246.1256</v>
       </c>
       <c r="G43" t="n">
-        <v>10785552.07920887</v>
+        <v>6.823333333333331</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,37 +2005,42 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="C44" t="n">
-        <v>6.75</v>
+        <v>6.95</v>
       </c>
       <c r="D44" t="n">
-        <v>6.75</v>
+        <v>6.95</v>
       </c>
       <c r="E44" t="n">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G44" t="n">
-        <v>10785502.07920887</v>
+        <v>6.879999999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,6 +2049,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1981,19 +2059,19 @@
         <v>6.88</v>
       </c>
       <c r="C45" t="n">
-        <v>6.9</v>
+        <v>6.25</v>
       </c>
       <c r="D45" t="n">
-        <v>6.9</v>
+        <v>6.88</v>
       </c>
       <c r="E45" t="n">
-        <v>6.88</v>
+        <v>6.25</v>
       </c>
       <c r="F45" t="n">
-        <v>389941.2578</v>
+        <v>61775.7309</v>
       </c>
       <c r="G45" t="n">
-        <v>11175443.33700887</v>
+        <v>6.679999999999997</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2002,9 +2080,11 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>6.95</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2013,28 +2093,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="C46" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
       <c r="D46" t="n">
-        <v>6.89</v>
+        <v>6.95</v>
       </c>
       <c r="E46" t="n">
-        <v>6.88</v>
+        <v>6.95</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>35971.223</v>
       </c>
       <c r="G46" t="n">
-        <v>11175343.33700887</v>
+        <v>6.716666666666664</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2043,7 +2124,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2052,28 +2135,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
       <c r="C47" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
       <c r="D47" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
       <c r="E47" t="n">
-        <v>6.89</v>
+        <v>6.93</v>
       </c>
       <c r="F47" t="n">
-        <v>4743.9272</v>
+        <v>45290.4402</v>
       </c>
       <c r="G47" t="n">
-        <v>11175343.33700887</v>
+        <v>6.709999999999997</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,7 +2166,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2091,39 +2177,40 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.89</v>
+        <v>6.92</v>
       </c>
       <c r="C48" t="n">
-        <v>6.82</v>
+        <v>6.92</v>
       </c>
       <c r="D48" t="n">
-        <v>6.89</v>
+        <v>6.92</v>
       </c>
       <c r="E48" t="n">
-        <v>6.82</v>
+        <v>6.92</v>
       </c>
       <c r="F48" t="n">
-        <v>3262</v>
+        <v>39539.0238</v>
       </c>
       <c r="G48" t="n">
-        <v>11172081.33700887</v>
+        <v>6.93333333333333</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,28 +2219,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>7.17</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>7.17</v>
       </c>
       <c r="E49" t="n">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
       <c r="F49" t="n">
-        <v>29923.3642</v>
+        <v>7872.255715481171</v>
       </c>
       <c r="G49" t="n">
-        <v>11202004.70120887</v>
+        <v>7.006666666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2162,7 +2250,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2171,28 +2261,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.91</v>
+        <v>7.16</v>
       </c>
       <c r="C50" t="n">
-        <v>6.89</v>
+        <v>6.25</v>
       </c>
       <c r="D50" t="n">
-        <v>6.91</v>
+        <v>7.16</v>
       </c>
       <c r="E50" t="n">
-        <v>6.89</v>
+        <v>6.25</v>
       </c>
       <c r="F50" t="n">
-        <v>117309.9485</v>
+        <v>111929.362</v>
       </c>
       <c r="G50" t="n">
-        <v>11084694.75270887</v>
+        <v>6.779999999999998</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2201,7 +2292,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,28 +2303,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.8</v>
+        <v>7.14</v>
       </c>
       <c r="C51" t="n">
-        <v>6.81</v>
+        <v>7.14</v>
       </c>
       <c r="D51" t="n">
-        <v>6.81</v>
+        <v>7.14</v>
       </c>
       <c r="E51" t="n">
-        <v>6.8</v>
+        <v>7.14</v>
       </c>
       <c r="F51" t="n">
-        <v>48030.8743</v>
+        <v>200</v>
       </c>
       <c r="G51" t="n">
-        <v>11036663.87840887</v>
+        <v>6.853333333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2240,7 +2334,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2249,28 +2345,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.77</v>
+        <v>7.14</v>
       </c>
       <c r="C52" t="n">
-        <v>6.77</v>
+        <v>7.19</v>
       </c>
       <c r="D52" t="n">
-        <v>6.77</v>
+        <v>7.19</v>
       </c>
       <c r="E52" t="n">
-        <v>6.77</v>
+        <v>7.14</v>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>89538.46341247432</v>
       </c>
       <c r="G52" t="n">
-        <v>11036163.87840887</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2279,7 +2376,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,28 +2387,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
       <c r="C53" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
       <c r="D53" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
       <c r="E53" t="n">
-        <v>6.77</v>
+        <v>6.87</v>
       </c>
       <c r="F53" t="n">
-        <v>13287.0014</v>
+        <v>70178.5365</v>
       </c>
       <c r="G53" t="n">
-        <v>11036163.87840887</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2318,7 +2418,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,28 +2429,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="C54" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="D54" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="E54" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="F54" t="n">
-        <v>415075.6482</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>11451239.52660887</v>
+        <v>7.06</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2357,7 +2460,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,28 +2471,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.94</v>
+        <v>6.93</v>
       </c>
       <c r="C55" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="D55" t="n">
-        <v>6.94</v>
+        <v>6.93</v>
       </c>
       <c r="E55" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="F55" t="n">
-        <v>1148</v>
+        <v>7729.8402</v>
       </c>
       <c r="G55" t="n">
-        <v>11451239.52660887</v>
+        <v>6.97</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2396,7 +2502,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,6 +2513,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2414,19 +2523,19 @@
         <v>6.94</v>
       </c>
       <c r="C56" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="D56" t="n">
-        <v>6.94</v>
+        <v>6.95</v>
       </c>
       <c r="E56" t="n">
         <v>6.94</v>
       </c>
       <c r="F56" t="n">
-        <v>215.4531</v>
+        <v>134849.6197</v>
       </c>
       <c r="G56" t="n">
-        <v>11451239.52660887</v>
+        <v>6.996666666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2435,7 +2544,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,28 +2555,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="C57" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="D57" t="n">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="E57" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="F57" t="n">
-        <v>10650.887</v>
+        <v>2717.1816</v>
       </c>
       <c r="G57" t="n">
-        <v>11440588.63960887</v>
+        <v>6.936666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,7 +2586,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,28 +2597,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="C58" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="D58" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="E58" t="n">
-        <v>6.81</v>
+        <v>6.94</v>
       </c>
       <c r="F58" t="n">
-        <v>19498.3512</v>
+        <v>9975</v>
       </c>
       <c r="G58" t="n">
-        <v>11440588.63960887</v>
+        <v>6.943333333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2513,7 +2628,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,28 +2639,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.83</v>
+        <v>6.94</v>
       </c>
       <c r="C59" t="n">
-        <v>6.82</v>
+        <v>6.94</v>
       </c>
       <c r="D59" t="n">
-        <v>6.83</v>
+        <v>6.94</v>
       </c>
       <c r="E59" t="n">
-        <v>6.82</v>
+        <v>6.94</v>
       </c>
       <c r="F59" t="n">
-        <v>59267.1504</v>
+        <v>7852.575</v>
       </c>
       <c r="G59" t="n">
-        <v>11499855.79000887</v>
+        <v>6.94</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2552,7 +2670,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,28 +2681,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="C60" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="D60" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="E60" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="F60" t="n">
-        <v>666.2784</v>
+        <v>27589.3471</v>
       </c>
       <c r="G60" t="n">
-        <v>11500522.06840887</v>
+        <v>6.926666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2591,7 +2712,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,28 +2723,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.83</v>
+        <v>6.91</v>
       </c>
       <c r="C61" t="n">
-        <v>6.83</v>
+        <v>6.89</v>
       </c>
       <c r="D61" t="n">
-        <v>6.83</v>
+        <v>6.91</v>
       </c>
       <c r="E61" t="n">
-        <v>6.83</v>
+        <v>6.89</v>
       </c>
       <c r="F61" t="n">
-        <v>11317.1654</v>
+        <v>70178.53660000001</v>
       </c>
       <c r="G61" t="n">
-        <v>11489204.90300887</v>
+        <v>6.909999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2630,7 +2754,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,28 +2765,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.84</v>
+        <v>6.92</v>
       </c>
       <c r="C62" t="n">
-        <v>6.84</v>
+        <v>6.92</v>
       </c>
       <c r="D62" t="n">
-        <v>6.84</v>
+        <v>6.92</v>
       </c>
       <c r="E62" t="n">
-        <v>6.84</v>
+        <v>6.92</v>
       </c>
       <c r="F62" t="n">
-        <v>100000</v>
+        <v>9776.625899999999</v>
       </c>
       <c r="G62" t="n">
-        <v>11589204.90300887</v>
+        <v>6.903333333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2669,7 +2796,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,28 +2807,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="C63" t="n">
-        <v>6.92</v>
+        <v>6.95</v>
       </c>
       <c r="D63" t="n">
-        <v>6.92</v>
+        <v>6.95</v>
       </c>
       <c r="E63" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="F63" t="n">
-        <v>180507.8033</v>
+        <v>19394.48</v>
       </c>
       <c r="G63" t="n">
-        <v>11769712.70630887</v>
+        <v>6.919999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2708,7 +2838,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,28 +2849,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.94</v>
+        <v>6.97</v>
       </c>
       <c r="C64" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>6.94</v>
+        <v>6.97</v>
       </c>
       <c r="F64" t="n">
-        <v>163000</v>
+        <v>23328.1493</v>
       </c>
       <c r="G64" t="n">
-        <v>11932712.70630887</v>
+        <v>6.956666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2747,7 +2880,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,28 +2891,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>50</v>
+        <v>13473.0539</v>
       </c>
       <c r="G65" t="n">
-        <v>11932662.70630887</v>
+        <v>6.983333333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2786,7 +2922,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,37 +2933,40 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" t="n">
+        <v>7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>26456.0679</v>
+      </c>
+      <c r="G66" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
         <v>6.86</v>
       </c>
-      <c r="C66" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1459.124</v>
-      </c>
-      <c r="G66" t="n">
-        <v>11931203.58230887</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,28 +2975,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="C67" t="n">
-        <v>6.77</v>
+        <v>7.04</v>
       </c>
       <c r="D67" t="n">
-        <v>6.81</v>
+        <v>7.04</v>
       </c>
       <c r="E67" t="n">
-        <v>6.77</v>
+        <v>7.04</v>
       </c>
       <c r="F67" t="n">
-        <v>13478.7566</v>
+        <v>89314.6173</v>
       </c>
       <c r="G67" t="n">
-        <v>11917724.82570887</v>
+        <v>7.013333333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2864,7 +3006,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,28 +3017,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.83</v>
+        <v>7.05</v>
       </c>
       <c r="C68" t="n">
-        <v>6.83</v>
+        <v>7.05</v>
       </c>
       <c r="D68" t="n">
-        <v>6.83</v>
+        <v>7.05</v>
       </c>
       <c r="E68" t="n">
-        <v>6.83</v>
+        <v>7.05</v>
       </c>
       <c r="F68" t="n">
-        <v>84</v>
+        <v>50000</v>
       </c>
       <c r="G68" t="n">
-        <v>11917808.82570887</v>
+        <v>7.029999999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2903,7 +3048,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,28 +3059,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.82</v>
+        <v>7.1</v>
       </c>
       <c r="C69" t="n">
-        <v>6.82</v>
+        <v>7.15</v>
       </c>
       <c r="D69" t="n">
-        <v>6.82</v>
+        <v>7.15</v>
       </c>
       <c r="E69" t="n">
-        <v>6.82</v>
+        <v>7.1</v>
       </c>
       <c r="F69" t="n">
-        <v>10835.117</v>
+        <v>100000</v>
       </c>
       <c r="G69" t="n">
-        <v>11906973.70870887</v>
+        <v>7.079999999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2942,7 +3090,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,28 +3101,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.84</v>
+        <v>7.16</v>
       </c>
       <c r="C70" t="n">
-        <v>6.84</v>
+        <v>7.18</v>
       </c>
       <c r="D70" t="n">
-        <v>6.84</v>
+        <v>7.18</v>
       </c>
       <c r="E70" t="n">
-        <v>6.84</v>
+        <v>7.16</v>
       </c>
       <c r="F70" t="n">
-        <v>4302.9197</v>
+        <v>390461.5598</v>
       </c>
       <c r="G70" t="n">
-        <v>11911276.62840887</v>
+        <v>7.126666666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2981,7 +3132,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,39 +3143,40 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.78</v>
+        <v>7.18</v>
       </c>
       <c r="C71" t="n">
-        <v>6.78</v>
+        <v>7.18</v>
       </c>
       <c r="D71" t="n">
-        <v>6.78</v>
+        <v>7.18</v>
       </c>
       <c r="E71" t="n">
-        <v>6.78</v>
+        <v>7.18</v>
       </c>
       <c r="F71" t="n">
-        <v>16139.348</v>
+        <v>128424.7234</v>
       </c>
       <c r="G71" t="n">
-        <v>11895137.28040887</v>
+        <v>7.169999999999998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3031,562 +3185,517 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="C72" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="D72" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="E72" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="F72" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="n">
-        <v>11895137.28040887</v>
+        <v>7.183333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>6.86</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
-      </c>
+        <v>1.043104956268222</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.78</v>
+        <v>7.17</v>
       </c>
       <c r="C73" t="n">
-        <v>6.78</v>
+        <v>7.17</v>
       </c>
       <c r="D73" t="n">
-        <v>6.78</v>
+        <v>7.17</v>
       </c>
       <c r="E73" t="n">
-        <v>6.78</v>
+        <v>7.17</v>
       </c>
       <c r="F73" t="n">
-        <v>2000</v>
+        <v>336207.7352</v>
       </c>
       <c r="G73" t="n">
-        <v>11895137.28040887</v>
+        <v>7.18</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="C74" t="n">
-        <v>6.78</v>
+        <v>7.3</v>
       </c>
       <c r="D74" t="n">
-        <v>6.78</v>
+        <v>7.3</v>
       </c>
       <c r="E74" t="n">
-        <v>6.78</v>
+        <v>7.19</v>
       </c>
       <c r="F74" t="n">
-        <v>19843.3378</v>
+        <v>561862.4577</v>
       </c>
       <c r="G74" t="n">
-        <v>11895137.28040887</v>
+        <v>7.22</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="C75" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="D75" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="E75" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="F75" t="n">
-        <v>2373.1958</v>
+        <v>580144.8676999999</v>
       </c>
       <c r="G75" t="n">
-        <v>11897510.47620887</v>
+        <v>7.276666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="C76" t="n">
-        <v>6.79</v>
+        <v>7.4</v>
       </c>
       <c r="D76" t="n">
-        <v>6.79</v>
+        <v>7.4</v>
       </c>
       <c r="E76" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="F76" t="n">
-        <v>213.5493</v>
+        <v>9000</v>
       </c>
       <c r="G76" t="n">
-        <v>11897510.47620887</v>
+        <v>7.353333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.79</v>
+        <v>7.34</v>
       </c>
       <c r="C77" t="n">
-        <v>6.79</v>
+        <v>7.39</v>
       </c>
       <c r="D77" t="n">
-        <v>6.79</v>
+        <v>7.39</v>
       </c>
       <c r="E77" t="n">
-        <v>6.79</v>
+        <v>7.34</v>
       </c>
       <c r="F77" t="n">
-        <v>153.4609</v>
+        <v>313673.8851</v>
       </c>
       <c r="G77" t="n">
-        <v>11897510.47620887</v>
+        <v>7.383333333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.79</v>
+        <v>7.22</v>
       </c>
       <c r="C78" t="n">
-        <v>6.79</v>
+        <v>7.16</v>
       </c>
       <c r="D78" t="n">
-        <v>6.79</v>
+        <v>7.22</v>
       </c>
       <c r="E78" t="n">
-        <v>6.79</v>
+        <v>7.16</v>
       </c>
       <c r="F78" t="n">
-        <v>50.81</v>
+        <v>40402.7894</v>
       </c>
       <c r="G78" t="n">
-        <v>11897510.47620887</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.79</v>
+        <v>7.07</v>
       </c>
       <c r="C79" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="D79" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="E79" t="n">
-        <v>6.79</v>
+        <v>7.06</v>
       </c>
       <c r="F79" t="n">
-        <v>11231.7695</v>
+        <v>112676.4515</v>
       </c>
       <c r="G79" t="n">
-        <v>11897510.47620887</v>
+        <v>7.273333333333331</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6.79</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.82</v>
+        <v>7.08</v>
       </c>
       <c r="C80" t="n">
-        <v>6.82</v>
+        <v>7.06</v>
       </c>
       <c r="D80" t="n">
-        <v>6.82</v>
+        <v>7.08</v>
       </c>
       <c r="E80" t="n">
-        <v>6.82</v>
+        <v>7.06</v>
       </c>
       <c r="F80" t="n">
-        <v>12229.489</v>
+        <v>107588.8863</v>
       </c>
       <c r="G80" t="n">
-        <v>11909739.96520887</v>
+        <v>7.16333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.86</v>
+        <v>7.06</v>
       </c>
       <c r="C81" t="n">
-        <v>6.86</v>
+        <v>7.35</v>
       </c>
       <c r="D81" t="n">
-        <v>6.86</v>
+        <v>7.35</v>
       </c>
       <c r="E81" t="n">
-        <v>6.86</v>
+        <v>7.06</v>
       </c>
       <c r="F81" t="n">
-        <v>6846.5763</v>
+        <v>42032.1156</v>
       </c>
       <c r="G81" t="n">
-        <v>11916586.54150887</v>
+        <v>7.226666666666663</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.82</v>
+        <v>7.08</v>
       </c>
       <c r="C82" t="n">
-        <v>6.82</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>6.82</v>
+        <v>7.08</v>
       </c>
       <c r="E82" t="n">
-        <v>6.82</v>
+        <v>6.99</v>
       </c>
       <c r="F82" t="n">
-        <v>2609.6396</v>
+        <v>255786.2276</v>
       </c>
       <c r="G82" t="n">
-        <v>11913976.90190887</v>
+        <v>7.136666666666663</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>6.78</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>6.78</v>
+        <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>89758.77770000001</v>
+        <v>691859.1176999999</v>
       </c>
       <c r="G83" t="n">
-        <v>11824218.12420887</v>
+        <v>7.116666666666664</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6.82</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.84</v>
+        <v>7.11</v>
       </c>
       <c r="C84" t="n">
-        <v>6.85</v>
+        <v>7.11</v>
       </c>
       <c r="D84" t="n">
-        <v>6.85</v>
+        <v>7.11</v>
       </c>
       <c r="E84" t="n">
-        <v>6.84</v>
+        <v>7.11</v>
       </c>
       <c r="F84" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>11834218.12420887</v>
+        <v>7.036666666666664</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.82</v>
+        <v>6.9</v>
       </c>
       <c r="C85" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="D85" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="E85" t="n">
-        <v>6.82</v>
+        <v>6.9</v>
       </c>
       <c r="F85" t="n">
-        <v>15246.1256</v>
+        <v>16500</v>
       </c>
       <c r="G85" t="n">
-        <v>11818971.99860887</v>
+        <v>7.00333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3596,60 +3705,55 @@
         <v>6.9</v>
       </c>
       <c r="C86" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="D86" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="E86" t="n">
         <v>6.9</v>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>8460</v>
       </c>
       <c r="G86" t="n">
-        <v>11819271.99860887</v>
+        <v>6.969999999999996</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>6.84</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="C87" t="n">
-        <v>6.25</v>
+        <v>6.9</v>
       </c>
       <c r="D87" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="E87" t="n">
-        <v>6.25</v>
+        <v>6.9</v>
       </c>
       <c r="F87" t="n">
-        <v>61775.7309</v>
+        <v>15100.2898</v>
       </c>
       <c r="G87" t="n">
-        <v>11757496.26770887</v>
+        <v>6.899999999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3659,36 +3763,33 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="C88" t="n">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="D88" t="n">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="E88" t="n">
-        <v>6.95</v>
+        <v>6.91</v>
       </c>
       <c r="F88" t="n">
-        <v>35971.223</v>
+        <v>206045.8388</v>
       </c>
       <c r="G88" t="n">
-        <v>11793467.49070887</v>
+        <v>6.903333333333329</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3698,36 +3799,33 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="C89" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="D89" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="E89" t="n">
-        <v>6.93</v>
+        <v>6.91</v>
       </c>
       <c r="F89" t="n">
-        <v>45290.4402</v>
+        <v>962778.0503</v>
       </c>
       <c r="G89" t="n">
-        <v>11748177.05050887</v>
+        <v>6.906666666666662</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3737,309 +3835,285 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.92</v>
+        <v>7.11</v>
       </c>
       <c r="C90" t="n">
-        <v>6.92</v>
+        <v>7.11</v>
       </c>
       <c r="D90" t="n">
-        <v>6.92</v>
+        <v>7.11</v>
       </c>
       <c r="E90" t="n">
-        <v>6.92</v>
+        <v>7.11</v>
       </c>
       <c r="F90" t="n">
-        <v>39539.0238</v>
+        <v>1990</v>
       </c>
       <c r="G90" t="n">
-        <v>11708638.02670887</v>
+        <v>6.976666666666662</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.93</v>
+        <v>7.15</v>
       </c>
       <c r="C91" t="n">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="D91" t="n">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="E91" t="n">
-        <v>6.93</v>
+        <v>7.15</v>
       </c>
       <c r="F91" t="n">
-        <v>7872.255715481171</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>11716510.28242435</v>
+        <v>7.056666666666661</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.16</v>
+        <v>7.12</v>
       </c>
       <c r="C92" t="n">
-        <v>6.25</v>
+        <v>7.12</v>
       </c>
       <c r="D92" t="n">
-        <v>7.16</v>
+        <v>7.12</v>
       </c>
       <c r="E92" t="n">
-        <v>6.25</v>
+        <v>7.12</v>
       </c>
       <c r="F92" t="n">
-        <v>111929.362</v>
+        <v>20533.9712</v>
       </c>
       <c r="G92" t="n">
-        <v>11604580.92042435</v>
+        <v>7.126666666666662</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="C93" t="n">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="D93" t="n">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="E93" t="n">
-        <v>7.14</v>
+        <v>7.12</v>
       </c>
       <c r="F93" t="n">
-        <v>200</v>
+        <v>7339.4838</v>
       </c>
       <c r="G93" t="n">
-        <v>11604780.92042435</v>
+        <v>7.129999999999995</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.14</v>
+        <v>6.95</v>
       </c>
       <c r="C94" t="n">
-        <v>7.19</v>
+        <v>6.91</v>
       </c>
       <c r="D94" t="n">
-        <v>7.19</v>
+        <v>6.95</v>
       </c>
       <c r="E94" t="n">
-        <v>7.14</v>
+        <v>6.91</v>
       </c>
       <c r="F94" t="n">
-        <v>89538.46341247432</v>
+        <v>102913.0294</v>
       </c>
       <c r="G94" t="n">
-        <v>11694319.38383683</v>
+        <v>7.049999999999994</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="C95" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="D95" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="E95" t="n">
-        <v>6.87</v>
+        <v>6.89</v>
       </c>
       <c r="F95" t="n">
-        <v>70178.5365</v>
+        <v>6998.556</v>
       </c>
       <c r="G95" t="n">
-        <v>11624140.84733683</v>
+        <v>6.973333333333328</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="C96" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="D96" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="E96" t="n">
-        <v>7.12</v>
+        <v>6.81</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>20602.0623</v>
       </c>
       <c r="G96" t="n">
-        <v>11624240.84733683</v>
+        <v>6.869999999999994</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.93</v>
+        <v>6.81</v>
       </c>
       <c r="C97" t="n">
-        <v>6.92</v>
+        <v>6.81</v>
       </c>
       <c r="D97" t="n">
-        <v>6.93</v>
+        <v>6.81</v>
       </c>
       <c r="E97" t="n">
-        <v>6.92</v>
+        <v>6.81</v>
       </c>
       <c r="F97" t="n">
-        <v>7729.8402</v>
+        <v>7201.709</v>
       </c>
       <c r="G97" t="n">
-        <v>11616511.00713683</v>
+        <v>6.83666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4049,36 +4123,33 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.94</v>
+        <v>6.8</v>
       </c>
       <c r="C98" t="n">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="D98" t="n">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="E98" t="n">
-        <v>6.94</v>
+        <v>6.8</v>
       </c>
       <c r="F98" t="n">
-        <v>134849.6197</v>
+        <v>15062.5391</v>
       </c>
       <c r="G98" t="n">
-        <v>11751360.62683683</v>
+        <v>6.80666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4088,36 +4159,33 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.05</v>
+        <v>6.91</v>
       </c>
       <c r="C99" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
       <c r="D99" t="n">
-        <v>7.05</v>
+        <v>6.91</v>
       </c>
       <c r="E99" t="n">
-        <v>6.94</v>
+        <v>6.91</v>
       </c>
       <c r="F99" t="n">
-        <v>2717.1816</v>
+        <v>10000</v>
       </c>
       <c r="G99" t="n">
-        <v>11748643.44523683</v>
+        <v>6.839999999999994</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4127,36 +4195,33 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.94</v>
+        <v>6.81</v>
       </c>
       <c r="C100" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="D100" t="n">
-        <v>6.94</v>
+        <v>6.81</v>
       </c>
       <c r="E100" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="F100" t="n">
-        <v>9975</v>
+        <v>39030.8432</v>
       </c>
       <c r="G100" t="n">
-        <v>11748643.44523683</v>
+        <v>6.813333333333328</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4166,36 +4231,33 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="C101" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="D101" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="E101" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="F101" t="n">
-        <v>7852.575</v>
+        <v>9980.9144</v>
       </c>
       <c r="G101" t="n">
-        <v>11748643.44523683</v>
+        <v>6.789999999999995</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4205,14 +4267,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4231,10 +4290,10 @@
         <v>6.9</v>
       </c>
       <c r="F102" t="n">
-        <v>27589.3471</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>11721054.09813683</v>
+        <v>6.786666666666661</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4244,36 +4303,33 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.91</v>
+        <v>6.97</v>
       </c>
       <c r="C103" t="n">
-        <v>6.89</v>
+        <v>6.97</v>
       </c>
       <c r="D103" t="n">
-        <v>6.91</v>
+        <v>6.97</v>
       </c>
       <c r="E103" t="n">
-        <v>6.89</v>
+        <v>6.97</v>
       </c>
       <c r="F103" t="n">
-        <v>70178.53660000001</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>11650875.56153683</v>
+        <v>6.86666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4283,36 +4339,33 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.92</v>
+        <v>6.76</v>
       </c>
       <c r="C104" t="n">
-        <v>6.92</v>
+        <v>6.73</v>
       </c>
       <c r="D104" t="n">
-        <v>6.92</v>
+        <v>6.76</v>
       </c>
       <c r="E104" t="n">
-        <v>6.92</v>
+        <v>6.73</v>
       </c>
       <c r="F104" t="n">
-        <v>9776.625899999999</v>
+        <v>595307.6922</v>
       </c>
       <c r="G104" t="n">
-        <v>11660652.18743683</v>
+        <v>6.86666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4322,36 +4375,33 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="C105" t="n">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="D105" t="n">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="E105" t="n">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="F105" t="n">
-        <v>19394.48</v>
+        <v>125469.1568</v>
       </c>
       <c r="G105" t="n">
-        <v>11680046.66743683</v>
+        <v>6.809999999999993</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4361,36 +4411,33 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.97</v>
+        <v>6.73</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>6.73</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>6.73</v>
       </c>
       <c r="E106" t="n">
-        <v>6.97</v>
+        <v>6.73</v>
       </c>
       <c r="F106" t="n">
-        <v>23328.1493</v>
+        <v>36633.5521</v>
       </c>
       <c r="G106" t="n">
-        <v>11703374.81673683</v>
+        <v>6.729999999999993</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4400,36 +4447,33 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>6.66</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>6.66</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>6.66</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>6.66</v>
       </c>
       <c r="F107" t="n">
-        <v>13473.0539</v>
+        <v>6220</v>
       </c>
       <c r="G107" t="n">
-        <v>11703374.81673683</v>
+        <v>6.70666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4439,36 +4483,33 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>6.62</v>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="E108" t="n">
-        <v>7</v>
+        <v>6.62</v>
       </c>
       <c r="F108" t="n">
-        <v>26456.0679</v>
+        <v>12653.6857</v>
       </c>
       <c r="G108" t="n">
-        <v>11703374.81673683</v>
+        <v>6.669999999999994</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4478,36 +4519,33 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.04</v>
+        <v>6.64</v>
       </c>
       <c r="C109" t="n">
-        <v>7.04</v>
+        <v>6.64</v>
       </c>
       <c r="D109" t="n">
-        <v>7.04</v>
+        <v>6.64</v>
       </c>
       <c r="E109" t="n">
-        <v>7.04</v>
+        <v>6.64</v>
       </c>
       <c r="F109" t="n">
-        <v>89314.6173</v>
+        <v>640</v>
       </c>
       <c r="G109" t="n">
-        <v>11792689.43403683</v>
+        <v>6.639999999999993</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4517,1553 +4555,51 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.05</v>
+        <v>6.7</v>
       </c>
       <c r="C110" t="n">
-        <v>7.05</v>
+        <v>6.7</v>
       </c>
       <c r="D110" t="n">
-        <v>7.05</v>
+        <v>6.7</v>
       </c>
       <c r="E110" t="n">
-        <v>7.05</v>
+        <v>6.7</v>
       </c>
       <c r="F110" t="n">
-        <v>50000</v>
+        <v>20782.8358</v>
       </c>
       <c r="G110" t="n">
-        <v>11842689.43403683</v>
+        <v>6.653333333333326</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="K110" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G111" t="n">
-        <v>11942689.43403683</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F112" t="n">
-        <v>390461.5598</v>
-      </c>
-      <c r="G112" t="n">
-        <v>12333150.99383683</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="F113" t="n">
-        <v>128424.7234</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12333150.99383683</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12337650.99383683</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F115" t="n">
-        <v>336207.7352</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12001443.25863683</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="F116" t="n">
-        <v>561862.4577</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12563305.71633683</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F117" t="n">
-        <v>580144.8676999999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>13143450.58403683</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F118" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>13152450.58403683</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F119" t="n">
-        <v>313673.8851</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12838776.69893683</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F120" t="n">
-        <v>40402.7894</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12798373.90953683</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F121" t="n">
-        <v>112676.4515</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12911050.36103683</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F122" t="n">
-        <v>107588.8863</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12803461.47473683</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F123" t="n">
-        <v>42032.1156</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12845493.59033683</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="C124" t="n">
-        <v>7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F124" t="n">
-        <v>255786.2276</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12589707.36273683</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>7</v>
-      </c>
-      <c r="E125" t="n">
-        <v>7</v>
-      </c>
-      <c r="F125" t="n">
-        <v>691859.1176999999</v>
-      </c>
-      <c r="G125" t="n">
-        <v>12589707.36273683</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C126" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F126" t="n">
-        <v>10</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12589717.36273683</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F127" t="n">
-        <v>16500</v>
-      </c>
-      <c r="G127" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8460</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>15100.2898</v>
-      </c>
-      <c r="G129" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="C130" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E130" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F130" t="n">
-        <v>206045.8388</v>
-      </c>
-      <c r="G130" t="n">
-        <v>12779263.20153683</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F131" t="n">
-        <v>962778.0503</v>
-      </c>
-      <c r="G131" t="n">
-        <v>12779263.20153683</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C132" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="D132" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1990</v>
-      </c>
-      <c r="G132" t="n">
-        <v>12781253.20153683</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C133" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D133" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="E133" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>12791253.20153683</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C134" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D134" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E134" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F134" t="n">
-        <v>20533.9712</v>
-      </c>
-      <c r="G134" t="n">
-        <v>12770719.23033683</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C135" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D135" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="E135" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F135" t="n">
-        <v>7339.4838</v>
-      </c>
-      <c r="G135" t="n">
-        <v>12770719.23033683</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="C136" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="E136" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F136" t="n">
-        <v>102913.0294</v>
-      </c>
-      <c r="G136" t="n">
-        <v>12667806.20093683</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6998.556</v>
-      </c>
-      <c r="G137" t="n">
-        <v>12660807.64493683</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="C138" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="D138" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E138" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="F138" t="n">
-        <v>20602.0623</v>
-      </c>
-      <c r="G138" t="n">
-        <v>12640205.58263683</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="C139" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="D139" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E139" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="F139" t="n">
-        <v>7201.709</v>
-      </c>
-      <c r="G139" t="n">
-        <v>12640205.58263683</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>15062.5391</v>
-      </c>
-      <c r="G140" t="n">
-        <v>12625143.04353683</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="C141" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="D141" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F141" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>12635143.04353683</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D142" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="E142" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F142" t="n">
-        <v>39030.8432</v>
-      </c>
-      <c r="G142" t="n">
-        <v>12596112.20033683</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C143" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D143" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F143" t="n">
-        <v>9980.9144</v>
-      </c>
-      <c r="G143" t="n">
-        <v>12596112.20033683</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F144" t="n">
-        <v>100</v>
-      </c>
-      <c r="G144" t="n">
-        <v>12596212.20033683</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.97</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10</v>
-      </c>
-      <c r="G145" t="n">
-        <v>12596222.20033683</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F146" t="n">
-        <v>595307.6922</v>
-      </c>
-      <c r="G146" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F147" t="n">
-        <v>125469.1568</v>
-      </c>
-      <c r="G147" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="F148" t="n">
-        <v>36633.5521</v>
-      </c>
-      <c r="G148" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6220</v>
-      </c>
-      <c r="G149" t="n">
-        <v>11994694.50813683</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="F150" t="n">
-        <v>12653.6857</v>
-      </c>
-      <c r="G150" t="n">
-        <v>11982040.82243683</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F151" t="n">
-        <v>640</v>
-      </c>
-      <c r="G151" t="n">
-        <v>11982680.82243683</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F152" t="n">
-        <v>20782.8358</v>
-      </c>
-      <c r="G152" t="n">
-        <v>12003463.65823683</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.75</v>
+        <v>6.46</v>
       </c>
       <c r="C2" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="D2" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="E2" t="n">
-        <v>6.75</v>
+        <v>6.46</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>155121.2307</v>
       </c>
       <c r="G2" t="n">
-        <v>6.789999999999998</v>
+        <v>2384629.4319</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D3" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="E3" t="n">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="F3" t="n">
-        <v>389941.2578</v>
+        <v>118471.4188</v>
       </c>
       <c r="G3" t="n">
-        <v>6.806666666666665</v>
+        <v>2384629.4319</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="C4" t="n">
-        <v>6.89</v>
+        <v>6.5</v>
       </c>
       <c r="D4" t="n">
-        <v>6.89</v>
+        <v>6.5</v>
       </c>
       <c r="E4" t="n">
-        <v>6.88</v>
+        <v>6.5</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>92899.5852</v>
       </c>
       <c r="G4" t="n">
-        <v>6.846666666666665</v>
+        <v>2384629.4319</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.89</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="n">
-        <v>6.89</v>
+        <v>6.52</v>
       </c>
       <c r="D5" t="n">
-        <v>6.89</v>
+        <v>6.52</v>
       </c>
       <c r="E5" t="n">
-        <v>6.89</v>
+        <v>6.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4743.9272</v>
+        <v>2098.3292</v>
       </c>
       <c r="G5" t="n">
-        <v>6.893333333333332</v>
+        <v>2386727.7611</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.89</v>
+        <v>6.53</v>
       </c>
       <c r="C6" t="n">
-        <v>6.82</v>
+        <v>6.54</v>
       </c>
       <c r="D6" t="n">
-        <v>6.89</v>
+        <v>6.54</v>
       </c>
       <c r="E6" t="n">
-        <v>6.82</v>
+        <v>6.53</v>
       </c>
       <c r="F6" t="n">
-        <v>3262</v>
+        <v>52941.6857</v>
       </c>
       <c r="G6" t="n">
-        <v>6.866666666666664</v>
+        <v>2439669.4468</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +646,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.96</v>
+        <v>6.54</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="E7" t="n">
-        <v>6.96</v>
+        <v>6.54</v>
       </c>
       <c r="F7" t="n">
-        <v>29923.3642</v>
+        <v>691518.0418</v>
       </c>
       <c r="G7" t="n">
-        <v>6.903333333333332</v>
+        <v>3131187.4886</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.91</v>
+        <v>6.6</v>
       </c>
       <c r="C8" t="n">
-        <v>6.89</v>
+        <v>6.64</v>
       </c>
       <c r="D8" t="n">
-        <v>6.91</v>
+        <v>6.64</v>
       </c>
       <c r="E8" t="n">
-        <v>6.89</v>
+        <v>6.6</v>
       </c>
       <c r="F8" t="n">
-        <v>117309.9485</v>
+        <v>132150.2517</v>
       </c>
       <c r="G8" t="n">
-        <v>6.903333333333332</v>
+        <v>3263337.7403</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +714,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.8</v>
+        <v>6.64</v>
       </c>
       <c r="C9" t="n">
-        <v>6.81</v>
+        <v>6.72</v>
       </c>
       <c r="D9" t="n">
-        <v>6.81</v>
+        <v>6.72</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8</v>
+        <v>6.64</v>
       </c>
       <c r="F9" t="n">
-        <v>48030.8743</v>
+        <v>515461.1315</v>
       </c>
       <c r="G9" t="n">
-        <v>6.899999999999998</v>
+        <v>3778798.8718</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +756,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="C10" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="D10" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="E10" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>5048.8529</v>
       </c>
       <c r="G10" t="n">
-        <v>6.823333333333331</v>
+        <v>3773750.0189</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +816,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="C11" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="D11" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="E11" t="n">
-        <v>6.77</v>
+        <v>6.7</v>
       </c>
       <c r="F11" t="n">
-        <v>13287.0014</v>
+        <v>32101.5357</v>
       </c>
       <c r="G11" t="n">
-        <v>6.783333333333331</v>
+        <v>3773750.0189</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +840,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +858,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="C12" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="D12" t="n">
-        <v>6.95</v>
+        <v>6.73</v>
       </c>
       <c r="E12" t="n">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="F12" t="n">
-        <v>415075.6482</v>
+        <v>440815.8365</v>
       </c>
       <c r="G12" t="n">
-        <v>6.826666666666664</v>
+        <v>4214565.8554</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +882,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +900,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="C13" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="D13" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="E13" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="F13" t="n">
-        <v>1148</v>
+        <v>114723.345</v>
       </c>
       <c r="G13" t="n">
-        <v>6.883333333333332</v>
+        <v>4214565.8554</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +942,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.94</v>
+        <v>6.53</v>
       </c>
       <c r="C14" t="n">
-        <v>6.94</v>
+        <v>6.72</v>
       </c>
       <c r="D14" t="n">
-        <v>6.94</v>
+        <v>6.73</v>
       </c>
       <c r="E14" t="n">
-        <v>6.94</v>
+        <v>6.52</v>
       </c>
       <c r="F14" t="n">
-        <v>215.4531</v>
+        <v>15601.7765</v>
       </c>
       <c r="G14" t="n">
-        <v>6.939999999999999</v>
+        <v>4198964.0789</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +966,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +984,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.81</v>
+        <v>6.72</v>
       </c>
       <c r="C15" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
       <c r="D15" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
       <c r="E15" t="n">
-        <v>6.81</v>
+        <v>6.72</v>
       </c>
       <c r="F15" t="n">
-        <v>10650.887</v>
+        <v>146933.0563</v>
       </c>
       <c r="G15" t="n">
-        <v>6.896666666666665</v>
+        <v>4345897.1352</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1008,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1026,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
       <c r="C16" t="n">
-        <v>6.81</v>
+        <v>6.85</v>
       </c>
       <c r="D16" t="n">
-        <v>6.81</v>
+        <v>6.85</v>
       </c>
       <c r="E16" t="n">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
       <c r="F16" t="n">
-        <v>19498.3512</v>
+        <v>1687529.7045</v>
       </c>
       <c r="G16" t="n">
-        <v>6.853333333333331</v>
+        <v>6033426.8397</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1050,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1068,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.83</v>
+        <v>6.9</v>
       </c>
       <c r="C17" t="n">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="D17" t="n">
-        <v>6.83</v>
+        <v>6.9</v>
       </c>
       <c r="E17" t="n">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="F17" t="n">
-        <v>59267.1504</v>
+        <v>154997.4391</v>
       </c>
       <c r="G17" t="n">
-        <v>6.81333333333333</v>
+        <v>6188424.2788</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1110,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="C18" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="D18" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="E18" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="F18" t="n">
-        <v>666.2784</v>
+        <v>5424.9754</v>
       </c>
       <c r="G18" t="n">
-        <v>6.823333333333331</v>
+        <v>6182999.303400001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1134,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1152,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.83</v>
+        <v>6.74</v>
       </c>
       <c r="C19" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="D19" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="E19" t="n">
-        <v>6.83</v>
+        <v>6.74</v>
       </c>
       <c r="F19" t="n">
-        <v>11317.1654</v>
+        <v>124722.7126761062</v>
       </c>
       <c r="G19" t="n">
-        <v>6.829999999999997</v>
+        <v>6307722.016076107</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1176,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1194,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="C20" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="D20" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="E20" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="F20" t="n">
-        <v>100000</v>
+        <v>5238.4572</v>
       </c>
       <c r="G20" t="n">
-        <v>6.836666666666663</v>
+        <v>6307722.016076107</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1218,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1236,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="C21" t="n">
-        <v>6.92</v>
+        <v>6.77</v>
       </c>
       <c r="D21" t="n">
-        <v>6.92</v>
+        <v>6.78</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9</v>
+        <v>6.77</v>
       </c>
       <c r="F21" t="n">
-        <v>180507.8033</v>
+        <v>18329.4435</v>
       </c>
       <c r="G21" t="n">
-        <v>6.863333333333331</v>
+        <v>6289392.572576107</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1260,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
       <c r="C22" t="n">
-        <v>6.94</v>
+        <v>6.85</v>
       </c>
       <c r="D22" t="n">
-        <v>6.94</v>
+        <v>6.85</v>
       </c>
       <c r="E22" t="n">
-        <v>6.94</v>
+        <v>6.77</v>
       </c>
       <c r="F22" t="n">
-        <v>163000</v>
+        <v>411843.6912</v>
       </c>
       <c r="G22" t="n">
-        <v>6.899999999999999</v>
+        <v>6701236.263776107</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1302,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1206,10 +1332,10 @@
         <v>6.9</v>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>18515.7344</v>
       </c>
       <c r="G23" t="n">
-        <v>6.919999999999998</v>
+        <v>6719751.998176107</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1344,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1362,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="C24" t="n">
-        <v>6.86</v>
+        <v>6.95</v>
       </c>
       <c r="D24" t="n">
-        <v>6.86</v>
+        <v>6.95</v>
       </c>
       <c r="E24" t="n">
-        <v>6.86</v>
+        <v>6.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1459.124</v>
+        <v>18523.3378</v>
       </c>
       <c r="G24" t="n">
-        <v>6.899999999999999</v>
+        <v>6738275.335976107</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1386,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.81</v>
+        <v>6.74</v>
       </c>
       <c r="C25" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="D25" t="n">
-        <v>6.81</v>
+        <v>6.74</v>
       </c>
       <c r="E25" t="n">
-        <v>6.77</v>
+        <v>6.74</v>
       </c>
       <c r="F25" t="n">
-        <v>13478.7566</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>6.843333333333331</v>
+        <v>6728275.335976107</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1428,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1446,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="C26" t="n">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="D26" t="n">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="E26" t="n">
-        <v>6.83</v>
+        <v>6.93</v>
       </c>
       <c r="F26" t="n">
-        <v>84</v>
+        <v>100.13</v>
       </c>
       <c r="G26" t="n">
-        <v>6.819999999999998</v>
+        <v>6728375.465976107</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1488,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
       <c r="C27" t="n">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
       <c r="D27" t="n">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
       <c r="E27" t="n">
-        <v>6.82</v>
+        <v>6.74</v>
       </c>
       <c r="F27" t="n">
-        <v>10835.117</v>
+        <v>9000</v>
       </c>
       <c r="G27" t="n">
-        <v>6.806666666666665</v>
+        <v>6719375.465976107</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1512,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1530,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="C28" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="D28" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="E28" t="n">
-        <v>6.84</v>
+        <v>6.9</v>
       </c>
       <c r="F28" t="n">
-        <v>4302.9197</v>
+        <v>1233.5241</v>
       </c>
       <c r="G28" t="n">
-        <v>6.829999999999998</v>
+        <v>6720608.990076107</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1554,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1572,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.78</v>
+        <v>6.79</v>
       </c>
       <c r="C29" t="n">
-        <v>6.78</v>
+        <v>6.79</v>
       </c>
       <c r="D29" t="n">
-        <v>6.78</v>
+        <v>6.79</v>
       </c>
       <c r="E29" t="n">
-        <v>6.78</v>
+        <v>6.79</v>
       </c>
       <c r="F29" t="n">
-        <v>16139.348</v>
+        <v>101894.9129</v>
       </c>
       <c r="G29" t="n">
-        <v>6.813333333333333</v>
+        <v>6618714.077176107</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1614,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.78</v>
+        <v>6.89</v>
       </c>
       <c r="C30" t="n">
-        <v>6.78</v>
+        <v>6.95</v>
       </c>
       <c r="D30" t="n">
-        <v>6.78</v>
+        <v>6.97</v>
       </c>
       <c r="E30" t="n">
-        <v>6.78</v>
+        <v>6.89</v>
       </c>
       <c r="F30" t="n">
-        <v>3000</v>
+        <v>232273.5165</v>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>6850987.593676107</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,36 +1656,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.78</v>
+        <v>6.97</v>
       </c>
       <c r="C31" t="n">
-        <v>6.78</v>
+        <v>7.09</v>
       </c>
       <c r="D31" t="n">
-        <v>6.78</v>
+        <v>7.09</v>
       </c>
       <c r="E31" t="n">
-        <v>6.78</v>
+        <v>6.97</v>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>230612.4153</v>
       </c>
       <c r="G31" t="n">
-        <v>6.78</v>
+        <v>7081600.008976107</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1522,38 +1698,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.78</v>
+        <v>7.01</v>
       </c>
       <c r="C32" t="n">
-        <v>6.78</v>
+        <v>7.09</v>
       </c>
       <c r="D32" t="n">
-        <v>6.78</v>
+        <v>7.09</v>
       </c>
       <c r="E32" t="n">
-        <v>6.78</v>
+        <v>7.01</v>
       </c>
       <c r="F32" t="n">
-        <v>19843.3378</v>
+        <v>82973.0606</v>
       </c>
       <c r="G32" t="n">
-        <v>6.78</v>
+        <v>7081600.008976107</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>6.78</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>6.78</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1566,22 +1740,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.79</v>
+        <v>7.09</v>
       </c>
       <c r="C33" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="D33" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="E33" t="n">
-        <v>6.79</v>
+        <v>7.09</v>
       </c>
       <c r="F33" t="n">
-        <v>2373.1958</v>
+        <v>478791.0874575554</v>
       </c>
       <c r="G33" t="n">
-        <v>6.783333333333332</v>
+        <v>7560391.096433663</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1591,11 +1765,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>6.78</v>
+        <v>6.5</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1608,22 +1782,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="C34" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="D34" t="n">
-        <v>6.79</v>
+        <v>7.3</v>
       </c>
       <c r="E34" t="n">
-        <v>6.79</v>
+        <v>7.27</v>
       </c>
       <c r="F34" t="n">
-        <v>213.5493</v>
+        <v>33467.86892109589</v>
       </c>
       <c r="G34" t="n">
-        <v>6.786666666666665</v>
+        <v>7560391.096433663</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1632,8 +1806,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1644,22 +1824,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.79</v>
+        <v>7.29</v>
       </c>
       <c r="C35" t="n">
-        <v>6.79</v>
+        <v>7.5</v>
       </c>
       <c r="D35" t="n">
-        <v>6.79</v>
+        <v>7.5</v>
       </c>
       <c r="E35" t="n">
-        <v>6.79</v>
+        <v>7.22</v>
       </c>
       <c r="F35" t="n">
-        <v>153.4609</v>
+        <v>1219417.183775205</v>
       </c>
       <c r="G35" t="n">
-        <v>6.789999999999998</v>
+        <v>8779808.280208867</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1668,8 +1848,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1680,36 +1866,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.79</v>
+        <v>7.43</v>
       </c>
       <c r="C36" t="n">
-        <v>6.79</v>
+        <v>7.31</v>
       </c>
       <c r="D36" t="n">
-        <v>6.79</v>
+        <v>7.43</v>
       </c>
       <c r="E36" t="n">
-        <v>6.79</v>
+        <v>7.31</v>
       </c>
       <c r="F36" t="n">
-        <v>50.81</v>
+        <v>19943.3378</v>
       </c>
       <c r="G36" t="n">
-        <v>6.789999999999998</v>
+        <v>8759864.942408867</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>6.79</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1720,22 +1908,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.79</v>
+        <v>7.32</v>
       </c>
       <c r="C37" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="D37" t="n">
-        <v>6.79</v>
+        <v>7.36</v>
       </c>
       <c r="E37" t="n">
-        <v>6.79</v>
+        <v>7.28</v>
       </c>
       <c r="F37" t="n">
-        <v>11231.7695</v>
+        <v>1567115.2729</v>
       </c>
       <c r="G37" t="n">
-        <v>6.789999999999998</v>
+        <v>10326980.21530887</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1745,11 +1933,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>6.79</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1762,70 +1950,72 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.82</v>
+        <v>7.43</v>
       </c>
       <c r="C38" t="n">
-        <v>6.82</v>
+        <v>7.54</v>
       </c>
       <c r="D38" t="n">
-        <v>6.82</v>
+        <v>7.59</v>
       </c>
       <c r="E38" t="n">
-        <v>6.82</v>
+        <v>7.37</v>
       </c>
       <c r="F38" t="n">
-        <v>12229.489</v>
+        <v>1204607.1238</v>
       </c>
       <c r="G38" t="n">
-        <v>6.799999999999998</v>
+        <v>11531587.33910887</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>6.79</v>
+        <v>6.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1.155</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.006191950464396</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.86</v>
+        <v>7.42</v>
       </c>
       <c r="C39" t="n">
-        <v>6.86</v>
+        <v>7.41</v>
       </c>
       <c r="D39" t="n">
-        <v>6.86</v>
+        <v>7.42</v>
       </c>
       <c r="E39" t="n">
-        <v>6.86</v>
+        <v>7.41</v>
       </c>
       <c r="F39" t="n">
-        <v>6846.5763</v>
+        <v>135581.0808</v>
       </c>
       <c r="G39" t="n">
-        <v>6.823333333333331</v>
+        <v>11396006.25830887</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1840,35 +2030,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.82</v>
+        <v>7.34</v>
       </c>
       <c r="C40" t="n">
-        <v>6.82</v>
+        <v>7.3</v>
       </c>
       <c r="D40" t="n">
-        <v>6.82</v>
+        <v>7.34</v>
       </c>
       <c r="E40" t="n">
-        <v>6.82</v>
+        <v>7.3</v>
       </c>
       <c r="F40" t="n">
-        <v>2609.6396</v>
+        <v>738063.7376</v>
       </c>
       <c r="G40" t="n">
-        <v>6.833333333333332</v>
+        <v>10657942.52070887</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6.86</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
@@ -1880,40 +2066,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.8</v>
+        <v>7.22</v>
       </c>
       <c r="C41" t="n">
-        <v>6.78</v>
+        <v>7.21</v>
       </c>
       <c r="D41" t="n">
-        <v>6.8</v>
+        <v>7.22</v>
       </c>
       <c r="E41" t="n">
-        <v>6.78</v>
+        <v>7.21</v>
       </c>
       <c r="F41" t="n">
-        <v>89758.77770000001</v>
+        <v>67786.5252</v>
       </c>
       <c r="G41" t="n">
-        <v>6.819999999999999</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1924,40 +2102,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.84</v>
+        <v>7.21</v>
       </c>
       <c r="C42" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="D42" t="n">
-        <v>6.85</v>
+        <v>7.21</v>
       </c>
       <c r="E42" t="n">
-        <v>6.84</v>
+        <v>7.21</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>68388.4081</v>
       </c>
       <c r="G42" t="n">
-        <v>6.816666666666666</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1968,40 +2138,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.82</v>
+        <v>7.21</v>
       </c>
       <c r="C43" t="n">
-        <v>6.84</v>
+        <v>7.21</v>
       </c>
       <c r="D43" t="n">
-        <v>6.84</v>
+        <v>7.21</v>
       </c>
       <c r="E43" t="n">
-        <v>6.82</v>
+        <v>7.21</v>
       </c>
       <c r="F43" t="n">
-        <v>15246.1256</v>
+        <v>35633.7833</v>
       </c>
       <c r="G43" t="n">
-        <v>6.823333333333331</v>
+        <v>10590155.99550887</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2012,40 +2174,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.9</v>
+        <v>7.34</v>
       </c>
       <c r="C44" t="n">
-        <v>6.95</v>
+        <v>7.34</v>
       </c>
       <c r="D44" t="n">
-        <v>6.95</v>
+        <v>7.34</v>
       </c>
       <c r="E44" t="n">
-        <v>6.9</v>
+        <v>7.34</v>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>6.879999999999998</v>
+        <v>10590165.99550887</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2056,40 +2210,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.88</v>
+        <v>7.16</v>
       </c>
       <c r="C45" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>6.88</v>
+        <v>7.16</v>
       </c>
       <c r="E45" t="n">
-        <v>6.25</v>
+        <v>6.52</v>
       </c>
       <c r="F45" t="n">
-        <v>61775.7309</v>
+        <v>41511.5571</v>
       </c>
       <c r="G45" t="n">
-        <v>6.679999999999997</v>
+        <v>10548654.43840887</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2100,22 +2246,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.95</v>
+        <v>7.03</v>
       </c>
       <c r="C46" t="n">
-        <v>6.95</v>
+        <v>7.03</v>
       </c>
       <c r="D46" t="n">
-        <v>6.95</v>
+        <v>7.03</v>
       </c>
       <c r="E46" t="n">
-        <v>6.95</v>
+        <v>7.03</v>
       </c>
       <c r="F46" t="n">
-        <v>35971.223</v>
+        <v>28278.6259</v>
       </c>
       <c r="G46" t="n">
-        <v>6.716666666666664</v>
+        <v>10576933.06430887</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2124,14 +2270,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2142,22 +2282,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.93</v>
+        <v>7.03</v>
       </c>
       <c r="C47" t="n">
-        <v>6.93</v>
+        <v>7.29</v>
       </c>
       <c r="D47" t="n">
-        <v>6.93</v>
+        <v>7.29</v>
       </c>
       <c r="E47" t="n">
-        <v>6.93</v>
+        <v>7.02</v>
       </c>
       <c r="F47" t="n">
-        <v>45290.4402</v>
+        <v>343694.217</v>
       </c>
       <c r="G47" t="n">
-        <v>6.709999999999997</v>
+        <v>10920627.28130887</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2166,14 +2306,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2184,38 +2318,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.92</v>
+        <v>7.03</v>
       </c>
       <c r="C48" t="n">
-        <v>6.92</v>
+        <v>7.02</v>
       </c>
       <c r="D48" t="n">
-        <v>6.92</v>
+        <v>7.03</v>
       </c>
       <c r="E48" t="n">
-        <v>6.92</v>
+        <v>7.02</v>
       </c>
       <c r="F48" t="n">
-        <v>39539.0238</v>
+        <v>343710.11</v>
       </c>
       <c r="G48" t="n">
-        <v>6.93333333333333</v>
+        <v>10576917.17130887</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2226,22 +2354,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.93</v>
+        <v>7.29</v>
       </c>
       <c r="C49" t="n">
-        <v>7.17</v>
+        <v>7.21</v>
       </c>
       <c r="D49" t="n">
-        <v>7.17</v>
+        <v>7.29</v>
       </c>
       <c r="E49" t="n">
-        <v>6.93</v>
+        <v>7.21</v>
       </c>
       <c r="F49" t="n">
-        <v>7872.255715481171</v>
+        <v>104110</v>
       </c>
       <c r="G49" t="n">
-        <v>7.006666666666664</v>
+        <v>10681027.17130887</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2250,14 +2378,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2268,22 +2390,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="C50" t="n">
-        <v>6.25</v>
+        <v>7.06</v>
       </c>
       <c r="D50" t="n">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="E50" t="n">
-        <v>6.25</v>
+        <v>7.06</v>
       </c>
       <c r="F50" t="n">
-        <v>111929.362</v>
+        <v>20678.473</v>
       </c>
       <c r="G50" t="n">
-        <v>6.779999999999998</v>
+        <v>10660348.69830887</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2292,14 +2414,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2426,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.14</v>
+        <v>7.27</v>
       </c>
       <c r="C51" t="n">
-        <v>7.14</v>
+        <v>7.18</v>
       </c>
       <c r="D51" t="n">
-        <v>7.14</v>
+        <v>7.4</v>
       </c>
       <c r="E51" t="n">
-        <v>7.14</v>
+        <v>7.18</v>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>53681.6706</v>
       </c>
       <c r="G51" t="n">
-        <v>6.853333333333332</v>
+        <v>10714030.36890887</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2334,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2352,22 +2462,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
       <c r="C52" t="n">
-        <v>7.19</v>
+        <v>7.17</v>
       </c>
       <c r="D52" t="n">
-        <v>7.19</v>
+        <v>7.17</v>
       </c>
       <c r="E52" t="n">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
       <c r="F52" t="n">
-        <v>89538.46341247432</v>
+        <v>21787.1687</v>
       </c>
       <c r="G52" t="n">
-        <v>6.859999999999999</v>
+        <v>10692243.20020887</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2376,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2394,22 +2498,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.87</v>
+        <v>7.14</v>
       </c>
       <c r="C53" t="n">
-        <v>6.87</v>
+        <v>7.12</v>
       </c>
       <c r="D53" t="n">
-        <v>6.87</v>
+        <v>7.14</v>
       </c>
       <c r="E53" t="n">
-        <v>6.87</v>
+        <v>7.12</v>
       </c>
       <c r="F53" t="n">
-        <v>70178.5365</v>
+        <v>226276.2322</v>
       </c>
       <c r="G53" t="n">
-        <v>7.066666666666666</v>
+        <v>10465966.96800887</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2418,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2534,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.12</v>
+        <v>7.13</v>
       </c>
       <c r="C54" t="n">
-        <v>7.12</v>
+        <v>7.13</v>
       </c>
       <c r="D54" t="n">
-        <v>7.12</v>
+        <v>7.13</v>
       </c>
       <c r="E54" t="n">
-        <v>7.12</v>
+        <v>7.13</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>3600</v>
       </c>
       <c r="G54" t="n">
-        <v>7.06</v>
+        <v>10469566.96800887</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2460,14 +2558,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2478,22 +2570,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.93</v>
+        <v>7.14</v>
       </c>
       <c r="C55" t="n">
-        <v>6.92</v>
+        <v>7.14</v>
       </c>
       <c r="D55" t="n">
-        <v>6.93</v>
+        <v>7.14</v>
       </c>
       <c r="E55" t="n">
-        <v>6.92</v>
+        <v>7.14</v>
       </c>
       <c r="F55" t="n">
-        <v>7729.8402</v>
+        <v>3577.6876</v>
       </c>
       <c r="G55" t="n">
-        <v>6.97</v>
+        <v>10473144.65560887</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2502,14 +2594,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2520,22 +2606,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="C56" t="n">
-        <v>6.95</v>
+        <v>7.24</v>
       </c>
       <c r="D56" t="n">
-        <v>6.95</v>
+        <v>7.24</v>
       </c>
       <c r="E56" t="n">
-        <v>6.94</v>
+        <v>7.14</v>
       </c>
       <c r="F56" t="n">
-        <v>134849.6197</v>
+        <v>18278.5373</v>
       </c>
       <c r="G56" t="n">
-        <v>6.996666666666666</v>
+        <v>10491423.19290887</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2544,14 +2630,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2642,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.05</v>
+        <v>7.13</v>
       </c>
       <c r="C57" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="D57" t="n">
-        <v>7.05</v>
+        <v>7.13</v>
       </c>
       <c r="E57" t="n">
-        <v>6.94</v>
+        <v>7.12</v>
       </c>
       <c r="F57" t="n">
-        <v>2717.1816</v>
+        <v>67296.5744</v>
       </c>
       <c r="G57" t="n">
-        <v>6.936666666666667</v>
+        <v>10424126.61850887</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2586,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2604,22 +2678,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.94</v>
+        <v>7.09</v>
       </c>
       <c r="C58" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>6.94</v>
+        <v>7.09</v>
       </c>
       <c r="E58" t="n">
-        <v>6.94</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>9975</v>
+        <v>158015.7071</v>
       </c>
       <c r="G58" t="n">
-        <v>6.943333333333332</v>
+        <v>10266110.91140887</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2628,14 +2702,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2646,22 +2714,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="C59" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
       <c r="D59" t="n">
-        <v>6.94</v>
+        <v>6.92</v>
       </c>
       <c r="E59" t="n">
-        <v>6.94</v>
+        <v>6.89</v>
       </c>
       <c r="F59" t="n">
-        <v>7852.575</v>
+        <v>401.2744</v>
       </c>
       <c r="G59" t="n">
-        <v>6.94</v>
+        <v>10265709.63700887</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2670,14 +2738,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2688,22 +2750,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.9</v>
+        <v>6.87</v>
       </c>
       <c r="C60" t="n">
-        <v>6.9</v>
+        <v>6.87</v>
       </c>
       <c r="D60" t="n">
-        <v>6.9</v>
+        <v>6.87</v>
       </c>
       <c r="E60" t="n">
-        <v>6.9</v>
+        <v>6.87</v>
       </c>
       <c r="F60" t="n">
-        <v>27589.3471</v>
+        <v>4978.748</v>
       </c>
       <c r="G60" t="n">
-        <v>6.926666666666666</v>
+        <v>10260730.88900887</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2712,14 +2774,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2786,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.91</v>
+        <v>6.7</v>
       </c>
       <c r="C61" t="n">
-        <v>6.89</v>
+        <v>6.7</v>
       </c>
       <c r="D61" t="n">
-        <v>6.91</v>
+        <v>6.87</v>
       </c>
       <c r="E61" t="n">
-        <v>6.89</v>
+        <v>6.7</v>
       </c>
       <c r="F61" t="n">
-        <v>70178.53660000001</v>
+        <v>24014.1404</v>
       </c>
       <c r="G61" t="n">
-        <v>6.909999999999999</v>
+        <v>10236716.74860887</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2754,14 +2810,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2772,22 +2822,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.92</v>
+        <v>6.7</v>
       </c>
       <c r="C62" t="n">
-        <v>6.92</v>
+        <v>6.7</v>
       </c>
       <c r="D62" t="n">
-        <v>6.92</v>
+        <v>6.7</v>
       </c>
       <c r="E62" t="n">
-        <v>6.92</v>
+        <v>6.7</v>
       </c>
       <c r="F62" t="n">
-        <v>9776.625899999999</v>
+        <v>6311.3892</v>
       </c>
       <c r="G62" t="n">
-        <v>6.903333333333332</v>
+        <v>10236716.74860887</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2796,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +2858,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="C63" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="D63" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="E63" t="n">
-        <v>6.95</v>
+        <v>6.79</v>
       </c>
       <c r="F63" t="n">
-        <v>19394.48</v>
+        <v>939.7643</v>
       </c>
       <c r="G63" t="n">
-        <v>6.919999999999999</v>
+        <v>10237656.51290887</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2838,14 +2882,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2856,22 +2894,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.97</v>
+        <v>6.7</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>6.69</v>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>6.74</v>
       </c>
       <c r="E64" t="n">
-        <v>6.97</v>
+        <v>6.69</v>
       </c>
       <c r="F64" t="n">
-        <v>23328.1493</v>
+        <v>2369.6644</v>
       </c>
       <c r="G64" t="n">
-        <v>6.956666666666666</v>
+        <v>10235286.84850887</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2880,14 +2918,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2898,22 +2930,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7</v>
+        <v>6.64</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>6.62</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>6.64</v>
       </c>
       <c r="E65" t="n">
-        <v>7</v>
+        <v>6.62</v>
       </c>
       <c r="F65" t="n">
-        <v>13473.0539</v>
+        <v>76503.93369999999</v>
       </c>
       <c r="G65" t="n">
-        <v>6.983333333333332</v>
+        <v>10158782.91480887</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2922,14 +2954,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2940,22 +2966,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>6.61</v>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>6.63</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>6.63</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>6.61</v>
       </c>
       <c r="F66" t="n">
-        <v>26456.0679</v>
+        <v>7999.4133</v>
       </c>
       <c r="G66" t="n">
-        <v>6.999999999999999</v>
+        <v>10166782.32810887</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2964,14 +2990,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2982,22 +3002,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.04</v>
+        <v>6.72</v>
       </c>
       <c r="C67" t="n">
-        <v>7.04</v>
+        <v>6.74</v>
       </c>
       <c r="D67" t="n">
-        <v>7.04</v>
+        <v>6.75</v>
       </c>
       <c r="E67" t="n">
-        <v>7.04</v>
+        <v>6.72</v>
       </c>
       <c r="F67" t="n">
-        <v>89314.6173</v>
+        <v>94061.30560000001</v>
       </c>
       <c r="G67" t="n">
-        <v>7.013333333333332</v>
+        <v>10260843.63370887</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3006,14 +3026,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3024,22 +3038,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.05</v>
+        <v>6.72</v>
       </c>
       <c r="C68" t="n">
-        <v>7.05</v>
+        <v>6.71</v>
       </c>
       <c r="D68" t="n">
-        <v>7.05</v>
+        <v>6.72</v>
       </c>
       <c r="E68" t="n">
-        <v>7.05</v>
+        <v>6.71</v>
       </c>
       <c r="F68" t="n">
-        <v>50000</v>
+        <v>182280.4072</v>
       </c>
       <c r="G68" t="n">
-        <v>7.029999999999998</v>
+        <v>10078563.22650887</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3048,14 +3062,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3074,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.1</v>
+        <v>6.79</v>
       </c>
       <c r="C69" t="n">
-        <v>7.15</v>
+        <v>6.83</v>
       </c>
       <c r="D69" t="n">
-        <v>7.15</v>
+        <v>6.83</v>
       </c>
       <c r="E69" t="n">
-        <v>7.1</v>
+        <v>6.79</v>
       </c>
       <c r="F69" t="n">
-        <v>100000</v>
+        <v>372148.4689</v>
       </c>
       <c r="G69" t="n">
-        <v>7.079999999999998</v>
+        <v>10450711.69540887</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3090,14 +3098,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3108,22 +3110,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.16</v>
+        <v>6.83</v>
       </c>
       <c r="C70" t="n">
-        <v>7.18</v>
+        <v>6.84</v>
       </c>
       <c r="D70" t="n">
-        <v>7.18</v>
+        <v>6.84</v>
       </c>
       <c r="E70" t="n">
-        <v>7.16</v>
+        <v>6.83</v>
       </c>
       <c r="F70" t="n">
-        <v>390461.5598</v>
+        <v>340907.4335</v>
       </c>
       <c r="G70" t="n">
-        <v>7.126666666666665</v>
+        <v>10791619.12890887</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3132,14 +3134,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3150,22 +3146,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="C71" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="D71" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="E71" t="n">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="F71" t="n">
-        <v>128424.7234</v>
+        <v>5132.9503</v>
       </c>
       <c r="G71" t="n">
-        <v>7.169999999999998</v>
+        <v>10796752.07920887</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3174,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3192,40 +3182,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.19</v>
+        <v>6.77</v>
       </c>
       <c r="C72" t="n">
-        <v>7.19</v>
+        <v>6.77</v>
       </c>
       <c r="D72" t="n">
-        <v>7.19</v>
+        <v>6.77</v>
       </c>
       <c r="E72" t="n">
-        <v>7.19</v>
+        <v>6.77</v>
       </c>
       <c r="F72" t="n">
-        <v>4500</v>
+        <v>11200</v>
       </c>
       <c r="G72" t="n">
-        <v>7.183333333333333</v>
+        <v>10785552.07920887</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>1.043104956268222</v>
+        <v>1</v>
       </c>
       <c r="N72" t="inlineStr"/>
     </row>
@@ -3234,28 +3218,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.17</v>
+        <v>6.75</v>
       </c>
       <c r="C73" t="n">
-        <v>7.17</v>
+        <v>6.75</v>
       </c>
       <c r="D73" t="n">
-        <v>7.17</v>
+        <v>6.75</v>
       </c>
       <c r="E73" t="n">
-        <v>7.17</v>
+        <v>6.75</v>
       </c>
       <c r="F73" t="n">
-        <v>336207.7352</v>
+        <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>7.18</v>
+        <v>10785502.07920887</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3270,28 +3254,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.19</v>
+        <v>6.88</v>
       </c>
       <c r="C74" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="D74" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="E74" t="n">
-        <v>7.19</v>
+        <v>6.88</v>
       </c>
       <c r="F74" t="n">
-        <v>561862.4577</v>
+        <v>389941.2578</v>
       </c>
       <c r="G74" t="n">
-        <v>7.22</v>
+        <v>11175443.33700887</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3306,28 +3290,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.3</v>
+        <v>6.88</v>
       </c>
       <c r="C75" t="n">
-        <v>7.36</v>
+        <v>6.89</v>
       </c>
       <c r="D75" t="n">
-        <v>7.36</v>
+        <v>6.89</v>
       </c>
       <c r="E75" t="n">
-        <v>7.3</v>
+        <v>6.88</v>
       </c>
       <c r="F75" t="n">
-        <v>580144.8676999999</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>7.276666666666666</v>
+        <v>11175343.33700887</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3342,28 +3326,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.36</v>
+        <v>6.89</v>
       </c>
       <c r="C76" t="n">
-        <v>7.4</v>
+        <v>6.89</v>
       </c>
       <c r="D76" t="n">
-        <v>7.4</v>
+        <v>6.89</v>
       </c>
       <c r="E76" t="n">
-        <v>7.36</v>
+        <v>6.89</v>
       </c>
       <c r="F76" t="n">
-        <v>9000</v>
+        <v>4743.9272</v>
       </c>
       <c r="G76" t="n">
-        <v>7.353333333333332</v>
+        <v>11175343.33700887</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3378,28 +3362,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.34</v>
+        <v>6.89</v>
       </c>
       <c r="C77" t="n">
-        <v>7.39</v>
+        <v>6.82</v>
       </c>
       <c r="D77" t="n">
-        <v>7.39</v>
+        <v>6.89</v>
       </c>
       <c r="E77" t="n">
-        <v>7.34</v>
+        <v>6.82</v>
       </c>
       <c r="F77" t="n">
-        <v>313673.8851</v>
+        <v>3262</v>
       </c>
       <c r="G77" t="n">
-        <v>7.383333333333332</v>
+        <v>11172081.33700887</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3414,28 +3398,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.22</v>
+        <v>6.96</v>
       </c>
       <c r="C78" t="n">
-        <v>7.16</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>7.22</v>
+        <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>7.16</v>
+        <v>6.96</v>
       </c>
       <c r="F78" t="n">
-        <v>40402.7894</v>
+        <v>29923.3642</v>
       </c>
       <c r="G78" t="n">
-        <v>7.316666666666666</v>
+        <v>11202004.70120887</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3450,28 +3434,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.07</v>
+        <v>6.91</v>
       </c>
       <c r="C79" t="n">
-        <v>7.27</v>
+        <v>6.89</v>
       </c>
       <c r="D79" t="n">
-        <v>7.27</v>
+        <v>6.91</v>
       </c>
       <c r="E79" t="n">
-        <v>7.06</v>
+        <v>6.89</v>
       </c>
       <c r="F79" t="n">
-        <v>112676.4515</v>
+        <v>117309.9485</v>
       </c>
       <c r="G79" t="n">
-        <v>7.273333333333331</v>
+        <v>11084694.75270887</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3486,28 +3470,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.08</v>
+        <v>6.8</v>
       </c>
       <c r="C80" t="n">
-        <v>7.06</v>
+        <v>6.81</v>
       </c>
       <c r="D80" t="n">
-        <v>7.08</v>
+        <v>6.81</v>
       </c>
       <c r="E80" t="n">
-        <v>7.06</v>
+        <v>6.8</v>
       </c>
       <c r="F80" t="n">
-        <v>107588.8863</v>
+        <v>48030.8743</v>
       </c>
       <c r="G80" t="n">
-        <v>7.16333333333333</v>
+        <v>11036663.87840887</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3522,28 +3506,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.06</v>
+        <v>6.77</v>
       </c>
       <c r="C81" t="n">
-        <v>7.35</v>
+        <v>6.77</v>
       </c>
       <c r="D81" t="n">
-        <v>7.35</v>
+        <v>6.77</v>
       </c>
       <c r="E81" t="n">
-        <v>7.06</v>
+        <v>6.77</v>
       </c>
       <c r="F81" t="n">
-        <v>42032.1156</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>7.226666666666663</v>
+        <v>11036163.87840887</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3558,28 +3542,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.08</v>
+        <v>6.77</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>6.77</v>
       </c>
       <c r="D82" t="n">
-        <v>7.08</v>
+        <v>6.77</v>
       </c>
       <c r="E82" t="n">
-        <v>6.99</v>
+        <v>6.77</v>
       </c>
       <c r="F82" t="n">
-        <v>255786.2276</v>
+        <v>13287.0014</v>
       </c>
       <c r="G82" t="n">
-        <v>7.136666666666663</v>
+        <v>11036163.87840887</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3594,28 +3578,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>6.94</v>
       </c>
       <c r="F83" t="n">
-        <v>691859.1176999999</v>
+        <v>415075.6482</v>
       </c>
       <c r="G83" t="n">
-        <v>7.116666666666664</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3630,28 +3614,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.11</v>
+        <v>6.94</v>
       </c>
       <c r="C84" t="n">
-        <v>7.11</v>
+        <v>6.94</v>
       </c>
       <c r="D84" t="n">
-        <v>7.11</v>
+        <v>6.94</v>
       </c>
       <c r="E84" t="n">
-        <v>7.11</v>
+        <v>6.94</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>1148</v>
       </c>
       <c r="G84" t="n">
-        <v>7.036666666666664</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3666,28 +3650,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="C85" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="D85" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="E85" t="n">
-        <v>6.9</v>
+        <v>6.94</v>
       </c>
       <c r="F85" t="n">
-        <v>16500</v>
+        <v>215.4531</v>
       </c>
       <c r="G85" t="n">
-        <v>7.00333333333333</v>
+        <v>11451239.52660887</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3702,22 +3686,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="C86" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="D86" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="E86" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="F86" t="n">
-        <v>8460</v>
+        <v>10650.887</v>
       </c>
       <c r="G86" t="n">
-        <v>6.969999999999996</v>
+        <v>11440588.63960887</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3738,22 +3722,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="C87" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="D87" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="E87" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="F87" t="n">
-        <v>15100.2898</v>
+        <v>19498.3512</v>
       </c>
       <c r="G87" t="n">
-        <v>6.899999999999996</v>
+        <v>11440588.63960887</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3774,22 +3758,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.91</v>
+        <v>6.83</v>
       </c>
       <c r="C88" t="n">
-        <v>6.91</v>
+        <v>6.82</v>
       </c>
       <c r="D88" t="n">
-        <v>6.91</v>
+        <v>6.83</v>
       </c>
       <c r="E88" t="n">
-        <v>6.91</v>
+        <v>6.82</v>
       </c>
       <c r="F88" t="n">
-        <v>206045.8388</v>
+        <v>59267.1504</v>
       </c>
       <c r="G88" t="n">
-        <v>6.903333333333329</v>
+        <v>11499855.79000887</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3810,22 +3794,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="C89" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="D89" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="E89" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="F89" t="n">
-        <v>962778.0503</v>
+        <v>666.2784</v>
       </c>
       <c r="G89" t="n">
-        <v>6.906666666666662</v>
+        <v>11500522.06840887</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3846,28 +3830,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.11</v>
+        <v>6.83</v>
       </c>
       <c r="C90" t="n">
-        <v>7.11</v>
+        <v>6.83</v>
       </c>
       <c r="D90" t="n">
-        <v>7.11</v>
+        <v>6.83</v>
       </c>
       <c r="E90" t="n">
-        <v>7.11</v>
+        <v>6.83</v>
       </c>
       <c r="F90" t="n">
-        <v>1990</v>
+        <v>11317.1654</v>
       </c>
       <c r="G90" t="n">
-        <v>6.976666666666662</v>
+        <v>11489204.90300887</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3882,28 +3866,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.15</v>
+        <v>6.84</v>
       </c>
       <c r="C91" t="n">
-        <v>7.15</v>
+        <v>6.84</v>
       </c>
       <c r="D91" t="n">
-        <v>7.15</v>
+        <v>6.84</v>
       </c>
       <c r="E91" t="n">
-        <v>7.15</v>
+        <v>6.84</v>
       </c>
       <c r="F91" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G91" t="n">
-        <v>7.056666666666661</v>
+        <v>11589204.90300887</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3918,28 +3902,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.12</v>
+        <v>6.9</v>
       </c>
       <c r="C92" t="n">
-        <v>7.12</v>
+        <v>6.92</v>
       </c>
       <c r="D92" t="n">
-        <v>7.12</v>
+        <v>6.92</v>
       </c>
       <c r="E92" t="n">
-        <v>7.12</v>
+        <v>6.9</v>
       </c>
       <c r="F92" t="n">
-        <v>20533.9712</v>
+        <v>180507.8033</v>
       </c>
       <c r="G92" t="n">
-        <v>7.126666666666662</v>
+        <v>11769712.70630887</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3954,28 +3938,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.12</v>
+        <v>6.94</v>
       </c>
       <c r="C93" t="n">
-        <v>7.12</v>
+        <v>6.94</v>
       </c>
       <c r="D93" t="n">
-        <v>7.12</v>
+        <v>6.94</v>
       </c>
       <c r="E93" t="n">
-        <v>7.12</v>
+        <v>6.94</v>
       </c>
       <c r="F93" t="n">
-        <v>7339.4838</v>
+        <v>163000</v>
       </c>
       <c r="G93" t="n">
-        <v>7.129999999999995</v>
+        <v>11932712.70630887</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3990,28 +3974,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="C94" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="D94" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="E94" t="n">
-        <v>6.91</v>
+        <v>6.9</v>
       </c>
       <c r="F94" t="n">
-        <v>102913.0294</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>7.049999999999994</v>
+        <v>11932662.70630887</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4026,28 +4010,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="C95" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="D95" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E95" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="F95" t="n">
-        <v>6998.556</v>
+        <v>1459.124</v>
       </c>
       <c r="G95" t="n">
-        <v>6.973333333333328</v>
+        <v>11931203.58230887</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4065,25 +4049,25 @@
         <v>6.81</v>
       </c>
       <c r="C96" t="n">
-        <v>6.81</v>
+        <v>6.77</v>
       </c>
       <c r="D96" t="n">
         <v>6.81</v>
       </c>
       <c r="E96" t="n">
-        <v>6.81</v>
+        <v>6.77</v>
       </c>
       <c r="F96" t="n">
-        <v>20602.0623</v>
+        <v>13478.7566</v>
       </c>
       <c r="G96" t="n">
-        <v>6.869999999999994</v>
+        <v>11917724.82570887</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4098,22 +4082,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
       <c r="C97" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
       <c r="D97" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
       <c r="E97" t="n">
-        <v>6.81</v>
+        <v>6.83</v>
       </c>
       <c r="F97" t="n">
-        <v>7201.709</v>
+        <v>84</v>
       </c>
       <c r="G97" t="n">
-        <v>6.83666666666666</v>
+        <v>11917808.82570887</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4134,22 +4118,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="C98" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="D98" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="E98" t="n">
-        <v>6.8</v>
+        <v>6.82</v>
       </c>
       <c r="F98" t="n">
-        <v>15062.5391</v>
+        <v>10835.117</v>
       </c>
       <c r="G98" t="n">
-        <v>6.80666666666666</v>
+        <v>11906973.70870887</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4170,22 +4154,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="C99" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="D99" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="E99" t="n">
-        <v>6.91</v>
+        <v>6.84</v>
       </c>
       <c r="F99" t="n">
-        <v>10000</v>
+        <v>4302.9197</v>
       </c>
       <c r="G99" t="n">
-        <v>6.839999999999994</v>
+        <v>11911276.62840887</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4206,22 +4190,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.81</v>
+        <v>6.78</v>
       </c>
       <c r="C100" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="D100" t="n">
-        <v>6.81</v>
+        <v>6.78</v>
       </c>
       <c r="E100" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="F100" t="n">
-        <v>39030.8432</v>
+        <v>16139.348</v>
       </c>
       <c r="G100" t="n">
-        <v>6.813333333333328</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4242,22 +4226,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="C101" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="D101" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="E101" t="n">
-        <v>6.73</v>
+        <v>6.78</v>
       </c>
       <c r="F101" t="n">
-        <v>9980.9144</v>
+        <v>3000</v>
       </c>
       <c r="G101" t="n">
-        <v>6.789999999999995</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4278,22 +4262,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="C102" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="D102" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="E102" t="n">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G102" t="n">
-        <v>6.786666666666661</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4314,22 +4298,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
       <c r="C103" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
       <c r="D103" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
       <c r="E103" t="n">
-        <v>6.97</v>
+        <v>6.78</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>19843.3378</v>
       </c>
       <c r="G103" t="n">
-        <v>6.86666666666666</v>
+        <v>11895137.28040887</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4350,22 +4334,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.76</v>
+        <v>6.79</v>
       </c>
       <c r="C104" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="D104" t="n">
-        <v>6.76</v>
+        <v>6.79</v>
       </c>
       <c r="E104" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="F104" t="n">
-        <v>595307.6922</v>
+        <v>2373.1958</v>
       </c>
       <c r="G104" t="n">
-        <v>6.86666666666666</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4386,22 +4370,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="C105" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="D105" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="E105" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="F105" t="n">
-        <v>125469.1568</v>
+        <v>213.5493</v>
       </c>
       <c r="G105" t="n">
-        <v>6.809999999999993</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4422,22 +4406,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="C106" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="D106" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="E106" t="n">
-        <v>6.73</v>
+        <v>6.79</v>
       </c>
       <c r="F106" t="n">
-        <v>36633.5521</v>
+        <v>153.4609</v>
       </c>
       <c r="G106" t="n">
-        <v>6.729999999999993</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4458,22 +4442,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
       <c r="C107" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
       <c r="D107" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
       <c r="E107" t="n">
-        <v>6.66</v>
+        <v>6.79</v>
       </c>
       <c r="F107" t="n">
-        <v>6220</v>
+        <v>50.81</v>
       </c>
       <c r="G107" t="n">
-        <v>6.70666666666666</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4494,22 +4478,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.65</v>
+        <v>6.79</v>
       </c>
       <c r="C108" t="n">
-        <v>6.62</v>
+        <v>6.79</v>
       </c>
       <c r="D108" t="n">
-        <v>6.65</v>
+        <v>6.79</v>
       </c>
       <c r="E108" t="n">
-        <v>6.62</v>
+        <v>6.79</v>
       </c>
       <c r="F108" t="n">
-        <v>12653.6857</v>
+        <v>11231.7695</v>
       </c>
       <c r="G108" t="n">
-        <v>6.669999999999994</v>
+        <v>11897510.47620887</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4530,22 +4514,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.64</v>
+        <v>6.82</v>
       </c>
       <c r="C109" t="n">
-        <v>6.64</v>
+        <v>6.82</v>
       </c>
       <c r="D109" t="n">
-        <v>6.64</v>
+        <v>6.82</v>
       </c>
       <c r="E109" t="n">
-        <v>6.64</v>
+        <v>6.82</v>
       </c>
       <c r="F109" t="n">
-        <v>640</v>
+        <v>12229.489</v>
       </c>
       <c r="G109" t="n">
-        <v>6.639999999999993</v>
+        <v>11909739.96520887</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4566,40 +4550,2592 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="C110" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="D110" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="E110" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="F110" t="n">
-        <v>20782.8358</v>
+        <v>6846.5763</v>
       </c>
       <c r="G110" t="n">
-        <v>6.653333333333326</v>
+        <v>11916586.54150887</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="K110" t="n">
-        <v>6.64</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2609.6396</v>
+      </c>
+      <c r="G111" t="n">
+        <v>11913976.90190887</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="F112" t="n">
+        <v>89758.77770000001</v>
+      </c>
+      <c r="G112" t="n">
+        <v>11824218.12420887</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F113" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>11834218.12420887</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15246.1256</v>
+      </c>
+      <c r="G114" t="n">
+        <v>11818971.99860887</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>300</v>
+      </c>
+      <c r="G115" t="n">
+        <v>11819271.99860887</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F116" t="n">
+        <v>61775.7309</v>
+      </c>
+      <c r="G116" t="n">
+        <v>11757496.26770887</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35971.223</v>
+      </c>
+      <c r="G117" t="n">
+        <v>11793467.49070887</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F118" t="n">
+        <v>45290.4402</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11748177.05050887</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F119" t="n">
+        <v>39539.0238</v>
+      </c>
+      <c r="G119" t="n">
+        <v>11708638.02670887</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F120" t="n">
+        <v>7872.255715481171</v>
+      </c>
+      <c r="G120" t="n">
+        <v>11716510.28242435</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F121" t="n">
+        <v>111929.362</v>
+      </c>
+      <c r="G121" t="n">
+        <v>11604580.92042435</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F122" t="n">
+        <v>200</v>
+      </c>
+      <c r="G122" t="n">
+        <v>11604780.92042435</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F123" t="n">
+        <v>89538.46341247432</v>
+      </c>
+      <c r="G123" t="n">
+        <v>11694319.38383683</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70178.5365</v>
+      </c>
+      <c r="G124" t="n">
+        <v>11624140.84733683</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="n">
+        <v>11624240.84733683</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7729.8402</v>
+      </c>
+      <c r="G126" t="n">
+        <v>11616511.00713683</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F127" t="n">
+        <v>134849.6197</v>
+      </c>
+      <c r="G127" t="n">
+        <v>11751360.62683683</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2717.1816</v>
+      </c>
+      <c r="G128" t="n">
+        <v>11748643.44523683</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F129" t="n">
+        <v>9975</v>
+      </c>
+      <c r="G129" t="n">
+        <v>11748643.44523683</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7852.575</v>
+      </c>
+      <c r="G130" t="n">
+        <v>11748643.44523683</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F131" t="n">
+        <v>27589.3471</v>
+      </c>
+      <c r="G131" t="n">
+        <v>11721054.09813683</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F132" t="n">
+        <v>70178.53660000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>11650875.56153683</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9776.625899999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>11660652.18743683</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F134" t="n">
+        <v>19394.48</v>
+      </c>
+      <c r="G134" t="n">
+        <v>11680046.66743683</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="C135" t="n">
+        <v>7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23328.1493</v>
+      </c>
+      <c r="G135" t="n">
+        <v>11703374.81673683</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>13473.0539</v>
+      </c>
+      <c r="G136" t="n">
+        <v>11703374.81673683</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>26456.0679</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11703374.81673683</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="C138" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="E138" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="F138" t="n">
+        <v>89314.6173</v>
+      </c>
+      <c r="G138" t="n">
+        <v>11792689.43403683</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C139" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F139" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>11842689.43403683</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E140" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11942689.43403683</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C141" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F141" t="n">
+        <v>390461.5598</v>
+      </c>
+      <c r="G141" t="n">
+        <v>12333150.99383683</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C142" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E142" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F142" t="n">
+        <v>128424.7234</v>
+      </c>
+      <c r="G142" t="n">
+        <v>12333150.99383683</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4500</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12337650.99383683</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F144" t="n">
+        <v>336207.7352</v>
+      </c>
+      <c r="G144" t="n">
+        <v>12001443.25863683</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F145" t="n">
+        <v>561862.4577</v>
+      </c>
+      <c r="G145" t="n">
+        <v>12563305.71633683</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>580144.8676999999</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13143450.58403683</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>13152450.58403683</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E148" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F148" t="n">
+        <v>313673.8851</v>
+      </c>
+      <c r="G148" t="n">
+        <v>12838776.69893683</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E149" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>40402.7894</v>
+      </c>
+      <c r="G149" t="n">
+        <v>12798373.90953683</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="C150" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F150" t="n">
+        <v>112676.4515</v>
+      </c>
+      <c r="G150" t="n">
+        <v>12911050.36103683</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C151" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D151" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E151" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>107588.8863</v>
+      </c>
+      <c r="G151" t="n">
+        <v>12803461.47473683</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F152" t="n">
+        <v>42032.1156</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12845493.59033683</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F153" t="n">
+        <v>255786.2276</v>
+      </c>
+      <c r="G153" t="n">
+        <v>12589707.36273683</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>691859.1176999999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>12589707.36273683</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F155" t="n">
+        <v>10</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12589717.36273683</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G156" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8460</v>
+      </c>
+      <c r="G157" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15100.2898</v>
+      </c>
+      <c r="G158" t="n">
+        <v>12573217.36273683</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F159" t="n">
+        <v>206045.8388</v>
+      </c>
+      <c r="G159" t="n">
+        <v>12779263.20153683</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F160" t="n">
+        <v>962778.0503</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12779263.20153683</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G161" t="n">
+        <v>12781253.20153683</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>12791253.20153683</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D163" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F163" t="n">
+        <v>20533.9712</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12770719.23033683</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7339.4838</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12770719.23033683</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F165" t="n">
+        <v>102913.0294</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12667806.20093683</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6998.556</v>
+      </c>
+      <c r="G166" t="n">
+        <v>12660807.64493683</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F167" t="n">
+        <v>20602.0623</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12640205.58263683</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7201.709</v>
+      </c>
+      <c r="G168" t="n">
+        <v>12640205.58263683</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15062.5391</v>
+      </c>
+      <c r="G169" t="n">
+        <v>12625143.04353683</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>12635143.04353683</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F171" t="n">
+        <v>39030.8432</v>
+      </c>
+      <c r="G171" t="n">
+        <v>12596112.20033683</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F172" t="n">
+        <v>9980.9144</v>
+      </c>
+      <c r="G172" t="n">
+        <v>12596112.20033683</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+      <c r="G173" t="n">
+        <v>12596212.20033683</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F174" t="n">
+        <v>10</v>
+      </c>
+      <c r="G174" t="n">
+        <v>12596222.20033683</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F175" t="n">
+        <v>595307.6922</v>
+      </c>
+      <c r="G175" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F176" t="n">
+        <v>125469.1568</v>
+      </c>
+      <c r="G176" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="F177" t="n">
+        <v>36633.5521</v>
+      </c>
+      <c r="G177" t="n">
+        <v>12000914.50813683</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6220</v>
+      </c>
+      <c r="G178" t="n">
+        <v>11994694.50813683</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12653.6857</v>
+      </c>
+      <c r="G179" t="n">
+        <v>11982040.82243683</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F180" t="n">
+        <v>640</v>
+      </c>
+      <c r="G180" t="n">
+        <v>11982680.82243683</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20782.8358</v>
+      </c>
+      <c r="G181" t="n">
+        <v>12003463.65823683</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2384629.4319</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>2384629.4319</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>6.5</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>6.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>2386727.7611</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>6.5</v>
       </c>
-      <c r="K5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +603,23 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="J6" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K6" t="n">
         <v>6.5</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,26 +644,23 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6.54</v>
       </c>
       <c r="J7" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="K7" t="n">
         <v>6.5</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -710,22 +687,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>6.5</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,24 +724,23 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="J9" t="n">
         <v>6.5</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,22 +767,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>6.5</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,22 +806,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>6.5</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,24 +843,23 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>6.5</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +886,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>6.5</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +925,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>6.5</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +964,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>6.5</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +1003,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>6.5</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +1042,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>6.5</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1081,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>6.5</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1120,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>6.5</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1159,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>6.5</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1198,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>6.5</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1237,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>6.5</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1276,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>6.5</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1315,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>6.5</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,22 +1354,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>6.5</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,22 +1393,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>6.5</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1508,22 +1432,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>6.5</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1550,22 +1471,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>6.5</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1592,22 +1510,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>6.5</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1634,22 +1549,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>6.5</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1676,22 +1588,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>6.5</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1718,22 +1627,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>6.5</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1760,22 +1666,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>6.5</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1802,22 +1705,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>6.5</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1842,24 +1742,23 @@
         <v>8779808.280208867</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>6.5</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L35" t="n">
+        <v>1.148846153846154</v>
+      </c>
       <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1.006191950464396</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1886,22 +1785,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1926,24 +1816,15 @@
         <v>10326980.21530887</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1970,24 +1851,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1.155</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.006191950464396</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2014,16 +1884,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,16 +1917,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2086,16 +1950,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2122,16 +1983,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2158,16 +2016,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2194,16 +2049,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2230,16 +2082,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2266,16 +2115,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2302,16 +2148,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2338,16 +2181,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2374,16 +2214,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2410,16 +2247,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2446,16 +2280,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2482,16 +2313,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2518,16 +2346,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,16 +2379,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2590,16 +2412,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2626,16 +2445,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2662,16 +2478,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2698,16 +2511,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2734,16 +2544,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2770,16 +2577,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2806,16 +2610,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2842,16 +2643,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2878,16 +2676,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2914,16 +2709,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2950,16 +2742,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2984,18 +2773,15 @@
         <v>10166782.32810887</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3022,16 +2808,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3056,18 +2839,15 @@
         <v>10078563.22650887</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3094,16 +2874,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3130,16 +2907,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3166,16 +2940,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3202,16 +2973,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3238,16 +3006,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3272,18 +3037,15 @@
         <v>11175443.33700887</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3310,16 +3072,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3344,18 +3103,15 @@
         <v>11175343.33700887</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3380,18 +3136,15 @@
         <v>11172081.33700887</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,18 +3169,15 @@
         <v>11202004.70120887</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3454,16 +3204,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3490,16 +3237,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3526,16 +3270,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3562,16 +3303,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3598,16 +3336,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3634,16 +3369,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3670,16 +3402,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3706,16 +3435,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3742,16 +3468,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3778,16 +3501,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3814,16 +3534,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3850,16 +3567,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3886,16 +3600,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3922,16 +3633,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3958,16 +3666,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3994,16 +3699,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4030,16 +3732,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4066,16 +3765,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4102,16 +3798,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4138,16 +3831,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4174,16 +3864,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4210,16 +3897,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4246,16 +3930,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4282,16 +3963,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4318,16 +3996,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4354,16 +4029,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4390,16 +4062,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4426,16 +4095,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4462,16 +4128,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4498,16 +4161,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4534,16 +4194,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4570,16 +4227,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4606,16 +4260,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4642,16 +4293,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4678,16 +4326,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4714,16 +4359,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4750,16 +4392,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4786,16 +4425,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4822,16 +4458,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4858,16 +4491,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4892,18 +4522,15 @@
         <v>11708638.02670887</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4928,18 +4555,15 @@
         <v>11716510.28242435</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4966,16 +4590,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5002,16 +4623,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5036,18 +4654,15 @@
         <v>11694319.38383683</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5072,18 +4687,15 @@
         <v>11624140.84733683</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5108,18 +4720,15 @@
         <v>11624240.84733683</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5146,16 +4755,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5182,16 +4788,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5218,16 +4821,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5254,16 +4854,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5290,16 +4887,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5326,16 +4920,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5362,16 +4953,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5398,16 +4986,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5434,16 +5019,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5470,16 +5052,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5506,16 +5085,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5542,16 +5118,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5576,18 +5149,15 @@
         <v>11792689.43403683</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5612,18 +5182,15 @@
         <v>11842689.43403683</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5648,18 +5215,15 @@
         <v>11942689.43403683</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5684,18 +5248,15 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5720,18 +5281,15 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5756,18 +5314,15 @@
         <v>12337650.99383683</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5792,18 +5347,15 @@
         <v>12001443.25863683</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5828,18 +5380,15 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5864,18 +5413,15 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5900,18 +5446,15 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5936,18 +5479,15 @@
         <v>12838776.69893683</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5972,18 +5512,15 @@
         <v>12798373.90953683</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6008,18 +5545,15 @@
         <v>12911050.36103683</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6046,16 +5580,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6082,16 +5613,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6118,16 +5646,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6154,16 +5679,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6190,16 +5712,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6226,16 +5745,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6262,16 +5778,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6298,16 +5811,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6334,16 +5844,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6370,16 +5877,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6406,16 +5910,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6442,16 +5943,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6478,16 +5976,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6514,16 +6009,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6550,16 +6042,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6586,16 +6075,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6622,16 +6108,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6658,16 +6141,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6694,16 +6174,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6730,16 +6207,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6766,16 +6240,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6802,16 +6273,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6838,16 +6306,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6874,16 +6339,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6910,16 +6372,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6946,16 +6405,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6982,16 +6438,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7018,16 +6471,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7054,16 +6504,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7090,16 +6537,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7126,18 +6570,15 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2384629.4319</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2384629.4319</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
@@ -521,7 +521,7 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
@@ -562,7 +562,7 @@
         <v>2386727.7611</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.5</v>
@@ -603,7 +603,7 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.52</v>
@@ -644,7 +644,7 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.54</v>
@@ -685,9 +685,11 @@
         <v>3263337.7403</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.6</v>
+      </c>
       <c r="J8" t="n">
         <v>6.5</v>
       </c>
@@ -724,7 +726,7 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6.64</v>
@@ -765,9 +767,11 @@
         <v>3773750.0189</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.72</v>
+      </c>
       <c r="J10" t="n">
         <v>6.5</v>
       </c>
@@ -804,9 +808,11 @@
         <v>3773750.0189</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.7</v>
+      </c>
       <c r="J11" t="n">
         <v>6.5</v>
       </c>
@@ -843,7 +849,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.7</v>
@@ -923,9 +929,11 @@
         <v>4198964.0789</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.73</v>
+      </c>
       <c r="J14" t="n">
         <v>6.5</v>
       </c>
@@ -962,9 +970,11 @@
         <v>4345897.1352</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.72</v>
+      </c>
       <c r="J15" t="n">
         <v>6.5</v>
       </c>
@@ -1001,9 +1011,11 @@
         <v>6033426.8397</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.73</v>
+      </c>
       <c r="J16" t="n">
         <v>6.5</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>8779808.280208867</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1750,15 +1762,13 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.148846153846154</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.006191950464396</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1786,8 +1796,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1816,11 +1832,17 @@
         <v>10326980.21530887</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1852,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1885,8 +1913,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1918,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1951,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1984,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2017,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2050,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2083,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2116,8 +2186,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2149,8 +2225,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2182,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2215,8 +2303,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2248,8 +2342,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2281,8 +2381,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2311,15 +2417,23 @@
         <v>10692243.20020887</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>1.098076923076923</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.006191950464396</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2344,7 +2458,7 @@
         <v>10465966.96800887</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2377,7 +2491,7 @@
         <v>10469566.96800887</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2410,7 +2524,7 @@
         <v>10473144.65560887</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2443,7 +2557,7 @@
         <v>10491423.19290887</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2476,7 +2590,7 @@
         <v>10424126.61850887</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2509,7 +2623,7 @@
         <v>10266110.91140887</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2542,7 +2656,7 @@
         <v>10265709.63700887</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2575,7 +2689,7 @@
         <v>10260730.88900887</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2608,7 +2722,7 @@
         <v>10236716.74860887</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2641,7 +2755,7 @@
         <v>10236716.74860887</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2674,7 +2788,7 @@
         <v>10237656.51290887</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2707,7 +2821,7 @@
         <v>10235286.84850887</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2740,7 +2854,7 @@
         <v>10158782.91480887</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2773,7 +2887,7 @@
         <v>10166782.32810887</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2806,7 +2920,7 @@
         <v>10260843.63370887</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2839,7 +2953,7 @@
         <v>10078563.22650887</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2872,7 +2986,7 @@
         <v>10450711.69540887</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2938,7 +3052,7 @@
         <v>10796752.07920887</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2971,7 +3085,7 @@
         <v>10785552.07920887</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3004,7 +3118,7 @@
         <v>10785502.07920887</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3037,7 +3151,7 @@
         <v>11175443.33700887</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3103,7 +3217,7 @@
         <v>11175343.33700887</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3136,7 +3250,7 @@
         <v>11172081.33700887</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3169,7 +3283,7 @@
         <v>11202004.70120887</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3301,7 +3415,7 @@
         <v>11036163.87840887</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3367,7 +3481,7 @@
         <v>11451239.52660887</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3532,7 +3646,7 @@
         <v>11500522.06840887</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3598,7 +3712,7 @@
         <v>11589204.90300887</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3631,7 +3745,7 @@
         <v>11769712.70630887</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3664,7 +3778,7 @@
         <v>11932712.70630887</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3697,7 +3811,7 @@
         <v>11932662.70630887</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3730,7 +3844,7 @@
         <v>11931203.58230887</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3763,7 +3877,7 @@
         <v>11917724.82570887</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3829,7 +3943,7 @@
         <v>11906973.70870887</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3862,7 +3976,7 @@
         <v>11911276.62840887</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3895,7 +4009,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3928,7 +4042,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3961,7 +4075,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3994,7 +4108,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4027,7 +4141,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4060,7 +4174,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4093,7 +4207,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4126,7 +4240,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4159,7 +4273,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4192,7 +4306,7 @@
         <v>11909739.96520887</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4225,7 +4339,7 @@
         <v>11916586.54150887</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4258,7 +4372,7 @@
         <v>11913976.90190887</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4291,7 +4405,7 @@
         <v>11824218.12420887</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4324,7 +4438,7 @@
         <v>11834218.12420887</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4357,7 +4471,7 @@
         <v>11818971.99860887</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4390,7 +4504,7 @@
         <v>11819271.99860887</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4423,7 +4537,7 @@
         <v>11757496.26770887</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4522,7 +4636,7 @@
         <v>11708638.02670887</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4555,7 +4669,7 @@
         <v>11716510.28242435</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4654,7 +4768,7 @@
         <v>11694319.38383683</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4687,7 +4801,7 @@
         <v>11624140.84733683</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4720,7 +4834,7 @@
         <v>11624240.84733683</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4852,7 +4966,7 @@
         <v>11748643.44523683</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4885,7 +4999,7 @@
         <v>11748643.44523683</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4918,7 +5032,7 @@
         <v>11721054.09813683</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4951,7 +5065,7 @@
         <v>11650875.56153683</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4984,7 +5098,7 @@
         <v>11660652.18743683</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5017,7 +5131,7 @@
         <v>11680046.66743683</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5050,7 +5164,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5083,7 +5197,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5116,7 +5230,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5149,7 +5263,7 @@
         <v>11792689.43403683</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5182,7 +5296,7 @@
         <v>11842689.43403683</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5215,7 +5329,7 @@
         <v>11942689.43403683</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5248,7 +5362,7 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5281,7 +5395,7 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5314,7 +5428,7 @@
         <v>12337650.99383683</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5347,7 +5461,7 @@
         <v>12001443.25863683</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5380,7 +5494,7 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5413,7 +5527,7 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5446,7 +5560,7 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5479,7 +5593,7 @@
         <v>12838776.69893683</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5512,7 +5626,7 @@
         <v>12798373.90953683</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5545,7 +5659,7 @@
         <v>12911050.36103683</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5875,7 +5989,7 @@
         <v>12779263.20153683</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5908,7 +6022,7 @@
         <v>12781253.20153683</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5941,7 +6055,7 @@
         <v>12791253.20153683</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5974,7 +6088,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6007,7 +6121,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6040,7 +6154,7 @@
         <v>12667806.20093683</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6073,7 +6187,7 @@
         <v>12660807.64493683</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6106,7 +6220,7 @@
         <v>12640205.58263683</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6139,7 +6253,7 @@
         <v>12640205.58263683</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6172,7 +6286,7 @@
         <v>12625143.04353683</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6205,7 +6319,7 @@
         <v>12635143.04353683</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6238,7 +6352,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6271,7 +6385,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6304,7 +6418,7 @@
         <v>12596212.20033683</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6337,7 +6451,7 @@
         <v>12596222.20033683</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6370,7 +6484,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6403,7 +6517,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6436,7 +6550,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6469,7 +6583,7 @@
         <v>11994694.50813683</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6535,7 +6649,7 @@
         <v>11982680.82243683</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6568,7 +6682,7 @@
         <v>12003463.65823683</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6579,6 +6693,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>6.5</v>
       </c>
@@ -603,11 +601,9 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>6.5</v>
       </c>
@@ -644,11 +640,9 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>6.5</v>
       </c>
@@ -685,11 +679,9 @@
         <v>3263337.7403</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>6.5</v>
       </c>
@@ -726,11 +718,9 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>6.5</v>
       </c>
@@ -767,11 +757,9 @@
         <v>3773750.0189</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.72</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>6.5</v>
       </c>
@@ -808,11 +796,9 @@
         <v>3773750.0189</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>6.5</v>
       </c>
@@ -849,11 +835,9 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>6.5</v>
       </c>
@@ -890,7 +874,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -929,11 +913,9 @@
         <v>4198964.0789</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>6.5</v>
       </c>
@@ -970,11 +952,9 @@
         <v>4345897.1352</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.72</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>6.5</v>
       </c>
@@ -1011,21 +991,19 @@
         <v>6033426.8397</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.73</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>6.5</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>1.048846153846154</v>
       </c>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -1052,17 +1030,11 @@
         <v>6188424.2788</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,17 +1063,11 @@
         <v>6182999.303400001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1130,17 +1096,11 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,17 +1129,11 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1165,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1247,17 +1195,11 @@
         <v>6701236.263776107</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1231,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1264,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1367,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1330,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1363,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1396,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1429,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1462,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1495,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1528,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1718,14 +1594,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1757,14 +1627,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1796,14 +1660,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1693,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1759,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1952,14 +1792,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1991,14 +1825,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2030,14 +1858,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2069,14 +1891,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2147,14 +1957,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2186,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2225,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2264,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2342,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2417,23 +2185,15 @@
         <v>10692243.20020887</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.098076923076923</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.006191950464396</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2458,7 +2218,7 @@
         <v>10465966.96800887</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2491,7 +2251,7 @@
         <v>10469566.96800887</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2524,7 +2284,7 @@
         <v>10473144.65560887</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2557,7 +2317,7 @@
         <v>10491423.19290887</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2590,7 +2350,7 @@
         <v>10424126.61850887</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2623,7 +2383,7 @@
         <v>10266110.91140887</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2656,7 +2416,7 @@
         <v>10265709.63700887</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2689,7 +2449,7 @@
         <v>10260730.88900887</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2722,7 +2482,7 @@
         <v>10236716.74860887</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2755,7 +2515,7 @@
         <v>10236716.74860887</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2887,7 +2647,7 @@
         <v>10166782.32810887</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2920,7 +2680,7 @@
         <v>10260843.63370887</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2953,7 +2713,7 @@
         <v>10078563.22650887</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2986,7 +2746,7 @@
         <v>10450711.69540887</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3052,7 +2812,7 @@
         <v>10796752.07920887</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3085,7 +2845,7 @@
         <v>10785552.07920887</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3118,7 +2878,7 @@
         <v>10785502.07920887</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3151,7 +2911,7 @@
         <v>11175443.33700887</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3217,7 +2977,7 @@
         <v>11175343.33700887</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3415,7 +3175,7 @@
         <v>11036163.87840887</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3481,7 +3241,7 @@
         <v>11451239.52660887</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3646,7 +3406,7 @@
         <v>11500522.06840887</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3712,7 +3472,7 @@
         <v>11589204.90300887</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3745,7 +3505,7 @@
         <v>11769712.70630887</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3778,7 +3538,7 @@
         <v>11932712.70630887</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3811,7 +3571,7 @@
         <v>11932662.70630887</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3844,7 +3604,7 @@
         <v>11931203.58230887</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3877,7 +3637,7 @@
         <v>11917724.82570887</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3943,7 +3703,7 @@
         <v>11906973.70870887</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3976,7 +3736,7 @@
         <v>11911276.62840887</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4009,7 +3769,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4042,7 +3802,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4075,7 +3835,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4108,7 +3868,7 @@
         <v>11895137.28040887</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4141,7 +3901,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4174,7 +3934,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4207,7 +3967,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4240,7 +4000,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4273,7 +4033,7 @@
         <v>11897510.47620887</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4306,7 +4066,7 @@
         <v>11909739.96520887</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4339,7 +4099,7 @@
         <v>11916586.54150887</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4372,7 +4132,7 @@
         <v>11913976.90190887</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4405,7 +4165,7 @@
         <v>11824218.12420887</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4438,7 +4198,7 @@
         <v>11834218.12420887</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4471,7 +4231,7 @@
         <v>11818971.99860887</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4504,7 +4264,7 @@
         <v>11819271.99860887</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4537,7 +4297,7 @@
         <v>11757496.26770887</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4966,7 +4726,7 @@
         <v>11748643.44523683</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4999,7 +4759,7 @@
         <v>11748643.44523683</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5032,7 +4792,7 @@
         <v>11721054.09813683</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5065,7 +4825,7 @@
         <v>11650875.56153683</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5098,7 +4858,7 @@
         <v>11660652.18743683</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5131,7 +4891,7 @@
         <v>11680046.66743683</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5164,7 +4924,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5197,7 +4957,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5230,7 +4990,7 @@
         <v>11703374.81673683</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5263,7 +5023,7 @@
         <v>11792689.43403683</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5296,7 +5056,7 @@
         <v>11842689.43403683</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5329,7 +5089,7 @@
         <v>11942689.43403683</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5362,7 +5122,7 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5395,7 +5155,7 @@
         <v>12333150.99383683</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5428,7 +5188,7 @@
         <v>12337650.99383683</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5461,7 +5221,7 @@
         <v>12001443.25863683</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5494,7 +5254,7 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5527,7 +5287,7 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5560,7 +5320,7 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5989,7 +5749,7 @@
         <v>12779263.20153683</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6022,7 +5782,7 @@
         <v>12781253.20153683</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6055,7 +5815,7 @@
         <v>12791253.20153683</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6088,7 +5848,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6121,7 +5881,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6154,7 +5914,7 @@
         <v>12667806.20093683</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6187,7 +5947,7 @@
         <v>12660807.64493683</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6220,7 +5980,7 @@
         <v>12640205.58263683</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6253,7 +6013,7 @@
         <v>12640205.58263683</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6286,7 +6046,7 @@
         <v>12625143.04353683</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6319,7 +6079,7 @@
         <v>12635143.04353683</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6352,7 +6112,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6385,7 +6145,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6418,7 +6178,7 @@
         <v>12596212.20033683</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6451,7 +6211,7 @@
         <v>12596222.20033683</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6484,7 +6244,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6517,7 +6277,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6550,7 +6310,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6583,7 +6343,7 @@
         <v>11994694.50813683</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6649,7 +6409,7 @@
         <v>11982680.82243683</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6682,7 +6442,7 @@
         <v>12003463.65823683</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6693,6 +6453,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -521,9 +521,11 @@
         <v>2384629.4319</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.5</v>
+      </c>
       <c r="J4" t="n">
         <v>6.5</v>
       </c>
@@ -601,9 +603,11 @@
         <v>2439669.4468</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.52</v>
+      </c>
       <c r="J6" t="n">
         <v>6.5</v>
       </c>
@@ -640,7 +644,7 @@
         <v>3131187.4886</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
@@ -679,7 +683,7 @@
         <v>3263337.7403</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
@@ -718,7 +722,7 @@
         <v>3778798.8718</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
@@ -757,7 +761,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -796,7 +800,7 @@
         <v>3773750.0189</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
@@ -835,7 +839,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
@@ -874,7 +878,7 @@
         <v>4214565.8554</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -913,7 +917,7 @@
         <v>4198964.0789</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -952,7 +956,7 @@
         <v>4345897.1352</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -991,7 +995,7 @@
         <v>6033426.8397</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -999,11 +1003,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.048846153846154</v>
+        <v>1</v>
       </c>
       <c r="M16" t="inlineStr"/>
     </row>
@@ -1030,11 +1034,17 @@
         <v>6188424.2788</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +1073,17 @@
         <v>6182999.303400001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1096,11 +1112,17 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1129,11 +1151,17 @@
         <v>6307722.016076107</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1229,17 @@
         <v>6701236.263776107</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1330,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1363,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1396,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1495,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1528,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1594,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1627,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1657,15 +1775,23 @@
         <v>8759864.942408867</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.119615384615385</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.006191950464396</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1723,7 +1849,7 @@
         <v>11531587.33910887</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1756,7 +1882,7 @@
         <v>11396006.25830887</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1789,7 +1915,7 @@
         <v>10657942.52070887</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1822,7 +1948,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1855,7 +1981,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1888,7 +2014,7 @@
         <v>10590155.99550887</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1921,7 +2047,7 @@
         <v>10590165.99550887</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1954,7 +2080,7 @@
         <v>10548654.43840887</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1987,7 +2113,7 @@
         <v>10576933.06430887</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2053,7 +2179,7 @@
         <v>10576917.17130887</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2152,7 +2278,7 @@
         <v>10714030.36890887</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2185,7 +2311,7 @@
         <v>10692243.20020887</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2218,7 +2344,7 @@
         <v>10465966.96800887</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2284,7 +2410,7 @@
         <v>10473144.65560887</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2350,7 +2476,7 @@
         <v>10424126.61850887</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2383,7 +2509,7 @@
         <v>10266110.91140887</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2416,7 +2542,7 @@
         <v>10265709.63700887</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2548,7 +2674,7 @@
         <v>10237656.51290887</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2581,7 +2707,7 @@
         <v>10235286.84850887</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2614,7 +2740,7 @@
         <v>10158782.91480887</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -4561,7 +4687,7 @@
         <v>11624140.84733683</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5188,7 +5314,7 @@
         <v>12337650.99383683</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5221,7 +5347,7 @@
         <v>12001443.25863683</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5254,7 +5380,7 @@
         <v>12563305.71633683</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5287,7 +5413,7 @@
         <v>13143450.58403683</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5320,7 +5446,7 @@
         <v>13152450.58403683</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5353,7 +5479,7 @@
         <v>12838776.69893683</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5386,7 +5512,7 @@
         <v>12798373.90953683</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5419,7 +5545,7 @@
         <v>12911050.36103683</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5452,7 +5578,7 @@
         <v>12803461.47473683</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5485,7 +5611,7 @@
         <v>12845493.59033683</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5518,7 +5644,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5551,7 +5677,7 @@
         <v>12589707.36273683</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5584,7 +5710,7 @@
         <v>12589717.36273683</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5617,7 +5743,7 @@
         <v>12573217.36273683</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5848,7 +5974,7 @@
         <v>12770719.23033683</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6112,7 +6238,7 @@
         <v>12596112.20033683</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6244,7 +6370,7 @@
         <v>12000914.50813683</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest IOST.xlsx
+++ b/BackTest/2019-10-28 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>155121.2307</v>
       </c>
       <c r="G2" t="n">
-        <v>2384629.4319</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>118471.4188</v>
       </c>
       <c r="G3" t="n">
-        <v>2384629.4319</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>92899.5852</v>
       </c>
       <c r="G4" t="n">
-        <v>2384629.4319</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>2098.3292</v>
       </c>
       <c r="G5" t="n">
-        <v>2386727.7611</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
         <v>6.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>52941.6857</v>
       </c>
       <c r="G6" t="n">
-        <v>2439669.4468</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6.52</v>
       </c>
       <c r="I6" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="J6" t="n">
         <v>6.5</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,24 +621,21 @@
         <v>691518.0418</v>
       </c>
       <c r="G7" t="n">
-        <v>3131187.4886</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>6.5</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,24 +657,21 @@
         <v>132150.2517</v>
       </c>
       <c r="G8" t="n">
-        <v>3263337.7403</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>6.5</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,24 +693,21 @@
         <v>515461.1315</v>
       </c>
       <c r="G9" t="n">
-        <v>3778798.8718</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>6.5</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -758,24 +729,21 @@
         <v>5048.8529</v>
       </c>
       <c r="G10" t="n">
-        <v>3773750.0189</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>6.5</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +765,21 @@
         <v>32101.5357</v>
       </c>
       <c r="G11" t="n">
-        <v>3773750.0189</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
         <v>6.5</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +801,21 @@
         <v>440815.8365</v>
       </c>
       <c r="G12" t="n">
-        <v>4214565.8554</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>6.5</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +837,21 @@
         <v>114723.345</v>
       </c>
       <c r="G13" t="n">
-        <v>4214565.8554</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>6.5</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +873,21 @@
         <v>15601.7765</v>
       </c>
       <c r="G14" t="n">
-        <v>4198964.0789</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>6.5</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +909,21 @@
         <v>146933.0563</v>
       </c>
       <c r="G15" t="n">
-        <v>4345897.1352</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>6.5</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +945,21 @@
         <v>1687529.7045</v>
       </c>
       <c r="G16" t="n">
-        <v>6033426.8397</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>6.5</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,24 +981,21 @@
         <v>154997.4391</v>
       </c>
       <c r="G17" t="n">
-        <v>6188424.2788</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>6.5</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,24 +1017,21 @@
         <v>5424.9754</v>
       </c>
       <c r="G18" t="n">
-        <v>6182999.303400001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>6.5</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,24 +1053,21 @@
         <v>124722.7126761062</v>
       </c>
       <c r="G19" t="n">
-        <v>6307722.016076107</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>6.5</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,24 +1089,21 @@
         <v>5238.4572</v>
       </c>
       <c r="G20" t="n">
-        <v>6307722.016076107</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>6.5</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,24 +1125,21 @@
         <v>18329.4435</v>
       </c>
       <c r="G21" t="n">
-        <v>6289392.572576107</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>6.5</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,24 +1161,21 @@
         <v>411843.6912</v>
       </c>
       <c r="G22" t="n">
-        <v>6701236.263776107</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>6.5</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,24 +1197,21 @@
         <v>18515.7344</v>
       </c>
       <c r="G23" t="n">
-        <v>6719751.998176107</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>6.5</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,24 +1233,21 @@
         <v>18523.3378</v>
       </c>
       <c r="G24" t="n">
-        <v>6738275.335976107</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>6.5</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,24 +1269,21 @@
         <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>6728275.335976107</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>6.5</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,24 +1305,21 @@
         <v>100.13</v>
       </c>
       <c r="G26" t="n">
-        <v>6728375.465976107</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>6.5</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,24 +1341,21 @@
         <v>9000</v>
       </c>
       <c r="G27" t="n">
-        <v>6719375.465976107</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>6.5</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1377,21 @@
         <v>1233.5241</v>
       </c>
       <c r="G28" t="n">
-        <v>6720608.990076107</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>6.5</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,24 +1413,21 @@
         <v>101894.9129</v>
       </c>
       <c r="G29" t="n">
-        <v>6618714.077176107</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>6.5</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,24 +1449,21 @@
         <v>232273.5165</v>
       </c>
       <c r="G30" t="n">
-        <v>6850987.593676107</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>6.5</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,24 +1485,21 @@
         <v>230612.4153</v>
       </c>
       <c r="G31" t="n">
-        <v>7081600.008976107</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>6.5</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,24 +1521,21 @@
         <v>82973.0606</v>
       </c>
       <c r="G32" t="n">
-        <v>7081600.008976107</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>6.5</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,24 +1557,21 @@
         <v>478791.0874575554</v>
       </c>
       <c r="G33" t="n">
-        <v>7560391.096433663</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>6.5</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,24 +1593,21 @@
         <v>33467.86892109589</v>
       </c>
       <c r="G34" t="n">
-        <v>7560391.096433663</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
         <v>6.5</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,24 +1629,21 @@
         <v>1219417.183775205</v>
       </c>
       <c r="G35" t="n">
-        <v>8779808.280208867</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
         <v>6.5</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,92 +1665,95 @@
         <v>19943.3378</v>
       </c>
       <c r="G36" t="n">
-        <v>8759864.942408867</v>
-      </c>
-      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1567115.2729</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C38" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1204607.1238</v>
+      </c>
+      <c r="G38" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>6.5</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1.119615384615385</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="K38" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="L38" t="n">
         <v>1.006191950464396</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1567115.2729</v>
-      </c>
-      <c r="G37" t="n">
-        <v>10326980.21530887</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1204607.1238</v>
-      </c>
-      <c r="G38" t="n">
-        <v>11531587.33910887</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1879,18 +1775,15 @@
         <v>135581.0808</v>
       </c>
       <c r="G39" t="n">
-        <v>11396006.25830887</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1912,18 +1805,15 @@
         <v>738063.7376</v>
       </c>
       <c r="G40" t="n">
-        <v>10657942.52070887</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1945,18 +1835,15 @@
         <v>67786.5252</v>
       </c>
       <c r="G41" t="n">
-        <v>10590155.99550887</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1978,18 +1865,15 @@
         <v>68388.4081</v>
       </c>
       <c r="G42" t="n">
-        <v>10590155.99550887</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2011,18 +1895,15 @@
         <v>35633.7833</v>
       </c>
       <c r="G43" t="n">
-        <v>10590155.99550887</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,18 +1925,15 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>10590165.99550887</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2077,18 +1955,15 @@
         <v>41511.5571</v>
       </c>
       <c r="G45" t="n">
-        <v>10548654.43840887</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2110,18 +1985,15 @@
         <v>28278.6259</v>
       </c>
       <c r="G46" t="n">
-        <v>10576933.06430887</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2143,18 +2015,15 @@
         <v>343694.217</v>
       </c>
       <c r="G47" t="n">
-        <v>10920627.28130887</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2176,18 +2045,15 @@
         <v>343710.11</v>
       </c>
       <c r="G48" t="n">
-        <v>10576917.17130887</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2209,18 +2075,15 @@
         <v>104110</v>
       </c>
       <c r="G49" t="n">
-        <v>10681027.17130887</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,18 +2105,15 @@
         <v>20678.473</v>
       </c>
       <c r="G50" t="n">
-        <v>10660348.69830887</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2275,18 +2135,15 @@
         <v>53681.6706</v>
       </c>
       <c r="G51" t="n">
-        <v>10714030.36890887</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2308,18 +2165,15 @@
         <v>21787.1687</v>
       </c>
       <c r="G52" t="n">
-        <v>10692243.20020887</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2341,18 +2195,15 @@
         <v>226276.2322</v>
       </c>
       <c r="G53" t="n">
-        <v>10465966.96800887</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,18 +2225,15 @@
         <v>3600</v>
       </c>
       <c r="G54" t="n">
-        <v>10469566.96800887</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2407,18 +2255,15 @@
         <v>3577.6876</v>
       </c>
       <c r="G55" t="n">
-        <v>10473144.65560887</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2440,18 +2285,15 @@
         <v>18278.5373</v>
       </c>
       <c r="G56" t="n">
-        <v>10491423.19290887</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2473,18 +2315,15 @@
         <v>67296.5744</v>
       </c>
       <c r="G57" t="n">
-        <v>10424126.61850887</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2506,18 +2345,15 @@
         <v>158015.7071</v>
       </c>
       <c r="G58" t="n">
-        <v>10266110.91140887</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2539,18 +2375,15 @@
         <v>401.2744</v>
       </c>
       <c r="G59" t="n">
-        <v>10265709.63700887</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2572,18 +2405,15 @@
         <v>4978.748</v>
       </c>
       <c r="G60" t="n">
-        <v>10260730.88900887</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2605,18 +2435,15 @@
         <v>24014.1404</v>
       </c>
       <c r="G61" t="n">
-        <v>10236716.74860887</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,18 +2465,15 @@
         <v>6311.3892</v>
       </c>
       <c r="G62" t="n">
-        <v>10236716.74860887</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2671,18 +2495,15 @@
         <v>939.7643</v>
       </c>
       <c r="G63" t="n">
-        <v>10237656.51290887</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,18 +2525,15 @@
         <v>2369.6644</v>
       </c>
       <c r="G64" t="n">
-        <v>10235286.84850887</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2737,18 +2555,15 @@
         <v>76503.93369999999</v>
       </c>
       <c r="G65" t="n">
-        <v>10158782.91480887</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2770,18 +2585,15 @@
         <v>7999.4133</v>
       </c>
       <c r="G66" t="n">
-        <v>10166782.32810887</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2803,18 +2615,15 @@
         <v>94061.30560000001</v>
       </c>
       <c r="G67" t="n">
-        <v>10260843.63370887</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2836,18 +2645,15 @@
         <v>182280.4072</v>
       </c>
       <c r="G68" t="n">
-        <v>10078563.22650887</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2869,18 +2675,15 @@
         <v>372148.4689</v>
       </c>
       <c r="G69" t="n">
-        <v>10450711.69540887</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2902,18 +2705,15 @@
         <v>340907.4335</v>
       </c>
       <c r="G70" t="n">
-        <v>10791619.12890887</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2935,18 +2735,15 @@
         <v>5132.9503</v>
       </c>
       <c r="G71" t="n">
-        <v>10796752.07920887</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2968,18 +2765,15 @@
         <v>11200</v>
       </c>
       <c r="G72" t="n">
-        <v>10785552.07920887</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3001,18 +2795,15 @@
         <v>50</v>
       </c>
       <c r="G73" t="n">
-        <v>10785502.07920887</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3034,18 +2825,15 @@
         <v>389941.2578</v>
       </c>
       <c r="G74" t="n">
-        <v>11175443.33700887</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3067,18 +2855,15 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>11175343.33700887</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3100,18 +2885,15 @@
         <v>4743.9272</v>
       </c>
       <c r="G76" t="n">
-        <v>11175343.33700887</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3133,18 +2915,15 @@
         <v>3262</v>
       </c>
       <c r="G77" t="n">
-        <v>11172081.33700887</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3166,18 +2945,15 @@
         <v>29923.3642</v>
       </c>
       <c r="G78" t="n">
-        <v>11202004.70120887</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3199,18 +2975,15 @@
         <v>117309.9485</v>
       </c>
       <c r="G79" t="n">
-        <v>11084694.75270887</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3232,18 +3005,15 @@
         <v>48030.8743</v>
       </c>
       <c r="G80" t="n">
-        <v>11036663.87840887</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3265,18 +3035,15 @@
         <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>11036163.87840887</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,18 +3065,15 @@
         <v>13287.0014</v>
       </c>
       <c r="G82" t="n">
-        <v>11036163.87840887</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3331,18 +3095,15 @@
         <v>415075.6482</v>
       </c>
       <c r="G83" t="n">
-        <v>11451239.52660887</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3364,18 +3125,15 @@
         <v>1148</v>
       </c>
       <c r="G84" t="n">
-        <v>11451239.52660887</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3397,18 +3155,15 @@
         <v>215.4531</v>
       </c>
       <c r="G85" t="n">
-        <v>11451239.52660887</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3430,18 +3185,15 @@
         <v>10650.887</v>
       </c>
       <c r="G86" t="n">
-        <v>11440588.63960887</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3463,18 +3215,15 @@
         <v>19498.3512</v>
       </c>
       <c r="G87" t="n">
-        <v>11440588.63960887</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3496,18 +3245,15 @@
         <v>59267.1504</v>
       </c>
       <c r="G88" t="n">
-        <v>11499855.79000887</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,18 +3275,15 @@
         <v>666.2784</v>
       </c>
       <c r="G89" t="n">
-        <v>11500522.06840887</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3562,18 +3305,15 @@
         <v>11317.1654</v>
       </c>
       <c r="G90" t="n">
-        <v>11489204.90300887</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,18 +3335,15 @@
         <v>100000</v>
       </c>
       <c r="G91" t="n">
-        <v>11589204.90300887</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3628,18 +3365,15 @@
         <v>180507.8033</v>
       </c>
       <c r="G92" t="n">
-        <v>11769712.70630887</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3661,18 +3395,15 @@
         <v>163000</v>
       </c>
       <c r="G93" t="n">
-        <v>11932712.70630887</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3694,18 +3425,15 @@
         <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>11932662.70630887</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3727,18 +3455,15 @@
         <v>1459.124</v>
       </c>
       <c r="G95" t="n">
-        <v>11931203.58230887</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3760,18 +3485,15 @@
         <v>13478.7566</v>
       </c>
       <c r="G96" t="n">
-        <v>11917724.82570887</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,18 +3515,15 @@
         <v>84</v>
       </c>
       <c r="G97" t="n">
-        <v>11917808.82570887</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3826,18 +3545,15 @@
         <v>10835.117</v>
       </c>
       <c r="G98" t="n">
-        <v>11906973.70870887</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3859,18 +3575,15 @@
         <v>4302.9197</v>
       </c>
       <c r="G99" t="n">
-        <v>11911276.62840887</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,18 +3605,15 @@
         <v>16139.348</v>
       </c>
       <c r="G100" t="n">
-        <v>11895137.28040887</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3925,18 +3635,15 @@
         <v>3000</v>
       </c>
       <c r="G101" t="n">
-        <v>11895137.28040887</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3958,18 +3665,15 @@
         <v>2000</v>
       </c>
       <c r="G102" t="n">
-        <v>11895137.28040887</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3991,18 +3695,15 @@
         <v>19843.3378</v>
       </c>
       <c r="G103" t="n">
-        <v>11895137.28040887</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4024,18 +3725,15 @@
         <v>2373.1958</v>
       </c>
       <c r="G104" t="n">
-        <v>11897510.47620887</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4057,18 +3755,15 @@
         <v>213.5493</v>
       </c>
       <c r="G105" t="n">
-        <v>11897510.47620887</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4090,18 +3785,15 @@
         <v>153.4609</v>
       </c>
       <c r="G106" t="n">
-        <v>11897510.47620887</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4123,18 +3815,15 @@
         <v>50.81</v>
       </c>
       <c r="G107" t="n">
-        <v>11897510.47620887</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4156,18 +3845,15 @@
         <v>11231.7695</v>
       </c>
       <c r="G108" t="n">
-        <v>11897510.47620887</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4189,18 +3875,15 @@
         <v>12229.489</v>
       </c>
       <c r="G109" t="n">
-        <v>11909739.96520887</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4222,18 +3905,15 @@
         <v>6846.5763</v>
       </c>
       <c r="G110" t="n">
-        <v>11916586.54150887</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4255,18 +3935,15 @@
         <v>2609.6396</v>
       </c>
       <c r="G111" t="n">
-        <v>11913976.90190887</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4288,18 +3965,15 @@
         <v>89758.77770000001</v>
       </c>
       <c r="G112" t="n">
-        <v>11824218.12420887</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4321,18 +3995,15 @@
         <v>10000</v>
       </c>
       <c r="G113" t="n">
-        <v>11834218.12420887</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4354,18 +4025,15 @@
         <v>15246.1256</v>
       </c>
       <c r="G114" t="n">
-        <v>11818971.99860887</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4387,18 +4055,15 @@
         <v>300</v>
       </c>
       <c r="G115" t="n">
-        <v>11819271.99860887</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4420,18 +4085,15 @@
         <v>61775.7309</v>
       </c>
       <c r="G116" t="n">
-        <v>11757496.26770887</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4453,18 +4115,15 @@
         <v>35971.223</v>
       </c>
       <c r="G117" t="n">
-        <v>11793467.49070887</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4486,18 +4145,15 @@
         <v>45290.4402</v>
       </c>
       <c r="G118" t="n">
-        <v>11748177.05050887</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4519,18 +4175,15 @@
         <v>39539.0238</v>
       </c>
       <c r="G119" t="n">
-        <v>11708638.02670887</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4552,18 +4205,15 @@
         <v>7872.255715481171</v>
       </c>
       <c r="G120" t="n">
-        <v>11716510.28242435</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4585,18 +4235,15 @@
         <v>111929.362</v>
       </c>
       <c r="G121" t="n">
-        <v>11604580.92042435</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4618,18 +4265,15 @@
         <v>200</v>
       </c>
       <c r="G122" t="n">
-        <v>11604780.92042435</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4651,18 +4295,15 @@
         <v>89538.46341247432</v>
       </c>
       <c r="G123" t="n">
-        <v>11694319.38383683</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4684,18 +4325,15 @@
         <v>70178.5365</v>
       </c>
       <c r="G124" t="n">
-        <v>11624140.84733683</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4717,18 +4355,15 @@
         <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>11624240.84733683</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4750,18 +4385,15 @@
         <v>7729.8402</v>
       </c>
       <c r="G126" t="n">
-        <v>11616511.00713683</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4783,18 +4415,15 @@
         <v>134849.6197</v>
       </c>
       <c r="G127" t="n">
-        <v>11751360.62683683</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4816,18 +4445,15 @@
         <v>2717.1816</v>
       </c>
       <c r="G128" t="n">
-        <v>11748643.44523683</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4849,18 +4475,15 @@
         <v>9975</v>
       </c>
       <c r="G129" t="n">
-        <v>11748643.44523683</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4882,18 +4505,15 @@
         <v>7852.575</v>
       </c>
       <c r="G130" t="n">
-        <v>11748643.44523683</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4915,18 +4535,15 @@
         <v>27589.3471</v>
       </c>
       <c r="G131" t="n">
-        <v>11721054.09813683</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4948,18 +4565,15 @@
         <v>70178.53660000001</v>
       </c>
       <c r="G132" t="n">
-        <v>11650875.56153683</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4981,18 +4595,15 @@
         <v>9776.625899999999</v>
       </c>
       <c r="G133" t="n">
-        <v>11660652.18743683</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5014,18 +4625,15 @@
         <v>19394.48</v>
       </c>
       <c r="G134" t="n">
-        <v>11680046.66743683</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5047,18 +4655,15 @@
         <v>23328.1493</v>
       </c>
       <c r="G135" t="n">
-        <v>11703374.81673683</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5080,18 +4685,15 @@
         <v>13473.0539</v>
       </c>
       <c r="G136" t="n">
-        <v>11703374.81673683</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5113,18 +4715,15 @@
         <v>26456.0679</v>
       </c>
       <c r="G137" t="n">
-        <v>11703374.81673683</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5146,18 +4745,15 @@
         <v>89314.6173</v>
       </c>
       <c r="G138" t="n">
-        <v>11792689.43403683</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5179,18 +4775,15 @@
         <v>50000</v>
       </c>
       <c r="G139" t="n">
-        <v>11842689.43403683</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5212,18 +4805,15 @@
         <v>100000</v>
       </c>
       <c r="G140" t="n">
-        <v>11942689.43403683</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5245,18 +4835,15 @@
         <v>390461.5598</v>
       </c>
       <c r="G141" t="n">
-        <v>12333150.99383683</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5278,18 +4865,15 @@
         <v>128424.7234</v>
       </c>
       <c r="G142" t="n">
-        <v>12333150.99383683</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5311,18 +4895,15 @@
         <v>4500</v>
       </c>
       <c r="G143" t="n">
-        <v>12337650.99383683</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5344,18 +4925,15 @@
         <v>336207.7352</v>
       </c>
       <c r="G144" t="n">
-        <v>12001443.25863683</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5377,18 +4955,15 @@
         <v>561862.4577</v>
       </c>
       <c r="G145" t="n">
-        <v>12563305.71633683</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5410,18 +4985,15 @@
         <v>580144.8676999999</v>
       </c>
       <c r="G146" t="n">
-        <v>13143450.58403683</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5443,18 +5015,15 @@
         <v>9000</v>
       </c>
       <c r="G147" t="n">
-        <v>13152450.58403683</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5476,18 +5045,15 @@
         <v>313673.8851</v>
       </c>
       <c r="G148" t="n">
-        <v>12838776.69893683</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5509,18 +5075,15 @@
         <v>40402.7894</v>
       </c>
       <c r="G149" t="n">
-        <v>12798373.90953683</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5542,18 +5105,15 @@
         <v>112676.4515</v>
       </c>
       <c r="G150" t="n">
-        <v>12911050.36103683</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5575,18 +5135,15 @@
         <v>107588.8863</v>
       </c>
       <c r="G151" t="n">
-        <v>12803461.47473683</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5608,18 +5165,15 @@
         <v>42032.1156</v>
       </c>
       <c r="G152" t="n">
-        <v>12845493.59033683</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5641,18 +5195,15 @@
         <v>255786.2276</v>
       </c>
       <c r="G153" t="n">
-        <v>12589707.36273683</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5674,18 +5225,15 @@
         <v>691859.1176999999</v>
       </c>
       <c r="G154" t="n">
-        <v>12589707.36273683</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5707,18 +5255,15 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>12589717.36273683</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5740,18 +5285,15 @@
         <v>16500</v>
       </c>
       <c r="G156" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5773,18 +5315,15 @@
         <v>8460</v>
       </c>
       <c r="G157" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5806,18 +5345,15 @@
         <v>15100.2898</v>
       </c>
       <c r="G158" t="n">
-        <v>12573217.36273683</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5839,18 +5375,15 @@
         <v>206045.8388</v>
       </c>
       <c r="G159" t="n">
-        <v>12779263.20153683</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5872,18 +5405,15 @@
         <v>962778.0503</v>
       </c>
       <c r="G160" t="n">
-        <v>12779263.20153683</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5905,18 +5435,15 @@
         <v>1990</v>
       </c>
       <c r="G161" t="n">
-        <v>12781253.20153683</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5938,18 +5465,15 @@
         <v>10000</v>
       </c>
       <c r="G162" t="n">
-        <v>12791253.20153683</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5971,18 +5495,15 @@
         <v>20533.9712</v>
       </c>
       <c r="G163" t="n">
-        <v>12770719.23033683</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6004,18 +5525,15 @@
         <v>7339.4838</v>
       </c>
       <c r="G164" t="n">
-        <v>12770719.23033683</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6037,18 +5555,15 @@
         <v>102913.0294</v>
       </c>
       <c r="G165" t="n">
-        <v>12667806.20093683</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6070,18 +5585,15 @@
         <v>6998.556</v>
       </c>
       <c r="G166" t="n">
-        <v>12660807.64493683</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6103,18 +5615,15 @@
         <v>20602.0623</v>
       </c>
       <c r="G167" t="n">
-        <v>12640205.58263683</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6136,18 +5645,15 @@
         <v>7201.709</v>
       </c>
       <c r="G168" t="n">
-        <v>12640205.58263683</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6169,18 +5675,15 @@
         <v>15062.5391</v>
       </c>
       <c r="G169" t="n">
-        <v>12625143.04353683</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6202,18 +5705,15 @@
         <v>10000</v>
       </c>
       <c r="G170" t="n">
-        <v>12635143.04353683</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6235,18 +5735,15 @@
         <v>39030.8432</v>
       </c>
       <c r="G171" t="n">
-        <v>12596112.20033683</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6268,18 +5765,15 @@
         <v>9980.9144</v>
       </c>
       <c r="G172" t="n">
-        <v>12596112.20033683</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6301,18 +5795,15 @@
         <v>100</v>
       </c>
       <c r="G173" t="n">
-        <v>12596212.20033683</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6334,18 +5825,15 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>12596222.20033683</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6367,18 +5855,15 @@
         <v>595307.6922</v>
       </c>
       <c r="G175" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6400,18 +5885,15 @@
         <v>125469.1568</v>
       </c>
       <c r="G176" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6433,18 +5915,15 @@
         <v>36633.5521</v>
       </c>
       <c r="G177" t="n">
-        <v>12000914.50813683</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6466,18 +5945,15 @@
         <v>6220</v>
       </c>
       <c r="G178" t="n">
-        <v>11994694.50813683</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6499,18 +5975,15 @@
         <v>12653.6857</v>
       </c>
       <c r="G179" t="n">
-        <v>11982040.82243683</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6532,18 +6005,15 @@
         <v>640</v>
       </c>
       <c r="G180" t="n">
-        <v>11982680.82243683</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6565,18 +6035,15 @@
         <v>20782.8358</v>
       </c>
       <c r="G181" t="n">
-        <v>12003463.65823683</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
